--- a/JupyterNotebooks/AvgHW/CopperA-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
+    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,22 +653,22 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9999575113390055</v>
+      </c>
+      <c r="D3">
+        <v>1.000016337346747</v>
+      </c>
+      <c r="E3">
+        <v>1.000024256192608</v>
+      </c>
+      <c r="F3">
+        <v>0.9999859588767922</v>
+      </c>
+      <c r="G3">
         <v>1.00004356479041</v>
       </c>
-      <c r="D3">
-        <v>0.9999346522471146</v>
-      </c>
-      <c r="E3">
-        <v>1.000016337346747</v>
-      </c>
-      <c r="F3">
+      <c r="H3">
         <v>1.00004356479041</v>
-      </c>
-      <c r="G3">
-        <v>0.9999859588767922</v>
-      </c>
-      <c r="H3">
-        <v>1.000024256192608</v>
       </c>
       <c r="I3">
         <v>1.00004356479041</v>
@@ -725,13 +677,13 @@
         <v>0.9999346522471146</v>
       </c>
       <c r="K3">
-        <v>0.9999869301792548</v>
+        <v>1.000016337346747</v>
       </c>
       <c r="L3">
-        <v>1.000016337346747</v>
+        <v>0.9999869301792547</v>
       </c>
       <c r="M3">
-        <v>0.9999575113390055</v>
+        <v>0.9999346522471146</v>
       </c>
       <c r="N3">
         <v>1.00004356479041</v>
@@ -764,7 +716,7 @@
         <v>0.9999956935398349</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9999179760463147</v>
+      </c>
+      <c r="D4">
+        <v>1.000031538801238</v>
+      </c>
+      <c r="E4">
+        <v>1.000046825577834</v>
+      </c>
+      <c r="F4">
+        <v>0.9999728930233932</v>
+      </c>
+      <c r="G4">
         <v>1.000084100457472</v>
       </c>
-      <c r="D4">
-        <v>0.9998738477699339</v>
-      </c>
-      <c r="E4">
-        <v>1.000031538801238</v>
-      </c>
-      <c r="F4">
+      <c r="H4">
         <v>1.000084100457472</v>
-      </c>
-      <c r="G4">
-        <v>0.9999728930233932</v>
-      </c>
-      <c r="H4">
-        <v>1.000046825577834</v>
       </c>
       <c r="I4">
         <v>1.000084100457472</v>
       </c>
       <c r="J4">
-        <v>0.9998738477699339</v>
+        <v>0.9998738477699345</v>
       </c>
       <c r="K4">
+        <v>1.000031538801238</v>
+      </c>
+      <c r="L4">
         <v>0.9999747692724216</v>
       </c>
-      <c r="L4">
-        <v>1.000031538801238</v>
-      </c>
       <c r="M4">
-        <v>0.9999179760463147</v>
+        <v>0.9998738477699345</v>
       </c>
       <c r="N4">
         <v>1.000084100457472</v>
@@ -811,31 +763,31 @@
         <v>1.000031538801238</v>
       </c>
       <c r="P4">
-        <v>0.9999526932855858</v>
+        <v>0.9999526932855861</v>
       </c>
       <c r="Q4">
         <v>1.000002215912315</v>
       </c>
       <c r="R4">
-        <v>0.9999964956762146</v>
+        <v>0.9999964956762147</v>
       </c>
       <c r="S4">
-        <v>0.9999594265315216</v>
+        <v>0.9999594265315218</v>
       </c>
       <c r="T4">
-        <v>0.9999964956762146</v>
+        <v>0.9999964956762147</v>
       </c>
       <c r="U4">
-        <v>0.9999905950130092</v>
+        <v>0.9999905950130094</v>
       </c>
       <c r="V4">
         <v>1.000009296101902</v>
       </c>
       <c r="W4">
-        <v>0.9999916862187307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9999916862187308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9998428127637381</v>
+      </c>
+      <c r="D5">
+        <v>1.000060440755941</v>
+      </c>
+      <c r="E5">
+        <v>1.000089737246848</v>
+      </c>
+      <c r="F5">
+        <v>0.9999480524086521</v>
+      </c>
+      <c r="G5">
         <v>1.000161170385733</v>
       </c>
-      <c r="D5">
-        <v>0.9997582422643116</v>
-      </c>
-      <c r="E5">
-        <v>1.000060440755941</v>
-      </c>
-      <c r="F5">
+      <c r="H5">
         <v>1.000161170385733</v>
-      </c>
-      <c r="G5">
-        <v>0.9999480524086521</v>
-      </c>
-      <c r="H5">
-        <v>1.000089737246848</v>
       </c>
       <c r="I5">
         <v>1.000161170385733</v>
       </c>
       <c r="J5">
-        <v>0.9997582422643116</v>
+        <v>0.9997582422643118</v>
       </c>
       <c r="K5">
+        <v>1.000060440755941</v>
+      </c>
+      <c r="L5">
         <v>0.9999516448605553</v>
       </c>
-      <c r="L5">
-        <v>1.000060440755941</v>
-      </c>
       <c r="M5">
-        <v>0.9998428127637381</v>
+        <v>0.9997582422643118</v>
       </c>
       <c r="N5">
         <v>1.000161170385733</v>
@@ -882,7 +834,7 @@
         <v>1.000060440755941</v>
       </c>
       <c r="P5">
-        <v>0.9999093415101262</v>
+        <v>0.9999093415101263</v>
       </c>
       <c r="Q5">
         <v>1.000004246582296</v>
@@ -906,7 +858,7 @@
         <v>0.999984067680215</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,22 +866,22 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9997694511052603</v>
+      </c>
+      <c r="D6">
+        <v>1.000088647349415</v>
+      </c>
+      <c r="E6">
+        <v>1.000131615952785</v>
+      </c>
+      <c r="F6">
+        <v>0.9999238101240604</v>
+      </c>
+      <c r="G6">
         <v>1.000236381085585</v>
       </c>
-      <c r="D6">
-        <v>0.9996454274883988</v>
-      </c>
-      <c r="E6">
-        <v>1.000088647349415</v>
-      </c>
-      <c r="F6">
+      <c r="H6">
         <v>1.000236381085585</v>
-      </c>
-      <c r="G6">
-        <v>0.9999238101240604</v>
-      </c>
-      <c r="H6">
-        <v>1.000131615952785</v>
       </c>
       <c r="I6">
         <v>1.000236381085585</v>
@@ -938,13 +890,13 @@
         <v>0.9996454274883988</v>
       </c>
       <c r="K6">
+        <v>1.000088647349415</v>
+      </c>
+      <c r="L6">
         <v>0.999929085185091</v>
       </c>
-      <c r="L6">
-        <v>1.000088647349415</v>
-      </c>
       <c r="M6">
-        <v>0.9997694511052603</v>
+        <v>0.9996454274883988</v>
       </c>
       <c r="N6">
         <v>1.000236381085585</v>
@@ -974,10 +926,10 @@
         <v>1.000026129426609</v>
       </c>
       <c r="W6">
-        <v>0.9999766332050014</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9999766332050015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,22 +937,22 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9999960558787278</v>
+      </c>
+      <c r="D7">
+        <v>1.000001517312039</v>
+      </c>
+      <c r="E7">
+        <v>1.000002251821324</v>
+      </c>
+      <c r="F7">
+        <v>0.9999986968599427</v>
+      </c>
+      <c r="G7">
         <v>1.000004044211121</v>
       </c>
-      <c r="D7">
-        <v>0.9999939330649996</v>
-      </c>
-      <c r="E7">
-        <v>1.000001517312039</v>
-      </c>
-      <c r="F7">
+      <c r="H7">
         <v>1.000004044211121</v>
-      </c>
-      <c r="G7">
-        <v>0.9999986968599427</v>
-      </c>
-      <c r="H7">
-        <v>1.000002251821324</v>
       </c>
       <c r="I7">
         <v>1.000004044211121</v>
@@ -1009,13 +961,13 @@
         <v>0.9999939330649996</v>
       </c>
       <c r="K7">
-        <v>0.9999987862020109</v>
+        <v>1.000001517312039</v>
       </c>
       <c r="L7">
-        <v>1.000001517312039</v>
+        <v>0.9999987862020112</v>
       </c>
       <c r="M7">
-        <v>0.9999960558787278</v>
+        <v>0.9999939330649996</v>
       </c>
       <c r="N7">
         <v>1.000004044211121</v>
@@ -1048,7 +1000,7 @@
         <v>0.9999996003327756</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,22 +1008,22 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.999988212929916</v>
+      </c>
+      <c r="D8">
+        <v>1.000004532935379</v>
+      </c>
+      <c r="E8">
+        <v>1.000006729453521</v>
+      </c>
+      <c r="F8">
+        <v>0.9999961051877451</v>
+      </c>
+      <c r="G8">
         <v>1.000012085693755</v>
       </c>
-      <c r="D8">
-        <v>0.9999818707959977</v>
-      </c>
-      <c r="E8">
-        <v>1.000004532935379</v>
-      </c>
-      <c r="F8">
+      <c r="H8">
         <v>1.000012085693755</v>
-      </c>
-      <c r="G8">
-        <v>0.9999961051877451</v>
-      </c>
-      <c r="H8">
-        <v>1.000006729453521</v>
       </c>
       <c r="I8">
         <v>1.000012085693755</v>
@@ -1080,13 +1032,13 @@
         <v>0.9999818707959977</v>
       </c>
       <c r="K8">
+        <v>1.000004532935379</v>
+      </c>
+      <c r="L8">
         <v>0.9999963738569222</v>
       </c>
-      <c r="L8">
-        <v>1.000004532935379</v>
-      </c>
       <c r="M8">
-        <v>0.999988212929916</v>
+        <v>0.9999818707959977</v>
       </c>
       <c r="N8">
         <v>1.000012085693755</v>
@@ -1095,7 +1047,7 @@
         <v>1.000004532935379</v>
       </c>
       <c r="P8">
-        <v>0.9999932018656885</v>
+        <v>0.9999932018656883</v>
       </c>
       <c r="Q8">
         <v>1.000000319061562</v>
@@ -1104,7 +1056,7 @@
         <v>0.999999496475044</v>
       </c>
       <c r="S8">
-        <v>0.9999941696397073</v>
+        <v>0.9999941696397072</v>
       </c>
       <c r="T8">
         <v>0.999999496475044</v>
@@ -1116,10 +1068,10 @@
         <v>1.000001336061326</v>
       </c>
       <c r="W8">
-        <v>0.999998805473577</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999988054735769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,22 +1079,22 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9999812436271609</v>
+      </c>
+      <c r="D9">
+        <v>1.000007213203714</v>
+      </c>
+      <c r="E9">
+        <v>1.000010707885969</v>
+      </c>
+      <c r="F9">
+        <v>0.9999938016556821</v>
+      </c>
+      <c r="G9">
         <v>1.000019231463122</v>
       </c>
-      <c r="D9">
-        <v>0.999971151775584</v>
-      </c>
-      <c r="E9">
-        <v>1.000007213203714</v>
-      </c>
-      <c r="F9">
+      <c r="H9">
         <v>1.000019231463122</v>
-      </c>
-      <c r="G9">
-        <v>0.9999938016556821</v>
-      </c>
-      <c r="H9">
-        <v>1.000010707885969</v>
       </c>
       <c r="I9">
         <v>1.000019231463122</v>
@@ -1151,13 +1103,13 @@
         <v>0.999971151775584</v>
       </c>
       <c r="K9">
+        <v>1.000007213203714</v>
+      </c>
+      <c r="L9">
         <v>0.99999423009253</v>
       </c>
-      <c r="L9">
-        <v>1.000007213203714</v>
-      </c>
       <c r="M9">
-        <v>0.9999812436271609</v>
+        <v>0.999971151775584</v>
       </c>
       <c r="N9">
         <v>1.000019231463122</v>
@@ -1190,7 +1142,7 @@
         <v>0.9999980991134343</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,22 +1150,22 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9999616393967031</v>
+      </c>
+      <c r="D10">
+        <v>1.000014750222523</v>
+      </c>
+      <c r="E10">
+        <v>1.000021899137494</v>
+      </c>
+      <c r="F10">
+        <v>0.9999873229422702</v>
+      </c>
+      <c r="G10">
         <v>1.000039331628085</v>
       </c>
-      <c r="D10">
-        <v>0.9999410008161779</v>
-      </c>
-      <c r="E10">
-        <v>1.000014750222523</v>
-      </c>
-      <c r="F10">
+      <c r="H10">
         <v>1.000039331628085</v>
-      </c>
-      <c r="G10">
-        <v>0.9999873229422702</v>
-      </c>
-      <c r="H10">
-        <v>1.000021899137494</v>
       </c>
       <c r="I10">
         <v>1.000039331628085</v>
@@ -1222,13 +1174,13 @@
         <v>0.9999410008161779</v>
       </c>
       <c r="K10">
+        <v>1.000014750222523</v>
+      </c>
+      <c r="L10">
         <v>0.9999881992774611</v>
       </c>
-      <c r="L10">
-        <v>1.000014750222523</v>
-      </c>
       <c r="M10">
-        <v>0.9999616393967031</v>
+        <v>0.9999410008161779</v>
       </c>
       <c r="N10">
         <v>1.000039331628085</v>
@@ -1261,7 +1213,7 @@
         <v>0.9999961117054045</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9999308831216656</v>
+      </c>
+      <c r="D11">
+        <v>1.000026575348392</v>
+      </c>
+      <c r="E11">
+        <v>1.000039456723155</v>
+      </c>
+      <c r="F11">
+        <v>0.9999771536305246</v>
+      </c>
+      <c r="G11">
         <v>1.000070870510141</v>
       </c>
-      <c r="D11">
-        <v>0.9998936943957337</v>
-      </c>
-      <c r="E11">
-        <v>1.000026575348392</v>
-      </c>
-      <c r="F11">
+      <c r="H11">
         <v>1.000070870510141</v>
-      </c>
-      <c r="G11">
-        <v>0.9999771536305246</v>
-      </c>
-      <c r="H11">
-        <v>1.000039456723155</v>
       </c>
       <c r="I11">
         <v>1.000070870510141</v>
       </c>
       <c r="J11">
-        <v>0.9998936943957337</v>
+        <v>0.9998936943957339</v>
       </c>
       <c r="K11">
+        <v>1.000026575348392</v>
+      </c>
+      <c r="L11">
         <v>0.9999787377443161</v>
       </c>
-      <c r="L11">
-        <v>1.000026575348392</v>
-      </c>
       <c r="M11">
-        <v>0.9999308831216656</v>
+        <v>0.9998936943957339</v>
       </c>
       <c r="N11">
         <v>1.000070870510141</v>
@@ -1308,31 +1260,31 @@
         <v>1.000026575348392</v>
       </c>
       <c r="P11">
-        <v>0.9999601348720629</v>
+        <v>0.999960134872063</v>
       </c>
       <c r="Q11">
         <v>1.000001864489458</v>
       </c>
       <c r="R11">
-        <v>0.9999970467514222</v>
+        <v>0.9999970467514223</v>
       </c>
       <c r="S11">
         <v>0.9999658077915502</v>
       </c>
       <c r="T11">
-        <v>0.9999970467514222</v>
+        <v>0.9999970467514223</v>
       </c>
       <c r="U11">
-        <v>0.9999920734711978</v>
+        <v>0.9999920734711979</v>
       </c>
       <c r="V11">
         <v>1.000007832878987</v>
       </c>
       <c r="W11">
-        <v>0.9999929933527899</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.99999299335279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,22 +1292,22 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.000666085970115</v>
+      </c>
+      <c r="D12">
+        <v>0.9997438938034638</v>
+      </c>
+      <c r="E12">
+        <v>0.9996197449061232</v>
+      </c>
+      <c r="F12">
+        <v>1.000220129817869</v>
+      </c>
+      <c r="G12">
         <v>0.999317052328887</v>
       </c>
-      <c r="D12">
-        <v>1.001024430724695</v>
-      </c>
-      <c r="E12">
-        <v>0.999743893803464</v>
-      </c>
-      <c r="F12">
+      <c r="H12">
         <v>0.999317052328887</v>
-      </c>
-      <c r="G12">
-        <v>1.000220129817869</v>
-      </c>
-      <c r="H12">
-        <v>0.9996197449061232</v>
       </c>
       <c r="I12">
         <v>0.999317052328887</v>
@@ -1364,25 +1316,25 @@
         <v>1.001024430724695</v>
       </c>
       <c r="K12">
+        <v>0.9997438938034638</v>
+      </c>
+      <c r="L12">
         <v>1.000204886332857</v>
       </c>
-      <c r="L12">
-        <v>0.999743893803464</v>
-      </c>
       <c r="M12">
-        <v>1.000666085970115</v>
+        <v>1.001024430724695</v>
       </c>
       <c r="N12">
         <v>0.999317052328887</v>
       </c>
       <c r="O12">
-        <v>0.999743893803464</v>
+        <v>0.9997438938034638</v>
       </c>
       <c r="P12">
         <v>1.000384162264079</v>
       </c>
       <c r="Q12">
-        <v>0.9999820118106665</v>
+        <v>0.9999820118106664</v>
       </c>
       <c r="R12">
         <v>1.000028458952349</v>
@@ -1403,7 +1355,7 @@
         <v>1.000067514710934</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,22 +1363,22 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.000172721969755</v>
+      </c>
+      <c r="D13">
+        <v>0.999933589474673</v>
+      </c>
+      <c r="E13">
+        <v>0.9999013970599903</v>
+      </c>
+      <c r="F13">
+        <v>1.000057082469059</v>
+      </c>
+      <c r="G13">
         <v>0.9998229063943893</v>
       </c>
-      <c r="D13">
-        <v>1.000265642093876</v>
-      </c>
-      <c r="E13">
-        <v>0.999933589474673</v>
-      </c>
-      <c r="F13">
+      <c r="H13">
         <v>0.9998229063943893</v>
-      </c>
-      <c r="G13">
-        <v>1.000057082469059</v>
-      </c>
-      <c r="H13">
-        <v>0.9999013970599901</v>
       </c>
       <c r="I13">
         <v>0.9998229063943893</v>
@@ -1435,13 +1387,13 @@
         <v>1.000265642093876</v>
       </c>
       <c r="K13">
+        <v>0.999933589474673</v>
+      </c>
+      <c r="L13">
         <v>1.000053130527871</v>
       </c>
-      <c r="L13">
-        <v>0.999933589474673</v>
-      </c>
       <c r="M13">
-        <v>1.000172721969755</v>
+        <v>1.000265642093876</v>
       </c>
       <c r="N13">
         <v>0.9998229063943893</v>
@@ -1462,7 +1414,7 @@
         <v>1.000085438012536</v>
       </c>
       <c r="T13">
-        <v>1.000007379320979</v>
+        <v>1.00000737932098</v>
       </c>
       <c r="U13">
         <v>1.000019805107999</v>
@@ -1474,7 +1426,7 @@
         <v>1.000017507433036</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,37 +1434,37 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.9979547335471384</v>
+      </c>
+      <c r="D14">
+        <v>1.00078638839985</v>
+      </c>
+      <c r="E14">
+        <v>1.001167609397718</v>
+      </c>
+      <c r="F14">
+        <v>0.9993240927643519</v>
+      </c>
+      <c r="G14">
         <v>1.002097043146077</v>
       </c>
-      <c r="D14">
-        <v>0.9968544307459395</v>
-      </c>
-      <c r="E14">
-        <v>1.00078638839985</v>
-      </c>
-      <c r="F14">
+      <c r="H14">
         <v>1.002097043146077</v>
-      </c>
-      <c r="G14">
-        <v>0.9993240927643519</v>
-      </c>
-      <c r="H14">
-        <v>1.001167609397718</v>
       </c>
       <c r="I14">
         <v>1.002097043146077</v>
       </c>
       <c r="J14">
-        <v>0.9968544307459395</v>
+        <v>0.9968544307459394</v>
       </c>
       <c r="K14">
+        <v>1.00078638839985</v>
+      </c>
+      <c r="L14">
         <v>0.999370885268079</v>
       </c>
-      <c r="L14">
-        <v>1.00078638839985</v>
-      </c>
       <c r="M14">
-        <v>0.9979547335471382</v>
+        <v>0.9968544307459394</v>
       </c>
       <c r="N14">
         <v>1.002097043146077</v>
@@ -1542,10 +1494,10 @@
         <v>1.000231799640459</v>
       </c>
       <c r="W14">
-        <v>0.9997926964586252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9997926964586253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,22 +1505,22 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.9994521648468052</v>
+      </c>
+      <c r="D15">
+        <v>1.000210651894594</v>
+      </c>
+      <c r="E15">
+        <v>1.000312744731233</v>
+      </c>
+      <c r="F15">
+        <v>0.9998189516654599</v>
+      </c>
+      <c r="G15">
         <v>1.000561704110276</v>
       </c>
-      <c r="D15">
-        <v>0.9991574420209649</v>
-      </c>
-      <c r="E15">
-        <v>1.000210651894594</v>
-      </c>
-      <c r="F15">
+      <c r="H15">
         <v>1.000561704110276</v>
-      </c>
-      <c r="G15">
-        <v>0.9998189516654595</v>
-      </c>
-      <c r="H15">
-        <v>1.000312744731233</v>
       </c>
       <c r="I15">
         <v>1.000561704110276</v>
@@ -1577,13 +1529,13 @@
         <v>0.9991574420209649</v>
       </c>
       <c r="K15">
+        <v>1.000210651894594</v>
+      </c>
+      <c r="L15">
         <v>0.9998314928942291</v>
       </c>
-      <c r="L15">
-        <v>1.000210651894594</v>
-      </c>
       <c r="M15">
-        <v>0.9994521648468052</v>
+        <v>0.9991574420209649</v>
       </c>
       <c r="N15">
         <v>1.000561704110276</v>
@@ -1601,7 +1553,7 @@
         <v>0.9999765993419448</v>
       </c>
       <c r="S15">
-        <v>0.9997290151936729</v>
+        <v>0.999729015193673</v>
       </c>
       <c r="T15">
         <v>0.9999765993419448</v>
@@ -1613,10 +1565,10 @@
         <v>1.000062090760314</v>
       </c>
       <c r="W15">
-        <v>0.9999444755072694</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.9999444755072695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000179607315</v>
+        <v>0.9991707076371594</v>
       </c>
       <c r="D16">
-        <v>0.9999997300889192</v>
+        <v>1.000318855713657</v>
       </c>
       <c r="E16">
-        <v>1.000000067907059</v>
+        <v>1.000473430678465</v>
       </c>
       <c r="F16">
-        <v>1.000000179607315</v>
+        <v>0.9997259394138883</v>
       </c>
       <c r="G16">
-        <v>0.9999999424908483</v>
+        <v>1.000850284077974</v>
       </c>
       <c r="H16">
-        <v>1.000000100217808</v>
+        <v>1.000850284077974</v>
       </c>
       <c r="I16">
-        <v>1.000000179607315</v>
+        <v>1.000850284077974</v>
       </c>
       <c r="J16">
-        <v>0.9999997300889192</v>
+        <v>0.9987245632736423</v>
       </c>
       <c r="K16">
-        <v>0.9999999456216715</v>
+        <v>1.000318855713657</v>
       </c>
       <c r="L16">
-        <v>1.000000067907059</v>
+        <v>0.9997449139620114</v>
       </c>
       <c r="M16">
-        <v>0.9999998250766023</v>
+        <v>0.9987245632736423</v>
       </c>
       <c r="N16">
-        <v>1.000000179607315</v>
+        <v>1.000850284077974</v>
       </c>
       <c r="O16">
-        <v>1.000000067907059</v>
+        <v>1.000318855713657</v>
       </c>
       <c r="P16">
-        <v>0.9999998989979891</v>
+        <v>0.9995217094936496</v>
       </c>
       <c r="Q16">
-        <v>1.000000005198954</v>
+        <v>1.000022397563773</v>
       </c>
       <c r="R16">
-        <v>0.9999999925344311</v>
+        <v>0.9999645676884242</v>
       </c>
       <c r="S16">
-        <v>0.9999999134956088</v>
+        <v>0.9995897861337292</v>
       </c>
       <c r="T16">
-        <v>0.9999999925344311</v>
+        <v>0.9999645676884242</v>
       </c>
       <c r="U16">
-        <v>0.9999999800235354</v>
+        <v>0.9999049106197903</v>
       </c>
       <c r="V16">
-        <v>1.000000019940291</v>
+        <v>1.000093985311427</v>
       </c>
       <c r="W16">
-        <v>0.9999999823646604</v>
+        <v>0.9999159438088068</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000003809831843</v>
+        <v>0.9993195992817316</v>
       </c>
       <c r="D17">
-        <v>0.9999942849949609</v>
+        <v>1.000261608992438</v>
       </c>
       <c r="E17">
-        <v>1.000001429143176</v>
+        <v>1.000388430833307</v>
       </c>
       <c r="F17">
-        <v>1.000003809831843</v>
+        <v>0.9997751446630934</v>
       </c>
       <c r="G17">
-        <v>0.9999987722366942</v>
+        <v>1.000697623625137</v>
       </c>
       <c r="H17">
-        <v>1.000002120972451</v>
+        <v>1.000697623625137</v>
       </c>
       <c r="I17">
-        <v>1.000003809831843</v>
+        <v>1.000697623625137</v>
       </c>
       <c r="J17">
-        <v>0.9999942849949609</v>
+        <v>0.9989535566596703</v>
       </c>
       <c r="K17">
-        <v>0.9999988566196517</v>
+        <v>1.000261608992438</v>
       </c>
       <c r="L17">
-        <v>1.000001429143176</v>
+        <v>0.9997907120005413</v>
       </c>
       <c r="M17">
-        <v>0.9999962845187249</v>
+        <v>0.9989535566596703</v>
       </c>
       <c r="N17">
-        <v>1.000003809831843</v>
+        <v>1.000697623625137</v>
       </c>
       <c r="O17">
-        <v>1.000001429143176</v>
+        <v>1.000261608992438</v>
       </c>
       <c r="P17">
-        <v>0.9999978570690684</v>
+        <v>0.9996075828260543</v>
       </c>
       <c r="Q17">
-        <v>1.000000100689935</v>
+        <v>1.000018376827766</v>
       </c>
       <c r="R17">
-        <v>0.9999998413233268</v>
+        <v>0.999970929759082</v>
       </c>
       <c r="S17">
-        <v>0.9999981621249437</v>
+        <v>0.999663436771734</v>
       </c>
       <c r="T17">
-        <v>0.9999998413233268</v>
+        <v>0.999970929759082</v>
       </c>
       <c r="U17">
-        <v>0.9999995740516686</v>
+        <v>0.9999219834850848</v>
       </c>
       <c r="V17">
-        <v>1.000000421207704</v>
+        <v>1.000077111513095</v>
       </c>
       <c r="W17">
-        <v>0.9999996234325847</v>
+        <v>0.9999310356310447</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000013414043055</v>
+        <v>0.9996155617080531</v>
       </c>
       <c r="D18">
-        <v>0.9999798795125698</v>
+        <v>1.000147814052021</v>
       </c>
       <c r="E18">
-        <v>1.000005030359424</v>
+        <v>1.000219470914856</v>
       </c>
       <c r="F18">
-        <v>1.000013414043055</v>
+        <v>0.9998729529222047</v>
       </c>
       <c r="G18">
-        <v>0.9999956783317172</v>
+        <v>1.000394170234662</v>
       </c>
       <c r="H18">
-        <v>1.000007467220697</v>
+        <v>1.000394170234662</v>
       </c>
       <c r="I18">
-        <v>1.000013414043055</v>
+        <v>1.000394170234662</v>
       </c>
       <c r="J18">
-        <v>0.9999798795125698</v>
+        <v>0.9994087427499914</v>
       </c>
       <c r="K18">
-        <v>0.9999959759348931</v>
+        <v>1.000147814052021</v>
       </c>
       <c r="L18">
-        <v>1.000005030359424</v>
+        <v>0.9998817478445885</v>
       </c>
       <c r="M18">
-        <v>0.9999869191898266</v>
+        <v>0.9994087427499914</v>
       </c>
       <c r="N18">
-        <v>1.000013414043055</v>
+        <v>1.000394170234662</v>
       </c>
       <c r="O18">
-        <v>1.000005030359424</v>
+        <v>1.000147814052021</v>
       </c>
       <c r="P18">
-        <v>0.9999924549359971</v>
+        <v>0.9997782784010063</v>
       </c>
       <c r="Q18">
-        <v>1.000000354345571</v>
+        <v>1.000010383487113</v>
       </c>
       <c r="R18">
-        <v>0.9999994413050163</v>
+        <v>0.9999835756788915</v>
       </c>
       <c r="S18">
-        <v>0.9999935294012371</v>
+        <v>0.9998098365747391</v>
       </c>
       <c r="T18">
-        <v>0.9999994413050163</v>
+        <v>0.9999835756788915</v>
       </c>
       <c r="U18">
-        <v>0.9999985005616915</v>
+        <v>0.9999559199897198</v>
       </c>
       <c r="V18">
-        <v>1.000001483257964</v>
+        <v>1.000043570038708</v>
       </c>
       <c r="W18">
-        <v>0.9999986743689508</v>
+        <v>0.9999610343097999</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9995865664734497</v>
+      </c>
+      <c r="D19">
+        <v>1.00015896637327</v>
+      </c>
+      <c r="E19">
+        <v>1.000236024054481</v>
+      </c>
+      <c r="F19">
+        <v>0.9998633720861297</v>
+      </c>
+      <c r="G19">
+        <v>1.000423900317775</v>
+      </c>
+      <c r="H19">
+        <v>1.000423900317775</v>
+      </c>
+      <c r="I19">
+        <v>1.000423900317775</v>
+      </c>
+      <c r="J19">
+        <v>0.9993641471832684</v>
+      </c>
+      <c r="K19">
+        <v>1.00015896637327</v>
+      </c>
+      <c r="L19">
+        <v>0.9998728294795223</v>
+      </c>
+      <c r="M19">
+        <v>0.9993641471832684</v>
+      </c>
+      <c r="N19">
+        <v>1.000423900317775</v>
+      </c>
+      <c r="O19">
+        <v>1.00015896637327</v>
+      </c>
+      <c r="P19">
+        <v>0.9997615567782689</v>
+      </c>
+      <c r="Q19">
+        <v>1.0000111692297</v>
+      </c>
+      <c r="R19">
+        <v>0.9999823379581043</v>
+      </c>
+      <c r="S19">
+        <v>0.9997954952142226</v>
+      </c>
+      <c r="T19">
+        <v>0.9999823379581043</v>
+      </c>
+      <c r="U19">
+        <v>0.9999525964901107</v>
+      </c>
+      <c r="V19">
+        <v>1.000046857255644</v>
+      </c>
+      <c r="W19">
+        <v>0.9999580965426456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999998250766023</v>
+      </c>
+      <c r="D20">
+        <v>1.000000067907059</v>
+      </c>
+      <c r="E20">
+        <v>1.000000100217808</v>
+      </c>
+      <c r="F20">
+        <v>0.9999999424908483</v>
+      </c>
+      <c r="G20">
+        <v>1.000000179607315</v>
+      </c>
+      <c r="H20">
+        <v>1.000000179607315</v>
+      </c>
+      <c r="I20">
+        <v>1.000000179607315</v>
+      </c>
+      <c r="J20">
+        <v>0.9999997300889194</v>
+      </c>
+      <c r="K20">
+        <v>1.000000067907059</v>
+      </c>
+      <c r="L20">
+        <v>0.9999999456216715</v>
+      </c>
+      <c r="M20">
+        <v>0.9999997300889194</v>
+      </c>
+      <c r="N20">
+        <v>1.000000179607315</v>
+      </c>
+      <c r="O20">
+        <v>1.000000067907059</v>
+      </c>
+      <c r="P20">
+        <v>0.9999998989979892</v>
+      </c>
+      <c r="Q20">
+        <v>1.000000005198954</v>
+      </c>
+      <c r="R20">
+        <v>0.9999999925344311</v>
+      </c>
+      <c r="S20">
+        <v>0.9999999134956089</v>
+      </c>
+      <c r="T20">
+        <v>0.9999999925344311</v>
+      </c>
+      <c r="U20">
+        <v>0.9999999800235354</v>
+      </c>
+      <c r="V20">
+        <v>1.000000019940291</v>
+      </c>
+      <c r="W20">
+        <v>0.9999999823646604</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9999962845187252</v>
+      </c>
+      <c r="D21">
+        <v>1.000001429143176</v>
+      </c>
+      <c r="E21">
+        <v>1.000002120972451</v>
+      </c>
+      <c r="F21">
+        <v>0.9999987722366942</v>
+      </c>
+      <c r="G21">
+        <v>1.000003809831843</v>
+      </c>
+      <c r="H21">
+        <v>1.000003809831843</v>
+      </c>
+      <c r="I21">
+        <v>1.000003809831843</v>
+      </c>
+      <c r="J21">
+        <v>0.9999942849949609</v>
+      </c>
+      <c r="K21">
+        <v>1.000001429143176</v>
+      </c>
+      <c r="L21">
+        <v>0.9999988566196517</v>
+      </c>
+      <c r="M21">
+        <v>0.9999942849949609</v>
+      </c>
+      <c r="N21">
+        <v>1.000003809831843</v>
+      </c>
+      <c r="O21">
+        <v>1.000001429143176</v>
+      </c>
+      <c r="P21">
+        <v>0.9999978570690684</v>
+      </c>
+      <c r="Q21">
+        <v>1.000000100689935</v>
+      </c>
+      <c r="R21">
+        <v>0.9999998413233268</v>
+      </c>
+      <c r="S21">
+        <v>0.9999981621249437</v>
+      </c>
+      <c r="T21">
+        <v>0.9999998413233268</v>
+      </c>
+      <c r="U21">
+        <v>0.9999995740516686</v>
+      </c>
+      <c r="V21">
+        <v>1.000000421207704</v>
+      </c>
+      <c r="W21">
+        <v>0.9999996234325847</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9999869191898266</v>
+      </c>
+      <c r="D22">
+        <v>1.000005030359424</v>
+      </c>
+      <c r="E22">
+        <v>1.000007467220696</v>
+      </c>
+      <c r="F22">
+        <v>0.9999956783317172</v>
+      </c>
+      <c r="G22">
+        <v>1.000013414043055</v>
+      </c>
+      <c r="H22">
+        <v>1.000013414043055</v>
+      </c>
+      <c r="I22">
+        <v>1.000013414043055</v>
+      </c>
+      <c r="J22">
+        <v>0.9999798795125698</v>
+      </c>
+      <c r="K22">
+        <v>1.000005030359424</v>
+      </c>
+      <c r="L22">
+        <v>0.9999959759348931</v>
+      </c>
+      <c r="M22">
+        <v>0.9999798795125698</v>
+      </c>
+      <c r="N22">
+        <v>1.000013414043055</v>
+      </c>
+      <c r="O22">
+        <v>1.000005030359424</v>
+      </c>
+      <c r="P22">
+        <v>0.9999924549359971</v>
+      </c>
+      <c r="Q22">
+        <v>1.000000354345571</v>
+      </c>
+      <c r="R22">
+        <v>0.9999994413050164</v>
+      </c>
+      <c r="S22">
+        <v>0.9999935294012371</v>
+      </c>
+      <c r="T22">
+        <v>0.9999994413050164</v>
+      </c>
+      <c r="U22">
+        <v>0.9999985005616916</v>
+      </c>
+      <c r="V22">
+        <v>1.000001483257964</v>
+      </c>
+      <c r="W22">
+        <v>0.9999986743689508</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9999693548520515</v>
+      </c>
+      <c r="D23">
+        <v>1.000011784579463</v>
+      </c>
+      <c r="E23">
+        <v>1.000017496345117</v>
+      </c>
+      <c r="F23">
+        <v>0.9999898692841894</v>
+      </c>
+      <c r="G23">
         <v>1.000031421311308</v>
       </c>
-      <c r="D19">
+      <c r="H23">
+        <v>1.000031421311308</v>
+      </c>
+      <c r="I23">
+        <v>1.000031421311308</v>
+      </c>
+      <c r="J23">
         <v>0.9999528620282909</v>
       </c>
-      <c r="E19">
+      <c r="K23">
         <v>1.000011784579463</v>
       </c>
-      <c r="F19">
+      <c r="L23">
+        <v>0.9999905699257111</v>
+      </c>
+      <c r="M23">
+        <v>0.9999528620282909</v>
+      </c>
+      <c r="N23">
         <v>1.000031421311308</v>
       </c>
-      <c r="G19">
-        <v>0.9999898692841894</v>
-      </c>
-      <c r="H19">
-        <v>1.000017496345117</v>
-      </c>
-      <c r="I19">
-        <v>1.000031421311308</v>
-      </c>
-      <c r="J19">
-        <v>0.9999528620282909</v>
-      </c>
-      <c r="K19">
-        <v>0.9999905699257111</v>
-      </c>
-      <c r="L19">
+      <c r="O23">
         <v>1.000011784579463</v>
       </c>
-      <c r="M19">
-        <v>0.9999693548520515</v>
-      </c>
-      <c r="N19">
-        <v>1.000031421311308</v>
-      </c>
-      <c r="O19">
-        <v>1.000011784579463</v>
-      </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.999982323303877</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.000000826931826</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999986893063539</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999848386306479</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999986893063539</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9999964843008128</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>1.000003471702912</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.9999968928631993</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/CopperA-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW50.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[5, 1, 1]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9999575113390055</v>
+        <v>0.9995453223198855</v>
       </c>
       <c r="D3">
-        <v>1.000016337346747</v>
+        <v>1.000174823105189</v>
       </c>
       <c r="E3">
-        <v>1.000024256192608</v>
+        <v>1.000259569776662</v>
       </c>
       <c r="F3">
-        <v>0.9999859588767922</v>
+        <v>0.9998497409293954</v>
       </c>
       <c r="G3">
-        <v>1.00004356479041</v>
+        <v>1.00046618680836</v>
       </c>
       <c r="H3">
-        <v>1.00004356479041</v>
+        <v>1.00046618680836</v>
       </c>
       <c r="I3">
-        <v>1.00004356479041</v>
+        <v>1.00046618680836</v>
       </c>
       <c r="J3">
-        <v>0.9999346522471146</v>
+        <v>0.9993007164265123</v>
       </c>
       <c r="K3">
-        <v>1.000016337346747</v>
+        <v>1.000174823105189</v>
       </c>
       <c r="L3">
-        <v>0.9999869301792547</v>
+        <v>0.9998601427881818</v>
       </c>
       <c r="M3">
-        <v>0.9999346522471146</v>
+        <v>0.9993007164265123</v>
       </c>
       <c r="N3">
-        <v>1.00004356479041</v>
+        <v>1.00046618680836</v>
       </c>
       <c r="O3">
-        <v>1.000016337346747</v>
+        <v>1.000174823105189</v>
       </c>
       <c r="P3">
-        <v>0.9999754947969308</v>
+        <v>0.9997377697658507</v>
       </c>
       <c r="Q3">
-        <v>1.00000114811177</v>
+        <v>1.000012282017292</v>
       </c>
       <c r="R3">
-        <v>0.9999981847947573</v>
+        <v>0.9999805754466871</v>
       </c>
       <c r="S3">
-        <v>0.9999789828235514</v>
+        <v>0.9997750934870323</v>
       </c>
       <c r="T3">
-        <v>0.9999981847947573</v>
+        <v>0.9999805754466871</v>
       </c>
       <c r="U3">
-        <v>0.999995128315266</v>
+        <v>0.9999478668173641</v>
       </c>
       <c r="V3">
-        <v>1.000004815610295</v>
+        <v>1.000051530815563</v>
       </c>
       <c r="W3">
-        <v>0.9999956935398349</v>
+        <v>0.9999539156574218</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9999179760463147</v>
+        <v>0.9995885296216981</v>
       </c>
       <c r="D4">
-        <v>1.000031538801238</v>
+        <v>1.000158209703692</v>
       </c>
       <c r="E4">
-        <v>1.000046825577834</v>
+        <v>1.000234903121497</v>
       </c>
       <c r="F4">
-        <v>0.9999728930233932</v>
+        <v>0.9998640199207967</v>
       </c>
       <c r="G4">
-        <v>1.000084100457472</v>
+        <v>1.000421885915022</v>
       </c>
       <c r="H4">
-        <v>1.000084100457472</v>
+        <v>1.000421885915022</v>
       </c>
       <c r="I4">
-        <v>1.000084100457472</v>
+        <v>1.000421885915022</v>
       </c>
       <c r="J4">
-        <v>0.9998738477699345</v>
+        <v>0.9993671682622061</v>
       </c>
       <c r="K4">
-        <v>1.000031538801238</v>
+        <v>1.000158209703692</v>
       </c>
       <c r="L4">
-        <v>0.9999747692724216</v>
+        <v>0.9998734331000709</v>
       </c>
       <c r="M4">
-        <v>0.9998738477699345</v>
+        <v>0.9993671682622061</v>
       </c>
       <c r="N4">
-        <v>1.000084100457472</v>
+        <v>1.000421885915022</v>
       </c>
       <c r="O4">
-        <v>1.000031538801238</v>
+        <v>1.000158209703692</v>
       </c>
       <c r="P4">
-        <v>0.9999526932855861</v>
+        <v>0.999762688982949</v>
       </c>
       <c r="Q4">
-        <v>1.000002215912315</v>
+        <v>1.000011114812244</v>
       </c>
       <c r="R4">
-        <v>0.9999964956762147</v>
+        <v>0.99998242129364</v>
       </c>
       <c r="S4">
-        <v>0.9999594265315218</v>
+        <v>0.9997964659622315</v>
       </c>
       <c r="T4">
-        <v>0.9999964956762147</v>
+        <v>0.99998242129364</v>
       </c>
       <c r="U4">
-        <v>0.9999905950130094</v>
+        <v>0.9999528209504291</v>
       </c>
       <c r="V4">
-        <v>1.000009296101902</v>
+        <v>1.000046633943348</v>
       </c>
       <c r="W4">
-        <v>0.9999916862187308</v>
+        <v>0.9999582949185842</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9998428127637381</v>
+        <v>0.9994606353908365</v>
       </c>
       <c r="D5">
-        <v>1.000060440755941</v>
+        <v>1.000207385390836</v>
       </c>
       <c r="E5">
-        <v>1.000089737246848</v>
+        <v>1.00030791773585</v>
       </c>
       <c r="F5">
-        <v>0.9999480524086521</v>
+        <v>0.9998217556064679</v>
       </c>
       <c r="G5">
-        <v>1.000161170385733</v>
+        <v>1.00055301638814</v>
       </c>
       <c r="H5">
-        <v>1.000161170385733</v>
+        <v>1.00055301638814</v>
       </c>
       <c r="I5">
-        <v>1.000161170385733</v>
+        <v>1.00055301638814</v>
       </c>
       <c r="J5">
-        <v>0.9997582422643118</v>
+        <v>0.9991704708355785</v>
       </c>
       <c r="K5">
-        <v>1.000060440755941</v>
+        <v>1.000207385390836</v>
       </c>
       <c r="L5">
-        <v>0.9999516448605553</v>
+        <v>0.9998340940431294</v>
       </c>
       <c r="M5">
-        <v>0.9997582422643118</v>
+        <v>0.9991704708355785</v>
       </c>
       <c r="N5">
-        <v>1.000161170385733</v>
+        <v>1.00055301638814</v>
       </c>
       <c r="O5">
-        <v>1.000060440755941</v>
+        <v>1.000207385390836</v>
       </c>
       <c r="P5">
-        <v>0.9999093415101263</v>
+        <v>0.9996889281132073</v>
       </c>
       <c r="Q5">
-        <v>1.000004246582296</v>
+        <v>1.000014570498652</v>
       </c>
       <c r="R5">
-        <v>0.9999932844686619</v>
+        <v>0.9999769575381849</v>
       </c>
       <c r="S5">
-        <v>0.9999222451429682</v>
+        <v>0.9997332039442942</v>
       </c>
       <c r="T5">
-        <v>0.9999932844686619</v>
+        <v>0.9999769575381849</v>
       </c>
       <c r="U5">
-        <v>0.9999819764536595</v>
+        <v>0.9999381570552557</v>
       </c>
       <c r="V5">
-        <v>1.000017815240074</v>
+        <v>1.000061128921833</v>
       </c>
       <c r="W5">
-        <v>0.999984067680215</v>
+        <v>0.9999453325977093</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9997694511052603</v>
+        <v>0.9993784347727274</v>
       </c>
       <c r="D6">
-        <v>1.000088647349415</v>
+        <v>1.000238997386363</v>
       </c>
       <c r="E6">
-        <v>1.000131615952785</v>
+        <v>1.000354848863637</v>
       </c>
       <c r="F6">
-        <v>0.9999238101240604</v>
+        <v>0.9997945894318188</v>
       </c>
       <c r="G6">
-        <v>1.000236381085585</v>
+        <v>1.000637300056818</v>
       </c>
       <c r="H6">
-        <v>1.000236381085585</v>
+        <v>1.000637300056818</v>
       </c>
       <c r="I6">
-        <v>1.000236381085585</v>
+        <v>1.000637300056818</v>
       </c>
       <c r="J6">
-        <v>0.9996454274883988</v>
+        <v>0.9990440463636372</v>
       </c>
       <c r="K6">
-        <v>1.000088647349415</v>
+        <v>1.000238997386363</v>
       </c>
       <c r="L6">
-        <v>0.999929085185091</v>
+        <v>0.9998088093181819</v>
       </c>
       <c r="M6">
-        <v>0.9996454274883988</v>
+        <v>0.9990440463636372</v>
       </c>
       <c r="N6">
-        <v>1.000236381085585</v>
+        <v>1.000637300056818</v>
       </c>
       <c r="O6">
-        <v>1.000088647349415</v>
+        <v>1.000238997386363</v>
       </c>
       <c r="P6">
-        <v>0.999867037418907</v>
+        <v>0.9996415218750003</v>
       </c>
       <c r="Q6">
-        <v>1.000006228736738</v>
+        <v>1.000016793409091</v>
       </c>
       <c r="R6">
-        <v>0.9999901519744663</v>
+        <v>0.9999734479356063</v>
       </c>
       <c r="S6">
-        <v>0.9998859616539582</v>
+        <v>0.9996925443939398</v>
       </c>
       <c r="T6">
-        <v>0.9999901519744663</v>
+        <v>0.9999734479356063</v>
       </c>
       <c r="U6">
-        <v>0.9999735665118648</v>
+        <v>0.9999287333096594</v>
       </c>
       <c r="V6">
-        <v>1.000026129426609</v>
+        <v>1.000070446659091</v>
       </c>
       <c r="W6">
-        <v>0.9999766332050015</v>
+        <v>0.9999370029474435</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999960558787278</v>
+        <v>0.9990879398992017</v>
       </c>
       <c r="D7">
-        <v>1.000001517312039</v>
+        <v>1.000350679480942</v>
       </c>
       <c r="E7">
-        <v>1.000002251821324</v>
+        <v>1.000520674442321</v>
       </c>
       <c r="F7">
-        <v>0.9999986968599427</v>
+        <v>0.9996985840252665</v>
       </c>
       <c r="G7">
-        <v>1.000004044211121</v>
+        <v>1.000935157906146</v>
       </c>
       <c r="H7">
-        <v>1.000004044211121</v>
+        <v>1.000935157906146</v>
       </c>
       <c r="I7">
-        <v>1.000004044211121</v>
+        <v>1.000935157906146</v>
       </c>
       <c r="J7">
-        <v>0.9999939330649996</v>
+        <v>0.9985972833499248</v>
       </c>
       <c r="K7">
-        <v>1.000001517312039</v>
+        <v>1.000350679480942</v>
       </c>
       <c r="L7">
-        <v>0.9999987862020112</v>
+        <v>0.9997194632600876</v>
       </c>
       <c r="M7">
-        <v>0.9999939330649996</v>
+        <v>0.9985972833499248</v>
       </c>
       <c r="N7">
-        <v>1.000004044211121</v>
+        <v>1.000935157906146</v>
       </c>
       <c r="O7">
-        <v>1.000001517312039</v>
+        <v>1.000350679480942</v>
       </c>
       <c r="P7">
-        <v>0.9999977251885195</v>
+        <v>0.9994739814154332</v>
       </c>
       <c r="Q7">
-        <v>1.000000107085991</v>
+        <v>1.000024631753104</v>
       </c>
       <c r="R7">
-        <v>0.9999998315293865</v>
+        <v>0.9999610402456707</v>
       </c>
       <c r="S7">
-        <v>0.9999980490789939</v>
+        <v>0.9995488489520442</v>
       </c>
       <c r="T7">
-        <v>0.9999998315293865</v>
+        <v>0.9999610402456707</v>
       </c>
       <c r="U7">
-        <v>0.9999995478620256</v>
+        <v>0.9998954261905696</v>
       </c>
       <c r="V7">
-        <v>1.000000447131845</v>
+        <v>1.000103372533685</v>
       </c>
       <c r="W7">
-        <v>0.9999996003327756</v>
+        <v>0.9999075577306038</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.999988212929916</v>
+        <v>0.9990691816307495</v>
       </c>
       <c r="D8">
-        <v>1.000004532935379</v>
+        <v>1.000357892126796</v>
       </c>
       <c r="E8">
-        <v>1.000006729453521</v>
+        <v>1.000531383275393</v>
       </c>
       <c r="F8">
-        <v>0.9999961051877451</v>
+        <v>0.9996923849302558</v>
       </c>
       <c r="G8">
-        <v>1.000012085693755</v>
+        <v>1.0009543910664</v>
       </c>
       <c r="H8">
-        <v>1.000012085693755</v>
+        <v>1.0009543910664</v>
       </c>
       <c r="I8">
-        <v>1.000012085693755</v>
+        <v>1.0009543910664</v>
       </c>
       <c r="J8">
-        <v>0.9999818707959977</v>
+        <v>0.9985684335647317</v>
       </c>
       <c r="K8">
-        <v>1.000004532935379</v>
+        <v>1.000357892126796</v>
       </c>
       <c r="L8">
-        <v>0.9999963738569222</v>
+        <v>0.9997136932453751</v>
       </c>
       <c r="M8">
-        <v>0.9999818707959977</v>
+        <v>0.9985684335647317</v>
       </c>
       <c r="N8">
-        <v>1.000012085693755</v>
+        <v>1.0009543910664</v>
       </c>
       <c r="O8">
-        <v>1.000004532935379</v>
+        <v>1.000357892126796</v>
       </c>
       <c r="P8">
-        <v>0.9999932018656883</v>
+        <v>0.999463162845764</v>
       </c>
       <c r="Q8">
-        <v>1.000000319061562</v>
+        <v>1.000025138528526</v>
       </c>
       <c r="R8">
-        <v>0.999999496475044</v>
+        <v>0.9999602389193093</v>
       </c>
       <c r="S8">
-        <v>0.9999941696397072</v>
+        <v>0.9995395702072613</v>
       </c>
       <c r="T8">
-        <v>0.999999496475044</v>
+        <v>0.9999602389193093</v>
       </c>
       <c r="U8">
-        <v>0.9999986486532193</v>
+        <v>0.9998932754220459</v>
       </c>
       <c r="V8">
-        <v>1.000001336061326</v>
+        <v>1.000105498550917</v>
       </c>
       <c r="W8">
-        <v>0.9999988054735769</v>
+        <v>0.9999056564958122</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999812436271609</v>
+        <v>0.9990580763580207</v>
       </c>
       <c r="D9">
-        <v>1.000007213203714</v>
+        <v>1.000362162266777</v>
       </c>
       <c r="E9">
-        <v>1.000010707885969</v>
+        <v>1.000537723215352</v>
       </c>
       <c r="F9">
-        <v>0.9999938016556821</v>
+        <v>0.9996887149288262</v>
       </c>
       <c r="G9">
-        <v>1.000019231463122</v>
+        <v>1.000965777360822</v>
       </c>
       <c r="H9">
-        <v>1.000019231463122</v>
+        <v>1.000965777360822</v>
       </c>
       <c r="I9">
-        <v>1.000019231463122</v>
+        <v>1.000965777360822</v>
       </c>
       <c r="J9">
-        <v>0.999971151775584</v>
+        <v>0.9985513538786027</v>
       </c>
       <c r="K9">
-        <v>1.000007213203714</v>
+        <v>1.000362162266777</v>
       </c>
       <c r="L9">
-        <v>0.99999423009253</v>
+        <v>0.9997102772598431</v>
       </c>
       <c r="M9">
-        <v>0.999971151775584</v>
+        <v>0.9985513538786027</v>
       </c>
       <c r="N9">
-        <v>1.000019231463122</v>
+        <v>1.000965777360822</v>
       </c>
       <c r="O9">
-        <v>1.000007213203714</v>
+        <v>1.000362162266777</v>
       </c>
       <c r="P9">
-        <v>0.9999891824896489</v>
+        <v>0.9994567580726901</v>
       </c>
       <c r="Q9">
-        <v>1.000000507429698</v>
+        <v>1.000025438597802</v>
       </c>
       <c r="R9">
-        <v>0.9999991988141398</v>
+        <v>0.9999597645020674</v>
       </c>
       <c r="S9">
-        <v>0.9999907222116599</v>
+        <v>0.9995340770247355</v>
       </c>
       <c r="T9">
-        <v>0.9999991988141398</v>
+        <v>0.9999597645020674</v>
       </c>
       <c r="U9">
-        <v>0.9999978495245254</v>
+        <v>0.9998920021087571</v>
       </c>
       <c r="V9">
-        <v>1.000002125912245</v>
+        <v>1.00010675715917</v>
       </c>
       <c r="W9">
-        <v>0.9999980991134343</v>
+        <v>0.9999045309418777</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9999616393967031</v>
+        <v>0.9989869452035591</v>
       </c>
       <c r="D10">
-        <v>1.000014750222523</v>
+        <v>1.0003895122498</v>
       </c>
       <c r="E10">
-        <v>1.000021899137494</v>
+        <v>1.000578330696234</v>
       </c>
       <c r="F10">
-        <v>0.9999873229422702</v>
+        <v>0.9996652079866076</v>
       </c>
       <c r="G10">
-        <v>1.000039331628085</v>
+        <v>1.001038709001479</v>
       </c>
       <c r="H10">
-        <v>1.000039331628085</v>
+        <v>1.001038709001479</v>
       </c>
       <c r="I10">
-        <v>1.000039331628085</v>
+        <v>1.001038709001479</v>
       </c>
       <c r="J10">
-        <v>0.9999410008161779</v>
+        <v>0.9984419557844618</v>
       </c>
       <c r="K10">
-        <v>1.000014750222523</v>
+        <v>1.0003895122498</v>
       </c>
       <c r="L10">
-        <v>0.9999881992774611</v>
+        <v>0.9996883974906901</v>
       </c>
       <c r="M10">
-        <v>0.9999410008161779</v>
+        <v>0.9984419557844618</v>
       </c>
       <c r="N10">
-        <v>1.000039331628085</v>
+        <v>1.001038709001479</v>
       </c>
       <c r="O10">
-        <v>1.000014750222523</v>
+        <v>1.0003895122498</v>
       </c>
       <c r="P10">
-        <v>0.9999778755193502</v>
+        <v>0.9994157340171308</v>
       </c>
       <c r="Q10">
-        <v>1.000001036582396</v>
+        <v>1.000027360118204</v>
       </c>
       <c r="R10">
-        <v>0.9999983608889286</v>
+        <v>0.9999567256785804</v>
       </c>
       <c r="S10">
-        <v>0.9999810246603236</v>
+        <v>0.9994988920069564</v>
       </c>
       <c r="T10">
-        <v>0.9999983608889284</v>
+        <v>0.9999567256785803</v>
       </c>
       <c r="U10">
-        <v>0.9999956014022638</v>
+        <v>0.9998838462555871</v>
       </c>
       <c r="V10">
-        <v>1.000004347447428</v>
+        <v>1.000114818804766</v>
       </c>
       <c r="W10">
-        <v>0.9999961117054045</v>
+        <v>0.9998973213328288</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999308831216656</v>
+        <v>0.9999512856399415</v>
       </c>
       <c r="D11">
-        <v>1.000026575348392</v>
+        <v>1.000018730729701</v>
       </c>
       <c r="E11">
-        <v>1.000039456723155</v>
+        <v>1.00002781075269</v>
       </c>
       <c r="F11">
-        <v>0.9999771536305246</v>
+        <v>0.9999839014978936</v>
       </c>
       <c r="G11">
-        <v>1.000070870510141</v>
+        <v>1.00004994725997</v>
       </c>
       <c r="H11">
-        <v>1.000070870510141</v>
+        <v>1.00004994725997</v>
       </c>
       <c r="I11">
-        <v>1.000070870510141</v>
+        <v>1.00004994725997</v>
       </c>
       <c r="J11">
-        <v>0.9998936943957339</v>
+        <v>0.9999250774696574</v>
       </c>
       <c r="K11">
-        <v>1.000026575348392</v>
+        <v>1.000018730729701</v>
       </c>
       <c r="L11">
-        <v>0.9999787377443161</v>
+        <v>0.9999850153292521</v>
       </c>
       <c r="M11">
-        <v>0.9998936943957339</v>
+        <v>0.9999250774696574</v>
       </c>
       <c r="N11">
-        <v>1.000070870510141</v>
+        <v>1.00004994725997</v>
       </c>
       <c r="O11">
-        <v>1.000026575348392</v>
+        <v>1.000018730729701</v>
       </c>
       <c r="P11">
-        <v>0.999960134872063</v>
+        <v>0.9999719040996795</v>
       </c>
       <c r="Q11">
-        <v>1.000001864489458</v>
+        <v>1.000001316113798</v>
       </c>
       <c r="R11">
-        <v>0.9999970467514223</v>
+        <v>0.9999979184864429</v>
       </c>
       <c r="S11">
-        <v>0.9999658077915502</v>
+        <v>0.9999759032324175</v>
       </c>
       <c r="T11">
-        <v>0.9999970467514223</v>
+        <v>0.9999979184864428</v>
       </c>
       <c r="U11">
-        <v>0.9999920734711979</v>
+        <v>0.9999944142393055</v>
       </c>
       <c r="V11">
-        <v>1.000007832878987</v>
+        <v>1.000005520843438</v>
       </c>
       <c r="W11">
-        <v>0.99999299335279</v>
+        <v>0.9999950624261009</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000666085970115</v>
+        <v>0.9999722979823555</v>
       </c>
       <c r="D12">
-        <v>0.9997438938034638</v>
+        <v>1.000010651994163</v>
       </c>
       <c r="E12">
-        <v>0.9996197449061232</v>
+        <v>1.000015814891784</v>
       </c>
       <c r="F12">
-        <v>1.000220129817869</v>
+        <v>0.9999908454246387</v>
       </c>
       <c r="G12">
-        <v>0.999317052328887</v>
+        <v>1.000028403444879</v>
       </c>
       <c r="H12">
-        <v>0.999317052328887</v>
+        <v>1.000028403444879</v>
       </c>
       <c r="I12">
-        <v>0.999317052328887</v>
+        <v>1.000028403444879</v>
       </c>
       <c r="J12">
-        <v>1.001024430724695</v>
+        <v>0.999957393998479</v>
       </c>
       <c r="K12">
-        <v>0.9997438938034638</v>
+        <v>1.000010651994163</v>
       </c>
       <c r="L12">
-        <v>1.000204886332857</v>
+        <v>0.9999914784848921</v>
       </c>
       <c r="M12">
-        <v>1.001024430724695</v>
+        <v>0.999957393998479</v>
       </c>
       <c r="N12">
-        <v>0.999317052328887</v>
+        <v>1.000028403444879</v>
       </c>
       <c r="O12">
-        <v>0.9997438938034638</v>
+        <v>1.000010651994163</v>
       </c>
       <c r="P12">
-        <v>1.000384162264079</v>
+        <v>0.9999840229963208</v>
       </c>
       <c r="Q12">
-        <v>0.9999820118106664</v>
+        <v>1.000000748709401</v>
       </c>
       <c r="R12">
-        <v>1.000028458952349</v>
+        <v>0.9999988164791734</v>
       </c>
       <c r="S12">
-        <v>1.000329484782009</v>
+        <v>0.9999862971390935</v>
       </c>
       <c r="T12">
-        <v>1.000028458952348</v>
+        <v>0.9999988164791734</v>
       </c>
       <c r="U12">
-        <v>1.000076376668729</v>
+        <v>0.9999968237155398</v>
       </c>
       <c r="V12">
-        <v>0.9999245118007604</v>
+        <v>1.000003139661408</v>
       </c>
       <c r="W12">
-        <v>1.000067514710934</v>
+        <v>0.9999971922769192</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000172721969755</v>
+        <v>0.9998900189189659</v>
       </c>
       <c r="D13">
-        <v>0.999933589474673</v>
+        <v>1.000042288062846</v>
       </c>
       <c r="E13">
-        <v>0.9999013970599903</v>
+        <v>1.000062783703437</v>
       </c>
       <c r="F13">
-        <v>1.000057082469059</v>
+        <v>0.9999636545109559</v>
       </c>
       <c r="G13">
-        <v>0.9998229063943893</v>
+        <v>1.000112764305152</v>
       </c>
       <c r="H13">
-        <v>0.9998229063943893</v>
+        <v>1.000112764305152</v>
       </c>
       <c r="I13">
-        <v>0.9998229063943893</v>
+        <v>1.000112764305152</v>
       </c>
       <c r="J13">
-        <v>1.000265642093876</v>
+        <v>0.9998308501982182</v>
       </c>
       <c r="K13">
-        <v>0.999933589474673</v>
+        <v>1.000042288062846</v>
       </c>
       <c r="L13">
-        <v>1.000053130527871</v>
+        <v>0.9999661693698106</v>
       </c>
       <c r="M13">
-        <v>1.000265642093876</v>
+        <v>0.9998308501982182</v>
       </c>
       <c r="N13">
-        <v>0.9998229063943893</v>
+        <v>1.000112764305152</v>
       </c>
       <c r="O13">
-        <v>0.999933589474673</v>
+        <v>1.000042288062846</v>
       </c>
       <c r="P13">
-        <v>1.000099615784275</v>
+        <v>0.9999365691305322</v>
       </c>
       <c r="Q13">
-        <v>0.999995335971866</v>
+        <v>1.000002971286901</v>
       </c>
       <c r="R13">
-        <v>1.00000737932098</v>
+        <v>0.9999953008554053</v>
       </c>
       <c r="S13">
-        <v>1.000085438012536</v>
+        <v>0.9999455975906734</v>
       </c>
       <c r="T13">
-        <v>1.00000737932098</v>
+        <v>0.9999953008554053</v>
       </c>
       <c r="U13">
-        <v>1.000019805107999</v>
+        <v>0.999987389269293</v>
       </c>
       <c r="V13">
-        <v>0.9999804253652773</v>
+        <v>1.000012464276465</v>
       </c>
       <c r="W13">
-        <v>1.000017507433036</v>
+        <v>0.999988852141529</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9979547335471384</v>
+        <v>0.9998809477346055</v>
       </c>
       <c r="D14">
-        <v>1.00078638839985</v>
+        <v>1.000045776041601</v>
       </c>
       <c r="E14">
-        <v>1.001167609397718</v>
+        <v>1.00006796970381</v>
       </c>
       <c r="F14">
-        <v>0.9993240927643519</v>
+        <v>0.9999606547563659</v>
       </c>
       <c r="G14">
-        <v>1.002097043146077</v>
+        <v>1.000122069545825</v>
       </c>
       <c r="H14">
-        <v>1.002097043146077</v>
+        <v>1.000122069545825</v>
       </c>
       <c r="I14">
-        <v>1.002097043146077</v>
+        <v>1.000122069545825</v>
       </c>
       <c r="J14">
-        <v>0.9968544307459394</v>
+        <v>0.99981689813236</v>
       </c>
       <c r="K14">
-        <v>1.00078638839985</v>
+        <v>1.000045776041601</v>
       </c>
       <c r="L14">
-        <v>0.999370885268079</v>
+        <v>0.999963377973813</v>
       </c>
       <c r="M14">
-        <v>0.9968544307459394</v>
+        <v>0.99981689813236</v>
       </c>
       <c r="N14">
-        <v>1.002097043146077</v>
+        <v>1.000122069545825</v>
       </c>
       <c r="O14">
-        <v>1.00078638839985</v>
+        <v>1.000045776041601</v>
       </c>
       <c r="P14">
-        <v>0.9988204095728945</v>
+        <v>0.9999313370869807</v>
       </c>
       <c r="Q14">
-        <v>1.000055240582101</v>
+        <v>1.000003215398984</v>
       </c>
       <c r="R14">
-        <v>0.9999126207639554</v>
+        <v>0.9999949145732622</v>
       </c>
       <c r="S14">
-        <v>0.998988303970047</v>
+        <v>0.9999411096434424</v>
       </c>
       <c r="T14">
-        <v>0.9999126207639554</v>
+        <v>0.9999949145732622</v>
       </c>
       <c r="U14">
-        <v>0.9997654887640545</v>
+        <v>0.9999863496190381</v>
       </c>
       <c r="V14">
-        <v>1.000231799640459</v>
+        <v>1.000013493604396</v>
       </c>
       <c r="W14">
-        <v>0.9997926964586253</v>
+        <v>0.9999879337412478</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9994521648468052</v>
+        <v>0.9999575113390055</v>
       </c>
       <c r="D15">
-        <v>1.000210651894594</v>
+        <v>1.000016337346747</v>
       </c>
       <c r="E15">
-        <v>1.000312744731233</v>
+        <v>1.000024256192608</v>
       </c>
       <c r="F15">
-        <v>0.9998189516654599</v>
+        <v>0.9999859588767922</v>
       </c>
       <c r="G15">
-        <v>1.000561704110276</v>
+        <v>1.00004356479041</v>
       </c>
       <c r="H15">
-        <v>1.000561704110276</v>
+        <v>1.00004356479041</v>
       </c>
       <c r="I15">
-        <v>1.000561704110276</v>
+        <v>1.00004356479041</v>
       </c>
       <c r="J15">
-        <v>0.9991574420209649</v>
+        <v>0.9999346522471146</v>
       </c>
       <c r="K15">
-        <v>1.000210651894594</v>
+        <v>1.000016337346747</v>
       </c>
       <c r="L15">
-        <v>0.9998314928942291</v>
+        <v>0.9999869301792547</v>
       </c>
       <c r="M15">
-        <v>0.9991574420209649</v>
+        <v>0.9999346522471146</v>
       </c>
       <c r="N15">
-        <v>1.000561704110276</v>
+        <v>1.00004356479041</v>
       </c>
       <c r="O15">
-        <v>1.000210651894594</v>
+        <v>1.000016337346747</v>
       </c>
       <c r="P15">
-        <v>0.9996840469577795</v>
+        <v>0.9999754947969308</v>
       </c>
       <c r="Q15">
-        <v>1.000014801780027</v>
+        <v>1.00000114811177</v>
       </c>
       <c r="R15">
-        <v>0.9999765993419448</v>
+        <v>0.9999981847947573</v>
       </c>
       <c r="S15">
-        <v>0.999729015193673</v>
+        <v>0.9999789828235514</v>
       </c>
       <c r="T15">
-        <v>0.9999765993419448</v>
+        <v>0.9999981847947573</v>
       </c>
       <c r="U15">
-        <v>0.9999371874228236</v>
+        <v>0.999995128315266</v>
       </c>
       <c r="V15">
-        <v>1.000062090760314</v>
+        <v>1.000004815610295</v>
       </c>
       <c r="W15">
-        <v>0.9999444755072695</v>
+        <v>0.9999956935398349</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9991707076371594</v>
+        <v>0.9999179760463147</v>
       </c>
       <c r="D16">
-        <v>1.000318855713657</v>
+        <v>1.000031538801238</v>
       </c>
       <c r="E16">
-        <v>1.000473430678465</v>
+        <v>1.000046825577834</v>
       </c>
       <c r="F16">
-        <v>0.9997259394138883</v>
+        <v>0.9999728930233932</v>
       </c>
       <c r="G16">
-        <v>1.000850284077974</v>
+        <v>1.000084100457472</v>
       </c>
       <c r="H16">
-        <v>1.000850284077974</v>
+        <v>1.000084100457472</v>
       </c>
       <c r="I16">
-        <v>1.000850284077974</v>
+        <v>1.000084100457472</v>
       </c>
       <c r="J16">
-        <v>0.9987245632736423</v>
+        <v>0.9998738477699345</v>
       </c>
       <c r="K16">
-        <v>1.000318855713657</v>
+        <v>1.000031538801238</v>
       </c>
       <c r="L16">
-        <v>0.9997449139620114</v>
+        <v>0.9999747692724216</v>
       </c>
       <c r="M16">
-        <v>0.9987245632736423</v>
+        <v>0.9998738477699345</v>
       </c>
       <c r="N16">
-        <v>1.000850284077974</v>
+        <v>1.000084100457472</v>
       </c>
       <c r="O16">
-        <v>1.000318855713657</v>
+        <v>1.000031538801238</v>
       </c>
       <c r="P16">
-        <v>0.9995217094936496</v>
+        <v>0.9999526932855861</v>
       </c>
       <c r="Q16">
-        <v>1.000022397563773</v>
+        <v>1.000002215912315</v>
       </c>
       <c r="R16">
-        <v>0.9999645676884242</v>
+        <v>0.9999964956762147</v>
       </c>
       <c r="S16">
-        <v>0.9995897861337292</v>
+        <v>0.9999594265315218</v>
       </c>
       <c r="T16">
-        <v>0.9999645676884242</v>
+        <v>0.9999964956762147</v>
       </c>
       <c r="U16">
-        <v>0.9999049106197903</v>
+        <v>0.9999905950130094</v>
       </c>
       <c r="V16">
-        <v>1.000093985311427</v>
+        <v>1.000009296101902</v>
       </c>
       <c r="W16">
-        <v>0.9999159438088068</v>
+        <v>0.9999916862187308</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9993195992817316</v>
+        <v>0.9998428127637381</v>
       </c>
       <c r="D17">
-        <v>1.000261608992438</v>
+        <v>1.000060440755941</v>
       </c>
       <c r="E17">
-        <v>1.000388430833307</v>
+        <v>1.000089737246848</v>
       </c>
       <c r="F17">
-        <v>0.9997751446630934</v>
+        <v>0.9999480524086521</v>
       </c>
       <c r="G17">
-        <v>1.000697623625137</v>
+        <v>1.000161170385733</v>
       </c>
       <c r="H17">
-        <v>1.000697623625137</v>
+        <v>1.000161170385733</v>
       </c>
       <c r="I17">
-        <v>1.000697623625137</v>
+        <v>1.000161170385733</v>
       </c>
       <c r="J17">
-        <v>0.9989535566596703</v>
+        <v>0.9997582422643118</v>
       </c>
       <c r="K17">
-        <v>1.000261608992438</v>
+        <v>1.000060440755941</v>
       </c>
       <c r="L17">
-        <v>0.9997907120005413</v>
+        <v>0.9999516448605553</v>
       </c>
       <c r="M17">
-        <v>0.9989535566596703</v>
+        <v>0.9997582422643118</v>
       </c>
       <c r="N17">
-        <v>1.000697623625137</v>
+        <v>1.000161170385733</v>
       </c>
       <c r="O17">
-        <v>1.000261608992438</v>
+        <v>1.000060440755941</v>
       </c>
       <c r="P17">
-        <v>0.9996075828260543</v>
+        <v>0.9999093415101263</v>
       </c>
       <c r="Q17">
-        <v>1.000018376827766</v>
+        <v>1.000004246582296</v>
       </c>
       <c r="R17">
-        <v>0.999970929759082</v>
+        <v>0.9999932844686619</v>
       </c>
       <c r="S17">
-        <v>0.999663436771734</v>
+        <v>0.9999222451429682</v>
       </c>
       <c r="T17">
-        <v>0.999970929759082</v>
+        <v>0.9999932844686619</v>
       </c>
       <c r="U17">
-        <v>0.9999219834850848</v>
+        <v>0.9999819764536595</v>
       </c>
       <c r="V17">
-        <v>1.000077111513095</v>
+        <v>1.000017815240074</v>
       </c>
       <c r="W17">
-        <v>0.9999310356310447</v>
+        <v>0.999984067680215</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9996155617080531</v>
+        <v>0.9997694511052603</v>
       </c>
       <c r="D18">
-        <v>1.000147814052021</v>
+        <v>1.000088647349415</v>
       </c>
       <c r="E18">
-        <v>1.000219470914856</v>
+        <v>1.000131615952785</v>
       </c>
       <c r="F18">
-        <v>0.9998729529222047</v>
+        <v>0.9999238101240604</v>
       </c>
       <c r="G18">
-        <v>1.000394170234662</v>
+        <v>1.000236381085585</v>
       </c>
       <c r="H18">
-        <v>1.000394170234662</v>
+        <v>1.000236381085585</v>
       </c>
       <c r="I18">
-        <v>1.000394170234662</v>
+        <v>1.000236381085585</v>
       </c>
       <c r="J18">
-        <v>0.9994087427499914</v>
+        <v>0.9996454274883988</v>
       </c>
       <c r="K18">
-        <v>1.000147814052021</v>
+        <v>1.000088647349415</v>
       </c>
       <c r="L18">
-        <v>0.9998817478445885</v>
+        <v>0.999929085185091</v>
       </c>
       <c r="M18">
-        <v>0.9994087427499914</v>
+        <v>0.9996454274883988</v>
       </c>
       <c r="N18">
-        <v>1.000394170234662</v>
+        <v>1.000236381085585</v>
       </c>
       <c r="O18">
-        <v>1.000147814052021</v>
+        <v>1.000088647349415</v>
       </c>
       <c r="P18">
-        <v>0.9997782784010063</v>
+        <v>0.999867037418907</v>
       </c>
       <c r="Q18">
-        <v>1.000010383487113</v>
+        <v>1.000006228736738</v>
       </c>
       <c r="R18">
-        <v>0.9999835756788915</v>
+        <v>0.9999901519744663</v>
       </c>
       <c r="S18">
-        <v>0.9998098365747391</v>
+        <v>0.9998859616539582</v>
       </c>
       <c r="T18">
-        <v>0.9999835756788915</v>
+        <v>0.9999901519744663</v>
       </c>
       <c r="U18">
-        <v>0.9999559199897198</v>
+        <v>0.9999735665118648</v>
       </c>
       <c r="V18">
-        <v>1.000043570038708</v>
+        <v>1.000026129426609</v>
       </c>
       <c r="W18">
-        <v>0.9999610343097999</v>
+        <v>0.9999766332050015</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9995865664734497</v>
+        <v>0.9999960558787278</v>
       </c>
       <c r="D19">
-        <v>1.00015896637327</v>
+        <v>1.000001517312039</v>
       </c>
       <c r="E19">
-        <v>1.000236024054481</v>
+        <v>1.000002251821324</v>
       </c>
       <c r="F19">
-        <v>0.9998633720861297</v>
+        <v>0.9999986968599427</v>
       </c>
       <c r="G19">
-        <v>1.000423900317775</v>
+        <v>1.000004044211121</v>
       </c>
       <c r="H19">
-        <v>1.000423900317775</v>
+        <v>1.000004044211121</v>
       </c>
       <c r="I19">
-        <v>1.000423900317775</v>
+        <v>1.000004044211121</v>
       </c>
       <c r="J19">
-        <v>0.9993641471832684</v>
+        <v>0.9999939330649996</v>
       </c>
       <c r="K19">
-        <v>1.00015896637327</v>
+        <v>1.000001517312039</v>
       </c>
       <c r="L19">
-        <v>0.9998728294795223</v>
+        <v>0.9999987862020112</v>
       </c>
       <c r="M19">
-        <v>0.9993641471832684</v>
+        <v>0.9999939330649996</v>
       </c>
       <c r="N19">
-        <v>1.000423900317775</v>
+        <v>1.000004044211121</v>
       </c>
       <c r="O19">
-        <v>1.00015896637327</v>
+        <v>1.000001517312039</v>
       </c>
       <c r="P19">
-        <v>0.9997615567782689</v>
+        <v>0.9999977251885195</v>
       </c>
       <c r="Q19">
-        <v>1.0000111692297</v>
+        <v>1.000000107085991</v>
       </c>
       <c r="R19">
-        <v>0.9999823379581043</v>
+        <v>0.9999998315293865</v>
       </c>
       <c r="S19">
-        <v>0.9997954952142226</v>
+        <v>0.9999980490789939</v>
       </c>
       <c r="T19">
-        <v>0.9999823379581043</v>
+        <v>0.9999998315293865</v>
       </c>
       <c r="U19">
-        <v>0.9999525964901107</v>
+        <v>0.9999995478620256</v>
       </c>
       <c r="V19">
-        <v>1.000046857255644</v>
+        <v>1.000000447131845</v>
       </c>
       <c r="W19">
-        <v>0.9999580965426456</v>
+        <v>0.9999996003327756</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999998250766023</v>
+        <v>0.999988212929916</v>
       </c>
       <c r="D20">
-        <v>1.000000067907059</v>
+        <v>1.000004532935379</v>
       </c>
       <c r="E20">
-        <v>1.000000100217808</v>
+        <v>1.000006729453521</v>
       </c>
       <c r="F20">
-        <v>0.9999999424908483</v>
+        <v>0.9999961051877451</v>
       </c>
       <c r="G20">
-        <v>1.000000179607315</v>
+        <v>1.000012085693755</v>
       </c>
       <c r="H20">
-        <v>1.000000179607315</v>
+        <v>1.000012085693755</v>
       </c>
       <c r="I20">
-        <v>1.000000179607315</v>
+        <v>1.000012085693755</v>
       </c>
       <c r="J20">
-        <v>0.9999997300889194</v>
+        <v>0.9999818707959977</v>
       </c>
       <c r="K20">
-        <v>1.000000067907059</v>
+        <v>1.000004532935379</v>
       </c>
       <c r="L20">
-        <v>0.9999999456216715</v>
+        <v>0.9999963738569222</v>
       </c>
       <c r="M20">
-        <v>0.9999997300889194</v>
+        <v>0.9999818707959977</v>
       </c>
       <c r="N20">
-        <v>1.000000179607315</v>
+        <v>1.000012085693755</v>
       </c>
       <c r="O20">
-        <v>1.000000067907059</v>
+        <v>1.000004532935379</v>
       </c>
       <c r="P20">
-        <v>0.9999998989979892</v>
+        <v>0.9999932018656883</v>
       </c>
       <c r="Q20">
-        <v>1.000000005198954</v>
+        <v>1.000000319061562</v>
       </c>
       <c r="R20">
-        <v>0.9999999925344311</v>
+        <v>0.999999496475044</v>
       </c>
       <c r="S20">
-        <v>0.9999999134956089</v>
+        <v>0.9999941696397072</v>
       </c>
       <c r="T20">
-        <v>0.9999999925344311</v>
+        <v>0.999999496475044</v>
       </c>
       <c r="U20">
-        <v>0.9999999800235354</v>
+        <v>0.9999986486532193</v>
       </c>
       <c r="V20">
-        <v>1.000000019940291</v>
+        <v>1.000001336061326</v>
       </c>
       <c r="W20">
-        <v>0.9999999823646604</v>
+        <v>0.9999988054735769</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9999962845187252</v>
+        <v>0.9999812436271609</v>
       </c>
       <c r="D21">
-        <v>1.000001429143176</v>
+        <v>1.000007213203714</v>
       </c>
       <c r="E21">
-        <v>1.000002120972451</v>
+        <v>1.000010707885969</v>
       </c>
       <c r="F21">
-        <v>0.9999987722366942</v>
+        <v>0.9999938016556821</v>
       </c>
       <c r="G21">
-        <v>1.000003809831843</v>
+        <v>1.000019231463122</v>
       </c>
       <c r="H21">
-        <v>1.000003809831843</v>
+        <v>1.000019231463122</v>
       </c>
       <c r="I21">
-        <v>1.000003809831843</v>
+        <v>1.000019231463122</v>
       </c>
       <c r="J21">
-        <v>0.9999942849949609</v>
+        <v>0.999971151775584</v>
       </c>
       <c r="K21">
-        <v>1.000001429143176</v>
+        <v>1.000007213203714</v>
       </c>
       <c r="L21">
-        <v>0.9999988566196517</v>
+        <v>0.99999423009253</v>
       </c>
       <c r="M21">
-        <v>0.9999942849949609</v>
+        <v>0.999971151775584</v>
       </c>
       <c r="N21">
-        <v>1.000003809831843</v>
+        <v>1.000019231463122</v>
       </c>
       <c r="O21">
-        <v>1.000001429143176</v>
+        <v>1.000007213203714</v>
       </c>
       <c r="P21">
-        <v>0.9999978570690684</v>
+        <v>0.9999891824896489</v>
       </c>
       <c r="Q21">
-        <v>1.000000100689935</v>
+        <v>1.000000507429698</v>
       </c>
       <c r="R21">
-        <v>0.9999998413233268</v>
+        <v>0.9999991988141398</v>
       </c>
       <c r="S21">
-        <v>0.9999981621249437</v>
+        <v>0.9999907222116599</v>
       </c>
       <c r="T21">
-        <v>0.9999998413233268</v>
+        <v>0.9999991988141398</v>
       </c>
       <c r="U21">
-        <v>0.9999995740516686</v>
+        <v>0.9999978495245254</v>
       </c>
       <c r="V21">
-        <v>1.000000421207704</v>
+        <v>1.000002125912245</v>
       </c>
       <c r="W21">
-        <v>0.9999996234325847</v>
+        <v>0.9999980991134343</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9999869191898266</v>
+        <v>0.9999616393967031</v>
       </c>
       <c r="D22">
-        <v>1.000005030359424</v>
+        <v>1.000014750222523</v>
       </c>
       <c r="E22">
-        <v>1.000007467220696</v>
+        <v>1.000021899137494</v>
       </c>
       <c r="F22">
-        <v>0.9999956783317172</v>
+        <v>0.9999873229422702</v>
       </c>
       <c r="G22">
-        <v>1.000013414043055</v>
+        <v>1.000039331628085</v>
       </c>
       <c r="H22">
-        <v>1.000013414043055</v>
+        <v>1.000039331628085</v>
       </c>
       <c r="I22">
-        <v>1.000013414043055</v>
+        <v>1.000039331628085</v>
       </c>
       <c r="J22">
-        <v>0.9999798795125698</v>
+        <v>0.9999410008161779</v>
       </c>
       <c r="K22">
-        <v>1.000005030359424</v>
+        <v>1.000014750222523</v>
       </c>
       <c r="L22">
-        <v>0.9999959759348931</v>
+        <v>0.9999881992774611</v>
       </c>
       <c r="M22">
-        <v>0.9999798795125698</v>
+        <v>0.9999410008161779</v>
       </c>
       <c r="N22">
-        <v>1.000013414043055</v>
+        <v>1.000039331628085</v>
       </c>
       <c r="O22">
-        <v>1.000005030359424</v>
+        <v>1.000014750222523</v>
       </c>
       <c r="P22">
-        <v>0.9999924549359971</v>
+        <v>0.9999778755193502</v>
       </c>
       <c r="Q22">
-        <v>1.000000354345571</v>
+        <v>1.000001036582396</v>
       </c>
       <c r="R22">
-        <v>0.9999994413050164</v>
+        <v>0.9999983608889286</v>
       </c>
       <c r="S22">
-        <v>0.9999935294012371</v>
+        <v>0.9999810246603236</v>
       </c>
       <c r="T22">
-        <v>0.9999994413050164</v>
+        <v>0.9999983608889284</v>
       </c>
       <c r="U22">
-        <v>0.9999985005616916</v>
+        <v>0.9999956014022638</v>
       </c>
       <c r="V22">
-        <v>1.000001483257964</v>
+        <v>1.000004347447428</v>
       </c>
       <c r="W22">
-        <v>0.9999986743689508</v>
+        <v>0.9999961117054045</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9999308831216656</v>
+      </c>
+      <c r="D23">
+        <v>1.000026575348392</v>
+      </c>
+      <c r="E23">
+        <v>1.000039456723155</v>
+      </c>
+      <c r="F23">
+        <v>0.9999771536305246</v>
+      </c>
+      <c r="G23">
+        <v>1.000070870510141</v>
+      </c>
+      <c r="H23">
+        <v>1.000070870510141</v>
+      </c>
+      <c r="I23">
+        <v>1.000070870510141</v>
+      </c>
+      <c r="J23">
+        <v>0.9998936943957339</v>
+      </c>
+      <c r="K23">
+        <v>1.000026575348392</v>
+      </c>
+      <c r="L23">
+        <v>0.9999787377443161</v>
+      </c>
+      <c r="M23">
+        <v>0.9998936943957339</v>
+      </c>
+      <c r="N23">
+        <v>1.000070870510141</v>
+      </c>
+      <c r="O23">
+        <v>1.000026575348392</v>
+      </c>
+      <c r="P23">
+        <v>0.999960134872063</v>
+      </c>
+      <c r="Q23">
+        <v>1.000001864489458</v>
+      </c>
+      <c r="R23">
+        <v>0.9999970467514223</v>
+      </c>
+      <c r="S23">
+        <v>0.9999658077915502</v>
+      </c>
+      <c r="T23">
+        <v>0.9999970467514223</v>
+      </c>
+      <c r="U23">
+        <v>0.9999920734711979</v>
+      </c>
+      <c r="V23">
+        <v>1.000007832878987</v>
+      </c>
+      <c r="W23">
+        <v>0.99999299335279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000666085970115</v>
+      </c>
+      <c r="D24">
+        <v>0.9997438938034638</v>
+      </c>
+      <c r="E24">
+        <v>0.9996197449061232</v>
+      </c>
+      <c r="F24">
+        <v>1.000220129817869</v>
+      </c>
+      <c r="G24">
+        <v>0.999317052328887</v>
+      </c>
+      <c r="H24">
+        <v>0.999317052328887</v>
+      </c>
+      <c r="I24">
+        <v>0.999317052328887</v>
+      </c>
+      <c r="J24">
+        <v>1.001024430724695</v>
+      </c>
+      <c r="K24">
+        <v>0.9997438938034638</v>
+      </c>
+      <c r="L24">
+        <v>1.000204886332857</v>
+      </c>
+      <c r="M24">
+        <v>1.001024430724695</v>
+      </c>
+      <c r="N24">
+        <v>0.999317052328887</v>
+      </c>
+      <c r="O24">
+        <v>0.9997438938034638</v>
+      </c>
+      <c r="P24">
+        <v>1.000384162264079</v>
+      </c>
+      <c r="Q24">
+        <v>0.9999820118106664</v>
+      </c>
+      <c r="R24">
+        <v>1.000028458952349</v>
+      </c>
+      <c r="S24">
+        <v>1.000329484782009</v>
+      </c>
+      <c r="T24">
+        <v>1.000028458952348</v>
+      </c>
+      <c r="U24">
+        <v>1.000076376668729</v>
+      </c>
+      <c r="V24">
+        <v>0.9999245118007604</v>
+      </c>
+      <c r="W24">
+        <v>1.000067514710934</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.000172721969755</v>
+      </c>
+      <c r="D25">
+        <v>0.999933589474673</v>
+      </c>
+      <c r="E25">
+        <v>0.9999013970599903</v>
+      </c>
+      <c r="F25">
+        <v>1.000057082469059</v>
+      </c>
+      <c r="G25">
+        <v>0.9998229063943893</v>
+      </c>
+      <c r="H25">
+        <v>0.9998229063943893</v>
+      </c>
+      <c r="I25">
+        <v>0.9998229063943893</v>
+      </c>
+      <c r="J25">
+        <v>1.000265642093876</v>
+      </c>
+      <c r="K25">
+        <v>0.999933589474673</v>
+      </c>
+      <c r="L25">
+        <v>1.000053130527871</v>
+      </c>
+      <c r="M25">
+        <v>1.000265642093876</v>
+      </c>
+      <c r="N25">
+        <v>0.9998229063943893</v>
+      </c>
+      <c r="O25">
+        <v>0.999933589474673</v>
+      </c>
+      <c r="P25">
+        <v>1.000099615784275</v>
+      </c>
+      <c r="Q25">
+        <v>0.999995335971866</v>
+      </c>
+      <c r="R25">
+        <v>1.00000737932098</v>
+      </c>
+      <c r="S25">
+        <v>1.000085438012536</v>
+      </c>
+      <c r="T25">
+        <v>1.00000737932098</v>
+      </c>
+      <c r="U25">
+        <v>1.000019805107999</v>
+      </c>
+      <c r="V25">
+        <v>0.9999804253652773</v>
+      </c>
+      <c r="W25">
+        <v>1.000017507433036</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9979547335471384</v>
+      </c>
+      <c r="D26">
+        <v>1.00078638839985</v>
+      </c>
+      <c r="E26">
+        <v>1.001167609397718</v>
+      </c>
+      <c r="F26">
+        <v>0.9993240927643519</v>
+      </c>
+      <c r="G26">
+        <v>1.002097043146077</v>
+      </c>
+      <c r="H26">
+        <v>1.002097043146077</v>
+      </c>
+      <c r="I26">
+        <v>1.002097043146077</v>
+      </c>
+      <c r="J26">
+        <v>0.9968544307459394</v>
+      </c>
+      <c r="K26">
+        <v>1.00078638839985</v>
+      </c>
+      <c r="L26">
+        <v>0.999370885268079</v>
+      </c>
+      <c r="M26">
+        <v>0.9968544307459394</v>
+      </c>
+      <c r="N26">
+        <v>1.002097043146077</v>
+      </c>
+      <c r="O26">
+        <v>1.00078638839985</v>
+      </c>
+      <c r="P26">
+        <v>0.9988204095728945</v>
+      </c>
+      <c r="Q26">
+        <v>1.000055240582101</v>
+      </c>
+      <c r="R26">
+        <v>0.9999126207639554</v>
+      </c>
+      <c r="S26">
+        <v>0.998988303970047</v>
+      </c>
+      <c r="T26">
+        <v>0.9999126207639554</v>
+      </c>
+      <c r="U26">
+        <v>0.9997654887640545</v>
+      </c>
+      <c r="V26">
+        <v>1.000231799640459</v>
+      </c>
+      <c r="W26">
+        <v>0.9997926964586253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9994521648468052</v>
+      </c>
+      <c r="D27">
+        <v>1.000210651894594</v>
+      </c>
+      <c r="E27">
+        <v>1.000312744731233</v>
+      </c>
+      <c r="F27">
+        <v>0.9998189516654599</v>
+      </c>
+      <c r="G27">
+        <v>1.000561704110276</v>
+      </c>
+      <c r="H27">
+        <v>1.000561704110276</v>
+      </c>
+      <c r="I27">
+        <v>1.000561704110276</v>
+      </c>
+      <c r="J27">
+        <v>0.9991574420209649</v>
+      </c>
+      <c r="K27">
+        <v>1.000210651894594</v>
+      </c>
+      <c r="L27">
+        <v>0.9998314928942291</v>
+      </c>
+      <c r="M27">
+        <v>0.9991574420209649</v>
+      </c>
+      <c r="N27">
+        <v>1.000561704110276</v>
+      </c>
+      <c r="O27">
+        <v>1.000210651894594</v>
+      </c>
+      <c r="P27">
+        <v>0.9996840469577795</v>
+      </c>
+      <c r="Q27">
+        <v>1.000014801780027</v>
+      </c>
+      <c r="R27">
+        <v>0.9999765993419448</v>
+      </c>
+      <c r="S27">
+        <v>0.999729015193673</v>
+      </c>
+      <c r="T27">
+        <v>0.9999765993419448</v>
+      </c>
+      <c r="U27">
+        <v>0.9999371874228236</v>
+      </c>
+      <c r="V27">
+        <v>1.000062090760314</v>
+      </c>
+      <c r="W27">
+        <v>0.9999444755072695</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9991707076371594</v>
+      </c>
+      <c r="D28">
+        <v>1.000318855713657</v>
+      </c>
+      <c r="E28">
+        <v>1.000473430678465</v>
+      </c>
+      <c r="F28">
+        <v>0.9997259394138883</v>
+      </c>
+      <c r="G28">
+        <v>1.000850284077974</v>
+      </c>
+      <c r="H28">
+        <v>1.000850284077974</v>
+      </c>
+      <c r="I28">
+        <v>1.000850284077974</v>
+      </c>
+      <c r="J28">
+        <v>0.9987245632736423</v>
+      </c>
+      <c r="K28">
+        <v>1.000318855713657</v>
+      </c>
+      <c r="L28">
+        <v>0.9997449139620114</v>
+      </c>
+      <c r="M28">
+        <v>0.9987245632736423</v>
+      </c>
+      <c r="N28">
+        <v>1.000850284077974</v>
+      </c>
+      <c r="O28">
+        <v>1.000318855713657</v>
+      </c>
+      <c r="P28">
+        <v>0.9995217094936496</v>
+      </c>
+      <c r="Q28">
+        <v>1.000022397563773</v>
+      </c>
+      <c r="R28">
+        <v>0.9999645676884242</v>
+      </c>
+      <c r="S28">
+        <v>0.9995897861337292</v>
+      </c>
+      <c r="T28">
+        <v>0.9999645676884242</v>
+      </c>
+      <c r="U28">
+        <v>0.9999049106197903</v>
+      </c>
+      <c r="V28">
+        <v>1.000093985311427</v>
+      </c>
+      <c r="W28">
+        <v>0.9999159438088068</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9993195992817316</v>
+      </c>
+      <c r="D29">
+        <v>1.000261608992438</v>
+      </c>
+      <c r="E29">
+        <v>1.000388430833307</v>
+      </c>
+      <c r="F29">
+        <v>0.9997751446630934</v>
+      </c>
+      <c r="G29">
+        <v>1.000697623625137</v>
+      </c>
+      <c r="H29">
+        <v>1.000697623625137</v>
+      </c>
+      <c r="I29">
+        <v>1.000697623625137</v>
+      </c>
+      <c r="J29">
+        <v>0.9989535566596703</v>
+      </c>
+      <c r="K29">
+        <v>1.000261608992438</v>
+      </c>
+      <c r="L29">
+        <v>0.9997907120005413</v>
+      </c>
+      <c r="M29">
+        <v>0.9989535566596703</v>
+      </c>
+      <c r="N29">
+        <v>1.000697623625137</v>
+      </c>
+      <c r="O29">
+        <v>1.000261608992438</v>
+      </c>
+      <c r="P29">
+        <v>0.9996075828260543</v>
+      </c>
+      <c r="Q29">
+        <v>1.000018376827766</v>
+      </c>
+      <c r="R29">
+        <v>0.999970929759082</v>
+      </c>
+      <c r="S29">
+        <v>0.999663436771734</v>
+      </c>
+      <c r="T29">
+        <v>0.999970929759082</v>
+      </c>
+      <c r="U29">
+        <v>0.9999219834850848</v>
+      </c>
+      <c r="V29">
+        <v>1.000077111513095</v>
+      </c>
+      <c r="W29">
+        <v>0.9999310356310447</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9996155617080531</v>
+      </c>
+      <c r="D30">
+        <v>1.000147814052021</v>
+      </c>
+      <c r="E30">
+        <v>1.000219470914856</v>
+      </c>
+      <c r="F30">
+        <v>0.9998729529222047</v>
+      </c>
+      <c r="G30">
+        <v>1.000394170234662</v>
+      </c>
+      <c r="H30">
+        <v>1.000394170234662</v>
+      </c>
+      <c r="I30">
+        <v>1.000394170234662</v>
+      </c>
+      <c r="J30">
+        <v>0.9994087427499914</v>
+      </c>
+      <c r="K30">
+        <v>1.000147814052021</v>
+      </c>
+      <c r="L30">
+        <v>0.9998817478445885</v>
+      </c>
+      <c r="M30">
+        <v>0.9994087427499914</v>
+      </c>
+      <c r="N30">
+        <v>1.000394170234662</v>
+      </c>
+      <c r="O30">
+        <v>1.000147814052021</v>
+      </c>
+      <c r="P30">
+        <v>0.9997782784010063</v>
+      </c>
+      <c r="Q30">
+        <v>1.000010383487113</v>
+      </c>
+      <c r="R30">
+        <v>0.9999835756788915</v>
+      </c>
+      <c r="S30">
+        <v>0.9998098365747391</v>
+      </c>
+      <c r="T30">
+        <v>0.9999835756788915</v>
+      </c>
+      <c r="U30">
+        <v>0.9999559199897198</v>
+      </c>
+      <c r="V30">
+        <v>1.000043570038708</v>
+      </c>
+      <c r="W30">
+        <v>0.9999610343097999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9995865664734497</v>
+      </c>
+      <c r="D31">
+        <v>1.00015896637327</v>
+      </c>
+      <c r="E31">
+        <v>1.000236024054481</v>
+      </c>
+      <c r="F31">
+        <v>0.9998633720861297</v>
+      </c>
+      <c r="G31">
+        <v>1.000423900317775</v>
+      </c>
+      <c r="H31">
+        <v>1.000423900317775</v>
+      </c>
+      <c r="I31">
+        <v>1.000423900317775</v>
+      </c>
+      <c r="J31">
+        <v>0.9993641471832684</v>
+      </c>
+      <c r="K31">
+        <v>1.00015896637327</v>
+      </c>
+      <c r="L31">
+        <v>0.9998728294795223</v>
+      </c>
+      <c r="M31">
+        <v>0.9993641471832684</v>
+      </c>
+      <c r="N31">
+        <v>1.000423900317775</v>
+      </c>
+      <c r="O31">
+        <v>1.00015896637327</v>
+      </c>
+      <c r="P31">
+        <v>0.9997615567782689</v>
+      </c>
+      <c r="Q31">
+        <v>1.0000111692297</v>
+      </c>
+      <c r="R31">
+        <v>0.9999823379581043</v>
+      </c>
+      <c r="S31">
+        <v>0.9997954952142226</v>
+      </c>
+      <c r="T31">
+        <v>0.9999823379581043</v>
+      </c>
+      <c r="U31">
+        <v>0.9999525964901107</v>
+      </c>
+      <c r="V31">
+        <v>1.000046857255644</v>
+      </c>
+      <c r="W31">
+        <v>0.9999580965426456</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9989372687671239</v>
+      </c>
+      <c r="D32">
+        <v>1.000408610410959</v>
+      </c>
+      <c r="E32">
+        <v>1.000606696438356</v>
+      </c>
+      <c r="F32">
+        <v>0.9996487935616435</v>
+      </c>
+      <c r="G32">
+        <v>1.001089632328767</v>
+      </c>
+      <c r="H32">
+        <v>1.001089632328767</v>
+      </c>
+      <c r="I32">
+        <v>1.001089632328767</v>
+      </c>
+      <c r="J32">
+        <v>0.9983655384931508</v>
+      </c>
+      <c r="K32">
+        <v>1.000408610410959</v>
+      </c>
+      <c r="L32">
+        <v>0.9996731095890412</v>
+      </c>
+      <c r="M32">
+        <v>0.9983655384931508</v>
+      </c>
+      <c r="N32">
+        <v>1.001089632328767</v>
+      </c>
+      <c r="O32">
+        <v>1.000408610410959</v>
+      </c>
+      <c r="P32">
+        <v>0.9993870744520548</v>
+      </c>
+      <c r="Q32">
+        <v>1.000028701986301</v>
+      </c>
+      <c r="R32">
+        <v>0.9999545937442923</v>
+      </c>
+      <c r="S32">
+        <v>0.999474314155251</v>
+      </c>
+      <c r="T32">
+        <v>0.9999545937442923</v>
+      </c>
+      <c r="U32">
+        <v>0.9998781436986302</v>
+      </c>
+      <c r="V32">
+        <v>1.000120441424658</v>
+      </c>
+      <c r="W32">
+        <v>0.9998922824999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9973848152631578</v>
+      </c>
+      <c r="D33">
+        <v>1.00100552631579</v>
+      </c>
+      <c r="E33">
+        <v>1.001492968421053</v>
+      </c>
+      <c r="F33">
+        <v>0.9991357505263158</v>
+      </c>
+      <c r="G33">
+        <v>1.002681394736842</v>
+      </c>
+      <c r="H33">
+        <v>1.002681394736842</v>
+      </c>
+      <c r="I33">
+        <v>1.002681394736842</v>
+      </c>
+      <c r="J33">
+        <v>0.9959779089473685</v>
+      </c>
+      <c r="K33">
+        <v>1.00100552631579</v>
+      </c>
+      <c r="L33">
+        <v>0.9991955810526316</v>
+      </c>
+      <c r="M33">
+        <v>0.9959779089473685</v>
+      </c>
+      <c r="N33">
+        <v>1.002681394736842</v>
+      </c>
+      <c r="O33">
+        <v>1.00100552631579</v>
+      </c>
+      <c r="P33">
+        <v>0.9984917176315793</v>
+      </c>
+      <c r="Q33">
+        <v>1.000070638421053</v>
+      </c>
+      <c r="R33">
+        <v>0.9998882766666668</v>
+      </c>
+      <c r="S33">
+        <v>0.9987063952631581</v>
+      </c>
+      <c r="T33">
+        <v>0.9998882766666668</v>
+      </c>
+      <c r="U33">
+        <v>0.999700145131579</v>
+      </c>
+      <c r="V33">
+        <v>1.000296395052632</v>
+      </c>
+      <c r="W33">
+        <v>0.9997349339473687</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9988185799999999</v>
+      </c>
+      <c r="D34">
+        <v>1.00045425</v>
+      </c>
+      <c r="E34">
+        <v>1.000674448947369</v>
+      </c>
+      <c r="F34">
+        <v>0.9996095678947367</v>
+      </c>
+      <c r="G34">
+        <v>1.001211336315789</v>
+      </c>
+      <c r="H34">
+        <v>1.001211336315789</v>
+      </c>
+      <c r="I34">
+        <v>1.001211336315789</v>
+      </c>
+      <c r="J34">
+        <v>0.9981830136842107</v>
+      </c>
+      <c r="K34">
+        <v>1.00045425</v>
+      </c>
+      <c r="L34">
+        <v>0.9996366084210527</v>
+      </c>
+      <c r="M34">
+        <v>0.9981830136842107</v>
+      </c>
+      <c r="N34">
+        <v>1.001211336315789</v>
+      </c>
+      <c r="O34">
+        <v>1.00045425</v>
+      </c>
+      <c r="P34">
+        <v>0.9993186318421053</v>
+      </c>
+      <c r="Q34">
+        <v>1.000031908947368</v>
+      </c>
+      <c r="R34">
+        <v>0.9999495333333334</v>
+      </c>
+      <c r="S34">
+        <v>0.9994156105263158</v>
+      </c>
+      <c r="T34">
+        <v>0.9999495333333334</v>
+      </c>
+      <c r="U34">
+        <v>0.9998645419736841</v>
+      </c>
+      <c r="V34">
+        <v>1.000133900842105</v>
+      </c>
+      <c r="W34">
+        <v>0.9998802569078947</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9985085762591386</v>
+      </c>
+      <c r="D35">
+        <v>1.000573464436868</v>
+      </c>
+      <c r="E35">
+        <v>1.0008514440349</v>
+      </c>
+      <c r="F35">
+        <v>0.9995071213568286</v>
+      </c>
+      <c r="G35">
+        <v>1.001529169347393</v>
+      </c>
+      <c r="H35">
+        <v>1.001529169347393</v>
+      </c>
+      <c r="I35">
+        <v>1.001529169347393</v>
+      </c>
+      <c r="J35">
+        <v>0.9977062246742856</v>
+      </c>
+      <c r="K35">
+        <v>1.000573464436868</v>
+      </c>
+      <c r="L35">
+        <v>0.9995412436443589</v>
+      </c>
+      <c r="M35">
+        <v>0.9977062246742856</v>
+      </c>
+      <c r="N35">
+        <v>1.001529169347393</v>
+      </c>
+      <c r="O35">
+        <v>1.000573464436868</v>
+      </c>
+      <c r="P35">
+        <v>0.999139844555577</v>
+      </c>
+      <c r="Q35">
+        <v>1.000040292896849</v>
+      </c>
+      <c r="R35">
+        <v>0.9999362861528489</v>
+      </c>
+      <c r="S35">
+        <v>0.9992622701559942</v>
+      </c>
+      <c r="T35">
+        <v>0.9999362861528489</v>
+      </c>
+      <c r="U35">
+        <v>0.9998289949538438</v>
+      </c>
+      <c r="V35">
+        <v>1.000169029832554</v>
+      </c>
+      <c r="W35">
+        <v>0.9998488385238302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999998250766023</v>
+      </c>
+      <c r="D36">
+        <v>1.000000067907059</v>
+      </c>
+      <c r="E36">
+        <v>1.000000100217808</v>
+      </c>
+      <c r="F36">
+        <v>0.9999999424908483</v>
+      </c>
+      <c r="G36">
+        <v>1.000000179607315</v>
+      </c>
+      <c r="H36">
+        <v>1.000000179607315</v>
+      </c>
+      <c r="I36">
+        <v>1.000000179607315</v>
+      </c>
+      <c r="J36">
+        <v>0.9999997300889194</v>
+      </c>
+      <c r="K36">
+        <v>1.000000067907059</v>
+      </c>
+      <c r="L36">
+        <v>0.9999999456216715</v>
+      </c>
+      <c r="M36">
+        <v>0.9999997300889194</v>
+      </c>
+      <c r="N36">
+        <v>1.000000179607315</v>
+      </c>
+      <c r="O36">
+        <v>1.000000067907059</v>
+      </c>
+      <c r="P36">
+        <v>0.9999998989979892</v>
+      </c>
+      <c r="Q36">
+        <v>1.000000005198954</v>
+      </c>
+      <c r="R36">
+        <v>0.9999999925344311</v>
+      </c>
+      <c r="S36">
+        <v>0.9999999134956089</v>
+      </c>
+      <c r="T36">
+        <v>0.9999999925344311</v>
+      </c>
+      <c r="U36">
+        <v>0.9999999800235354</v>
+      </c>
+      <c r="V36">
+        <v>1.000000019940291</v>
+      </c>
+      <c r="W36">
+        <v>0.9999999823646604</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9999962845187252</v>
+      </c>
+      <c r="D37">
+        <v>1.000001429143176</v>
+      </c>
+      <c r="E37">
+        <v>1.000002120972451</v>
+      </c>
+      <c r="F37">
+        <v>0.9999987722366942</v>
+      </c>
+      <c r="G37">
+        <v>1.000003809831843</v>
+      </c>
+      <c r="H37">
+        <v>1.000003809831843</v>
+      </c>
+      <c r="I37">
+        <v>1.000003809831843</v>
+      </c>
+      <c r="J37">
+        <v>0.9999942849949609</v>
+      </c>
+      <c r="K37">
+        <v>1.000001429143176</v>
+      </c>
+      <c r="L37">
+        <v>0.9999988566196517</v>
+      </c>
+      <c r="M37">
+        <v>0.9999942849949609</v>
+      </c>
+      <c r="N37">
+        <v>1.000003809831843</v>
+      </c>
+      <c r="O37">
+        <v>1.000001429143176</v>
+      </c>
+      <c r="P37">
+        <v>0.9999978570690684</v>
+      </c>
+      <c r="Q37">
+        <v>1.000000100689935</v>
+      </c>
+      <c r="R37">
+        <v>0.9999998413233268</v>
+      </c>
+      <c r="S37">
+        <v>0.9999981621249437</v>
+      </c>
+      <c r="T37">
+        <v>0.9999998413233268</v>
+      </c>
+      <c r="U37">
+        <v>0.9999995740516686</v>
+      </c>
+      <c r="V37">
+        <v>1.000000421207704</v>
+      </c>
+      <c r="W37">
+        <v>0.9999996234325847</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9999869191898266</v>
+      </c>
+      <c r="D38">
+        <v>1.000005030359424</v>
+      </c>
+      <c r="E38">
+        <v>1.000007467220696</v>
+      </c>
+      <c r="F38">
+        <v>0.9999956783317172</v>
+      </c>
+      <c r="G38">
+        <v>1.000013414043055</v>
+      </c>
+      <c r="H38">
+        <v>1.000013414043055</v>
+      </c>
+      <c r="I38">
+        <v>1.000013414043055</v>
+      </c>
+      <c r="J38">
+        <v>0.9999798795125698</v>
+      </c>
+      <c r="K38">
+        <v>1.000005030359424</v>
+      </c>
+      <c r="L38">
+        <v>0.9999959759348931</v>
+      </c>
+      <c r="M38">
+        <v>0.9999798795125698</v>
+      </c>
+      <c r="N38">
+        <v>1.000013414043055</v>
+      </c>
+      <c r="O38">
+        <v>1.000005030359424</v>
+      </c>
+      <c r="P38">
+        <v>0.9999924549359971</v>
+      </c>
+      <c r="Q38">
+        <v>1.000000354345571</v>
+      </c>
+      <c r="R38">
+        <v>0.9999994413050164</v>
+      </c>
+      <c r="S38">
+        <v>0.9999935294012371</v>
+      </c>
+      <c r="T38">
+        <v>0.9999994413050164</v>
+      </c>
+      <c r="U38">
+        <v>0.9999985005616916</v>
+      </c>
+      <c r="V38">
+        <v>1.000001483257964</v>
+      </c>
+      <c r="W38">
+        <v>0.9999986743689508</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9999693548520515</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000011784579463</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000017496345117</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9999898692841894</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000031421311308</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.000031421311308</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000031421311308</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9999528620282909</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000011784579463</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9999905699257111</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9999528620282909</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000031421311308</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.000011784579463</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.999982323303877</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.000000826931826</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999986893063539</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999848386306479</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999986893063539</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9999964843008128</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>1.000003471702912</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9999968928631993</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9995852616148073</v>
+      </c>
+      <c r="D40">
+        <v>1.000159464208552</v>
+      </c>
+      <c r="E40">
+        <v>1.000236767698432</v>
+      </c>
+      <c r="F40">
+        <v>0.9998629404708075</v>
+      </c>
+      <c r="G40">
+        <v>1.00042523771475</v>
+      </c>
+      <c r="H40">
+        <v>1.00042523771475</v>
+      </c>
+      <c r="I40">
+        <v>1.00042523771475</v>
+      </c>
+      <c r="J40">
+        <v>0.9993621416991048</v>
+      </c>
+      <c r="K40">
+        <v>1.000159464208552</v>
+      </c>
+      <c r="L40">
+        <v>0.9998724282709459</v>
+      </c>
+      <c r="M40">
+        <v>0.9993621416991048</v>
+      </c>
+      <c r="N40">
+        <v>1.00042523771475</v>
+      </c>
+      <c r="O40">
+        <v>1.000159464208552</v>
+      </c>
+      <c r="P40">
+        <v>0.9997608029538283</v>
+      </c>
+      <c r="Q40">
+        <v>1.00001120233968</v>
+      </c>
+      <c r="R40">
+        <v>0.999982281207469</v>
+      </c>
+      <c r="S40">
+        <v>0.9997948487928214</v>
+      </c>
+      <c r="T40">
+        <v>0.999982281207469</v>
+      </c>
+      <c r="U40">
+        <v>0.9999524460233036</v>
+      </c>
+      <c r="V40">
+        <v>1.000047004361593</v>
+      </c>
+      <c r="W40">
+        <v>0.9999579632357439</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.000640420441132</v>
+      </c>
+      <c r="D41">
+        <v>0.9997537625822757</v>
+      </c>
+      <c r="E41">
+        <v>0.9996343954973044</v>
+      </c>
+      <c r="F41">
+        <v>1.000211643007943</v>
+      </c>
+      <c r="G41">
+        <v>0.9993433666287795</v>
+      </c>
+      <c r="H41">
+        <v>0.9993433666287795</v>
+      </c>
+      <c r="I41">
+        <v>0.9993433666287795</v>
+      </c>
+      <c r="J41">
+        <v>1.000984949594795</v>
+      </c>
+      <c r="K41">
+        <v>0.9997537625822757</v>
+      </c>
+      <c r="L41">
+        <v>1.000196989920695</v>
+      </c>
+      <c r="M41">
+        <v>1.000984949594795</v>
+      </c>
+      <c r="N41">
+        <v>0.9993433666287795</v>
+      </c>
+      <c r="O41">
+        <v>0.9997537625822757</v>
+      </c>
+      <c r="P41">
+        <v>1.000369356088535</v>
+      </c>
+      <c r="Q41">
+        <v>0.9999827027951094</v>
+      </c>
+      <c r="R41">
+        <v>1.00002735960195</v>
+      </c>
+      <c r="S41">
+        <v>1.000316785061671</v>
+      </c>
+      <c r="T41">
+        <v>1.00002735960195</v>
+      </c>
+      <c r="U41">
+        <v>1.000073430453448</v>
+      </c>
+      <c r="V41">
+        <v>0.9999274176885145</v>
+      </c>
+      <c r="W41">
+        <v>1.0000649112819</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9998083515740867</v>
+      </c>
+      <c r="D42">
+        <v>1.00007368635632</v>
+      </c>
+      <c r="E42">
+        <v>1.000109409721242</v>
+      </c>
+      <c r="F42">
+        <v>0.9999366651165401</v>
+      </c>
+      <c r="G42">
+        <v>1.000196497779336</v>
+      </c>
+      <c r="H42">
+        <v>1.000196497779336</v>
+      </c>
+      <c r="I42">
+        <v>1.000196497779336</v>
+      </c>
+      <c r="J42">
+        <v>0.9997052470288771</v>
+      </c>
+      <c r="K42">
+        <v>1.00007368635632</v>
+      </c>
+      <c r="L42">
+        <v>0.9999410518850883</v>
+      </c>
+      <c r="M42">
+        <v>0.9997052470288771</v>
+      </c>
+      <c r="N42">
+        <v>1.000196497779336</v>
+      </c>
+      <c r="O42">
+        <v>1.00007368635632</v>
+      </c>
+      <c r="P42">
+        <v>0.9998894666925986</v>
+      </c>
+      <c r="Q42">
+        <v>1.00000517573643</v>
+      </c>
+      <c r="R42">
+        <v>0.9999918103881779</v>
+      </c>
+      <c r="S42">
+        <v>0.9999051995005791</v>
+      </c>
+      <c r="T42">
+        <v>0.9999918103881779</v>
+      </c>
+      <c r="U42">
+        <v>0.9999780240702684</v>
+      </c>
+      <c r="V42">
+        <v>1.000021718812082</v>
+      </c>
+      <c r="W42">
+        <v>0.9999805744772263</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CopperA-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW50.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
   </si>
   <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
+    <t>[4, 2, 0]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.00004356479041</v>
+        <v>0.999988212929916</v>
       </c>
       <c r="D3">
-        <v>0.9999346522471146</v>
+        <v>1.000004532935379</v>
       </c>
       <c r="E3">
-        <v>1.000016337346747</v>
+        <v>1.000006729453521</v>
       </c>
       <c r="F3">
-        <v>1.00004356479041</v>
+        <v>0.9999961051877451</v>
       </c>
       <c r="G3">
-        <v>0.9999859588767922</v>
+        <v>1.000012085693755</v>
       </c>
       <c r="H3">
-        <v>1.000024256192608</v>
+        <v>1.000012085693755</v>
       </c>
       <c r="I3">
-        <v>1.00004356479041</v>
+        <v>1.000012085693755</v>
       </c>
       <c r="J3">
-        <v>0.9999346522471146</v>
+        <v>0.9999818707959977</v>
       </c>
       <c r="K3">
-        <v>0.9999869301792548</v>
+        <v>1.000004532935379</v>
       </c>
       <c r="L3">
-        <v>1.000016337346747</v>
+        <v>0.9999963738569222</v>
       </c>
       <c r="M3">
-        <v>0.9999575113390055</v>
+        <v>0.9999818707959977</v>
       </c>
       <c r="N3">
-        <v>1.00004356479041</v>
+        <v>1.000012085693755</v>
       </c>
       <c r="O3">
-        <v>1.000016337346747</v>
+        <v>1.000004532935379</v>
       </c>
       <c r="P3">
-        <v>0.9999754947969308</v>
+        <v>0.9999932018656883</v>
       </c>
       <c r="Q3">
-        <v>1.00000114811177</v>
+        <v>1.000000319061562</v>
       </c>
       <c r="R3">
-        <v>0.9999981847947573</v>
+        <v>0.999999496475044</v>
       </c>
       <c r="S3">
-        <v>0.9999789828235514</v>
+        <v>0.9999941696397072</v>
       </c>
       <c r="T3">
-        <v>0.9999981847947573</v>
+        <v>0.999999496475044</v>
       </c>
       <c r="U3">
-        <v>0.999995128315266</v>
+        <v>0.9999986486532193</v>
       </c>
       <c r="V3">
-        <v>1.000004815610295</v>
+        <v>1.000001336061326</v>
       </c>
       <c r="W3">
-        <v>0.9999956935398349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>0.9999988054735769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000084100457472</v>
+        <v>0.9995852616148073</v>
       </c>
       <c r="D4">
-        <v>0.9998738477699339</v>
+        <v>1.000159464208552</v>
       </c>
       <c r="E4">
-        <v>1.000031538801238</v>
+        <v>1.000236767698432</v>
       </c>
       <c r="F4">
-        <v>1.000084100457472</v>
+        <v>0.9998629404708075</v>
       </c>
       <c r="G4">
-        <v>0.9999728930233932</v>
+        <v>1.00042523771475</v>
       </c>
       <c r="H4">
-        <v>1.000046825577834</v>
+        <v>1.00042523771475</v>
       </c>
       <c r="I4">
-        <v>1.000084100457472</v>
+        <v>1.00042523771475</v>
       </c>
       <c r="J4">
-        <v>0.9998738477699339</v>
+        <v>0.9993621416991048</v>
       </c>
       <c r="K4">
-        <v>0.9999747692724216</v>
+        <v>1.000159464208552</v>
       </c>
       <c r="L4">
-        <v>1.000031538801238</v>
+        <v>0.9998724282709459</v>
       </c>
       <c r="M4">
-        <v>0.9999179760463147</v>
+        <v>0.9993621416991048</v>
       </c>
       <c r="N4">
-        <v>1.000084100457472</v>
+        <v>1.00042523771475</v>
       </c>
       <c r="O4">
-        <v>1.000031538801238</v>
+        <v>1.000159464208552</v>
       </c>
       <c r="P4">
-        <v>0.9999526932855858</v>
+        <v>0.9997608029538283</v>
       </c>
       <c r="Q4">
-        <v>1.000002215912315</v>
+        <v>1.00001120233968</v>
       </c>
       <c r="R4">
-        <v>0.9999964956762146</v>
+        <v>0.999982281207469</v>
       </c>
       <c r="S4">
-        <v>0.9999594265315216</v>
+        <v>0.9997948487928214</v>
       </c>
       <c r="T4">
-        <v>0.9999964956762146</v>
+        <v>0.999982281207469</v>
       </c>
       <c r="U4">
-        <v>0.9999905950130092</v>
+        <v>0.9999524460233036</v>
       </c>
       <c r="V4">
-        <v>1.000009296101902</v>
+        <v>1.000047004361593</v>
       </c>
       <c r="W4">
-        <v>0.9999916862187307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>0.9999579632357439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000161170385733</v>
+        <v>0.9995453223198855</v>
       </c>
       <c r="D5">
-        <v>0.9997582422643116</v>
+        <v>1.000174823105189</v>
       </c>
       <c r="E5">
-        <v>1.000060440755941</v>
+        <v>1.000259569776662</v>
       </c>
       <c r="F5">
-        <v>1.000161170385733</v>
+        <v>0.9998497409293954</v>
       </c>
       <c r="G5">
-        <v>0.9999480524086521</v>
+        <v>1.00046618680836</v>
       </c>
       <c r="H5">
-        <v>1.000089737246848</v>
+        <v>1.00046618680836</v>
       </c>
       <c r="I5">
-        <v>1.000161170385733</v>
+        <v>1.00046618680836</v>
       </c>
       <c r="J5">
-        <v>0.9997582422643116</v>
+        <v>0.9993007164265123</v>
       </c>
       <c r="K5">
-        <v>0.9999516448605553</v>
+        <v>1.000174823105189</v>
       </c>
       <c r="L5">
-        <v>1.000060440755941</v>
+        <v>0.9998601427881818</v>
       </c>
       <c r="M5">
-        <v>0.9998428127637381</v>
+        <v>0.9993007164265123</v>
       </c>
       <c r="N5">
-        <v>1.000161170385733</v>
+        <v>1.00046618680836</v>
       </c>
       <c r="O5">
-        <v>1.000060440755941</v>
+        <v>1.000174823105189</v>
       </c>
       <c r="P5">
-        <v>0.9999093415101262</v>
+        <v>0.9997377697658507</v>
       </c>
       <c r="Q5">
-        <v>1.000004246582296</v>
+        <v>1.000012282017292</v>
       </c>
       <c r="R5">
-        <v>0.9999932844686619</v>
+        <v>0.9999805754466871</v>
       </c>
       <c r="S5">
-        <v>0.9999222451429682</v>
+        <v>0.9997750934870323</v>
       </c>
       <c r="T5">
-        <v>0.9999932844686619</v>
+        <v>0.9999805754466871</v>
       </c>
       <c r="U5">
-        <v>0.9999819764536595</v>
+        <v>0.9999478668173641</v>
       </c>
       <c r="V5">
-        <v>1.000017815240074</v>
+        <v>1.000051530815563</v>
       </c>
       <c r="W5">
-        <v>0.999984067680215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>0.9999539156574218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.000236381085585</v>
+        <v>0.9985085762591386</v>
       </c>
       <c r="D6">
-        <v>0.9996454274883988</v>
+        <v>1.000573464436868</v>
       </c>
       <c r="E6">
-        <v>1.000088647349415</v>
+        <v>1.0008514440349</v>
       </c>
       <c r="F6">
-        <v>1.000236381085585</v>
+        <v>0.9995071213568286</v>
       </c>
       <c r="G6">
-        <v>0.9999238101240604</v>
+        <v>1.001529169347393</v>
       </c>
       <c r="H6">
-        <v>1.000131615952785</v>
+        <v>1.001529169347393</v>
       </c>
       <c r="I6">
-        <v>1.000236381085585</v>
+        <v>1.001529169347393</v>
       </c>
       <c r="J6">
-        <v>0.9996454274883988</v>
+        <v>0.9977062246742856</v>
       </c>
       <c r="K6">
-        <v>0.999929085185091</v>
+        <v>1.000573464436868</v>
       </c>
       <c r="L6">
-        <v>1.000088647349415</v>
+        <v>0.9995412436443589</v>
       </c>
       <c r="M6">
-        <v>0.9997694511052603</v>
+        <v>0.9977062246742856</v>
       </c>
       <c r="N6">
-        <v>1.000236381085585</v>
+        <v>1.001529169347393</v>
       </c>
       <c r="O6">
-        <v>1.000088647349415</v>
+        <v>1.000573464436868</v>
       </c>
       <c r="P6">
-        <v>0.999867037418907</v>
+        <v>0.999139844555577</v>
       </c>
       <c r="Q6">
-        <v>1.000006228736738</v>
+        <v>1.000040292896849</v>
       </c>
       <c r="R6">
-        <v>0.9999901519744663</v>
+        <v>0.9999362861528489</v>
       </c>
       <c r="S6">
-        <v>0.9998859616539582</v>
+        <v>0.9992622701559942</v>
       </c>
       <c r="T6">
-        <v>0.9999901519744663</v>
+        <v>0.9999362861528489</v>
       </c>
       <c r="U6">
-        <v>0.9999735665118648</v>
+        <v>0.9998289949538438</v>
       </c>
       <c r="V6">
-        <v>1.000026129426609</v>
+        <v>1.000169029832554</v>
       </c>
       <c r="W6">
-        <v>0.9999766332050014</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>0.9998488385238302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000004044211121</v>
+        <v>0.9999512856399415</v>
       </c>
       <c r="D7">
-        <v>0.9999939330649996</v>
+        <v>1.000018730729701</v>
       </c>
       <c r="E7">
-        <v>1.000001517312039</v>
+        <v>1.00002781075269</v>
       </c>
       <c r="F7">
-        <v>1.000004044211121</v>
+        <v>0.9999839014978936</v>
       </c>
       <c r="G7">
-        <v>0.9999986968599427</v>
+        <v>1.00004994725997</v>
       </c>
       <c r="H7">
-        <v>1.000002251821324</v>
+        <v>1.00004994725997</v>
       </c>
       <c r="I7">
-        <v>1.000004044211121</v>
+        <v>1.00004994725997</v>
       </c>
       <c r="J7">
-        <v>0.9999939330649996</v>
+        <v>0.9999250774696574</v>
       </c>
       <c r="K7">
-        <v>0.9999987862020109</v>
+        <v>1.000018730729701</v>
       </c>
       <c r="L7">
-        <v>1.000001517312039</v>
+        <v>0.9999850153292521</v>
       </c>
       <c r="M7">
-        <v>0.9999960558787278</v>
+        <v>0.9999250774696574</v>
       </c>
       <c r="N7">
-        <v>1.000004044211121</v>
+        <v>1.00004994725997</v>
       </c>
       <c r="O7">
-        <v>1.000001517312039</v>
+        <v>1.000018730729701</v>
       </c>
       <c r="P7">
-        <v>0.9999977251885195</v>
+        <v>0.9999719040996795</v>
       </c>
       <c r="Q7">
-        <v>1.000000107085991</v>
+        <v>1.000001316113798</v>
       </c>
       <c r="R7">
-        <v>0.9999998315293865</v>
+        <v>0.9999979184864429</v>
       </c>
       <c r="S7">
-        <v>0.9999980490789939</v>
+        <v>0.9999759032324175</v>
       </c>
       <c r="T7">
-        <v>0.9999998315293865</v>
+        <v>0.9999979184864428</v>
       </c>
       <c r="U7">
-        <v>0.9999995478620256</v>
+        <v>0.9999944142393055</v>
       </c>
       <c r="V7">
-        <v>1.000000447131845</v>
+        <v>1.000005520843438</v>
       </c>
       <c r="W7">
-        <v>0.9999996003327756</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>0.9999950624261009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000012085693755</v>
+        <v>0.9999962845187252</v>
       </c>
       <c r="D8">
-        <v>0.9999818707959977</v>
+        <v>1.000001429143176</v>
       </c>
       <c r="E8">
-        <v>1.000004532935379</v>
+        <v>1.000002120972451</v>
       </c>
       <c r="F8">
-        <v>1.000012085693755</v>
+        <v>0.9999987722366942</v>
       </c>
       <c r="G8">
-        <v>0.9999961051877451</v>
+        <v>1.000003809831843</v>
       </c>
       <c r="H8">
-        <v>1.000006729453521</v>
+        <v>1.000003809831843</v>
       </c>
       <c r="I8">
-        <v>1.000012085693755</v>
+        <v>1.000003809831843</v>
       </c>
       <c r="J8">
-        <v>0.9999818707959977</v>
+        <v>0.9999942849949609</v>
       </c>
       <c r="K8">
-        <v>0.9999963738569222</v>
+        <v>1.000001429143176</v>
       </c>
       <c r="L8">
-        <v>1.000004532935379</v>
+        <v>0.9999988566196517</v>
       </c>
       <c r="M8">
-        <v>0.999988212929916</v>
+        <v>0.9999942849949609</v>
       </c>
       <c r="N8">
-        <v>1.000012085693755</v>
+        <v>1.000003809831843</v>
       </c>
       <c r="O8">
-        <v>1.000004532935379</v>
+        <v>1.000001429143176</v>
       </c>
       <c r="P8">
-        <v>0.9999932018656885</v>
+        <v>0.9999978570690684</v>
       </c>
       <c r="Q8">
-        <v>1.000000319061562</v>
+        <v>1.000000100689935</v>
       </c>
       <c r="R8">
-        <v>0.999999496475044</v>
+        <v>0.9999998413233268</v>
       </c>
       <c r="S8">
-        <v>0.9999941696397073</v>
+        <v>0.9999981621249437</v>
       </c>
       <c r="T8">
-        <v>0.999999496475044</v>
+        <v>0.9999998413233268</v>
       </c>
       <c r="U8">
-        <v>0.9999986486532193</v>
+        <v>0.9999995740516686</v>
       </c>
       <c r="V8">
-        <v>1.000001336061326</v>
+        <v>1.000000421207704</v>
       </c>
       <c r="W8">
-        <v>0.999998805473577</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>0.9999996234325847</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000019231463122</v>
+        <v>0.9999179760463147</v>
       </c>
       <c r="D9">
-        <v>0.999971151775584</v>
+        <v>1.000031538801238</v>
       </c>
       <c r="E9">
-        <v>1.000007213203714</v>
+        <v>1.000046825577834</v>
       </c>
       <c r="F9">
-        <v>1.000019231463122</v>
+        <v>0.9999728930233932</v>
       </c>
       <c r="G9">
-        <v>0.9999938016556821</v>
+        <v>1.000084100457472</v>
       </c>
       <c r="H9">
-        <v>1.000010707885969</v>
+        <v>1.000084100457472</v>
       </c>
       <c r="I9">
-        <v>1.000019231463122</v>
+        <v>1.000084100457472</v>
       </c>
       <c r="J9">
-        <v>0.999971151775584</v>
+        <v>0.9998738477699345</v>
       </c>
       <c r="K9">
-        <v>0.99999423009253</v>
+        <v>1.000031538801238</v>
       </c>
       <c r="L9">
-        <v>1.000007213203714</v>
+        <v>0.9999747692724216</v>
       </c>
       <c r="M9">
-        <v>0.9999812436271609</v>
+        <v>0.9998738477699345</v>
       </c>
       <c r="N9">
-        <v>1.000019231463122</v>
+        <v>1.000084100457472</v>
       </c>
       <c r="O9">
-        <v>1.000007213203714</v>
+        <v>1.000031538801238</v>
       </c>
       <c r="P9">
-        <v>0.9999891824896489</v>
+        <v>0.9999526932855861</v>
       </c>
       <c r="Q9">
-        <v>1.000000507429698</v>
+        <v>1.000002215912315</v>
       </c>
       <c r="R9">
-        <v>0.9999991988141398</v>
+        <v>0.9999964956762147</v>
       </c>
       <c r="S9">
-        <v>0.9999907222116599</v>
+        <v>0.9999594265315218</v>
       </c>
       <c r="T9">
-        <v>0.9999991988141398</v>
+        <v>0.9999964956762147</v>
       </c>
       <c r="U9">
-        <v>0.9999978495245254</v>
+        <v>0.9999905950130094</v>
       </c>
       <c r="V9">
-        <v>1.000002125912245</v>
+        <v>1.000009296101902</v>
       </c>
       <c r="W9">
-        <v>0.9999980991134343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>0.9999916862187308</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000039331628085</v>
+        <v>0.9984864329889261</v>
       </c>
       <c r="D10">
-        <v>0.9999410008161779</v>
+        <v>1.000581978541815</v>
       </c>
       <c r="E10">
-        <v>1.000014750222523</v>
+        <v>1.000864085546087</v>
       </c>
       <c r="F10">
-        <v>1.000039331628085</v>
+        <v>0.9994998038014444</v>
       </c>
       <c r="G10">
-        <v>0.9999873229422702</v>
+        <v>1.001551872860031</v>
       </c>
       <c r="H10">
-        <v>1.000021899137494</v>
+        <v>1.001551872860031</v>
       </c>
       <c r="I10">
-        <v>1.000039331628085</v>
+        <v>1.001551872860031</v>
       </c>
       <c r="J10">
-        <v>0.9999410008161779</v>
+        <v>0.9976721693472967</v>
       </c>
       <c r="K10">
-        <v>0.9999881992774611</v>
+        <v>1.000581978541815</v>
       </c>
       <c r="L10">
-        <v>1.000014750222523</v>
+        <v>0.9995344322829974</v>
       </c>
       <c r="M10">
-        <v>0.9999616393967031</v>
+        <v>0.9976721693472967</v>
       </c>
       <c r="N10">
-        <v>1.000039331628085</v>
+        <v>1.001551872860031</v>
       </c>
       <c r="O10">
-        <v>1.000014750222523</v>
+        <v>1.000581978541815</v>
       </c>
       <c r="P10">
-        <v>0.9999778755193502</v>
+        <v>0.999127073944556</v>
       </c>
       <c r="Q10">
-        <v>1.000001036582396</v>
+        <v>1.00004089117163</v>
       </c>
       <c r="R10">
-        <v>0.9999983608889286</v>
+        <v>0.9999353402497143</v>
       </c>
       <c r="S10">
-        <v>0.9999810246603236</v>
+        <v>0.9992513172301855</v>
       </c>
       <c r="T10">
-        <v>0.9999983608889284</v>
+        <v>0.9999353402497143</v>
       </c>
       <c r="U10">
-        <v>0.9999956014022638</v>
+        <v>0.9998264561376469</v>
       </c>
       <c r="V10">
-        <v>1.000004347447428</v>
+        <v>1.000171539482124</v>
       </c>
       <c r="W10">
-        <v>0.9999961117054045</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>0.9998465942388016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000070870510141</v>
+        <v>1.000240228567824</v>
       </c>
       <c r="D11">
-        <v>0.9998936943957337</v>
+        <v>0.9999076327246003</v>
       </c>
       <c r="E11">
-        <v>1.000026575348392</v>
+        <v>0.9998628593374334</v>
       </c>
       <c r="F11">
-        <v>1.000070870510141</v>
+        <v>1.000079390070348</v>
       </c>
       <c r="G11">
-        <v>0.9999771536305246</v>
+        <v>0.9997536893203405</v>
       </c>
       <c r="H11">
-        <v>1.000039456723155</v>
+        <v>0.9997536893203405</v>
       </c>
       <c r="I11">
-        <v>1.000070870510141</v>
+        <v>0.9997536893203405</v>
       </c>
       <c r="J11">
-        <v>0.9998936943957337</v>
+        <v>1.000369464167153</v>
       </c>
       <c r="K11">
-        <v>0.9999787377443161</v>
+        <v>0.9999076327246003</v>
       </c>
       <c r="L11">
-        <v>1.000026575348392</v>
+        <v>1.000073892933089</v>
       </c>
       <c r="M11">
-        <v>0.9999308831216656</v>
+        <v>1.000369464167153</v>
       </c>
       <c r="N11">
-        <v>1.000070870510141</v>
+        <v>0.9997536893203405</v>
       </c>
       <c r="O11">
-        <v>1.000026575348392</v>
+        <v>0.9999076327246003</v>
       </c>
       <c r="P11">
-        <v>0.9999601348720629</v>
+        <v>1.000138548445877</v>
       </c>
       <c r="Q11">
-        <v>1.000001864489458</v>
+        <v>0.9999935113974741</v>
       </c>
       <c r="R11">
-        <v>0.9999970467514222</v>
+        <v>1.000010262070698</v>
       </c>
       <c r="S11">
-        <v>0.9999658077915502</v>
+        <v>1.000118828987367</v>
       </c>
       <c r="T11">
-        <v>0.9999970467514222</v>
+        <v>1.000010262070698</v>
       </c>
       <c r="U11">
-        <v>0.9999920734711978</v>
+        <v>1.000027544070611</v>
       </c>
       <c r="V11">
-        <v>1.000007832878987</v>
+        <v>0.9999727731205565</v>
       </c>
       <c r="W11">
-        <v>0.9999929933527899</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>1.000024348730674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.999317052328887</v>
+        <v>0.9995593422736888</v>
       </c>
       <c r="D12">
-        <v>1.001024430724695</v>
+        <v>1.00016943403158</v>
       </c>
       <c r="E12">
-        <v>0.999743893803464</v>
+        <v>1.000251567189473</v>
       </c>
       <c r="F12">
-        <v>0.999317052328887</v>
+        <v>0.9998543746526332</v>
       </c>
       <c r="G12">
-        <v>1.000220129817869</v>
+        <v>1.000451811273686</v>
       </c>
       <c r="H12">
-        <v>0.9996197449061232</v>
+        <v>1.000451811273686</v>
       </c>
       <c r="I12">
-        <v>0.999317052328887</v>
+        <v>1.000451811273686</v>
       </c>
       <c r="J12">
-        <v>1.001024430724695</v>
+        <v>0.9993222796210521</v>
       </c>
       <c r="K12">
-        <v>1.000204886332857</v>
+        <v>1.00016943403158</v>
       </c>
       <c r="L12">
-        <v>0.999743893803464</v>
+        <v>0.9998644548210502</v>
       </c>
       <c r="M12">
-        <v>1.000666085970115</v>
+        <v>0.9993222796210521</v>
       </c>
       <c r="N12">
-        <v>0.999317052328887</v>
+        <v>1.000451811273686</v>
       </c>
       <c r="O12">
-        <v>0.999743893803464</v>
+        <v>1.00016943403158</v>
       </c>
       <c r="P12">
-        <v>1.000384162264079</v>
+        <v>0.9997458568263162</v>
       </c>
       <c r="Q12">
-        <v>0.9999820118106665</v>
+        <v>1.000011904342107</v>
       </c>
       <c r="R12">
-        <v>1.000028458952349</v>
+        <v>0.9999811749754394</v>
       </c>
       <c r="S12">
-        <v>1.000329484782009</v>
+        <v>0.9997820294350884</v>
       </c>
       <c r="T12">
-        <v>1.000028458952348</v>
+        <v>0.9999811749754394</v>
       </c>
       <c r="U12">
-        <v>1.000076376668729</v>
+        <v>0.9999494748947377</v>
       </c>
       <c r="V12">
-        <v>0.9999245118007604</v>
+        <v>1.000049942170527</v>
       </c>
       <c r="W12">
-        <v>1.000067514710934</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>0.9999553372368429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9998229063943893</v>
+        <v>1.00029768204097</v>
       </c>
       <c r="D13">
-        <v>1.000265642093876</v>
+        <v>0.99988554444777</v>
       </c>
       <c r="E13">
-        <v>0.999933589474673</v>
+        <v>0.9998300591651761</v>
       </c>
       <c r="F13">
-        <v>0.9998229063943893</v>
+        <v>1.000098377345798</v>
       </c>
       <c r="G13">
-        <v>1.000057082469059</v>
+        <v>0.9996947826694347</v>
       </c>
       <c r="H13">
-        <v>0.9999013970599901</v>
+        <v>0.9996947826694347</v>
       </c>
       <c r="I13">
-        <v>0.9998229063943893</v>
+        <v>0.9996947826694347</v>
       </c>
       <c r="J13">
-        <v>1.000265642093876</v>
+        <v>1.000457827995766</v>
       </c>
       <c r="K13">
-        <v>1.000053130527871</v>
+        <v>0.99988554444777</v>
       </c>
       <c r="L13">
-        <v>0.999933589474673</v>
+        <v>1.000091564619223</v>
       </c>
       <c r="M13">
-        <v>1.000172721969755</v>
+        <v>1.000457827995766</v>
       </c>
       <c r="N13">
-        <v>0.9998229063943893</v>
+        <v>0.9996947826694347</v>
       </c>
       <c r="O13">
-        <v>0.999933589474673</v>
+        <v>0.99988554444777</v>
       </c>
       <c r="P13">
-        <v>1.000099615784275</v>
+        <v>1.000171686221768</v>
       </c>
       <c r="Q13">
-        <v>0.999995335971866</v>
+        <v>0.9999919608967842</v>
       </c>
       <c r="R13">
-        <v>1.00000737932098</v>
+        <v>1.00001271837099</v>
       </c>
       <c r="S13">
-        <v>1.000085438012536</v>
+        <v>1.000147249929778</v>
       </c>
       <c r="T13">
-        <v>1.000007379320979</v>
+        <v>1.00001271837099</v>
       </c>
       <c r="U13">
-        <v>1.000019805107999</v>
+        <v>1.000034133114692</v>
       </c>
       <c r="V13">
-        <v>0.9999804253652773</v>
+        <v>0.9999662630256407</v>
       </c>
       <c r="W13">
-        <v>1.000017507433036</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.000030172841488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.002097043146077</v>
+        <v>0.9973849800000003</v>
       </c>
       <c r="D14">
-        <v>0.9968544307459395</v>
+        <v>1.0010055</v>
       </c>
       <c r="E14">
-        <v>1.00078638839985</v>
+        <v>1.001492900000001</v>
       </c>
       <c r="F14">
-        <v>1.002097043146077</v>
+        <v>0.9991357999999997</v>
       </c>
       <c r="G14">
-        <v>0.9993240927643519</v>
+        <v>1.002681199999999</v>
       </c>
       <c r="H14">
-        <v>1.001167609397718</v>
+        <v>1.002681199999999</v>
       </c>
       <c r="I14">
-        <v>1.002097043146077</v>
+        <v>1.002681199999999</v>
       </c>
       <c r="J14">
-        <v>0.9968544307459395</v>
+        <v>0.9959781599999993</v>
       </c>
       <c r="K14">
-        <v>0.999370885268079</v>
+        <v>1.0010055</v>
       </c>
       <c r="L14">
-        <v>1.00078638839985</v>
+        <v>0.9991956300000011</v>
       </c>
       <c r="M14">
-        <v>0.9979547335471382</v>
+        <v>0.9959781599999993</v>
       </c>
       <c r="N14">
-        <v>1.002097043146077</v>
+        <v>1.002681199999999</v>
       </c>
       <c r="O14">
-        <v>1.00078638839985</v>
+        <v>1.0010055</v>
       </c>
       <c r="P14">
-        <v>0.9988204095728945</v>
+        <v>0.9984918299999996</v>
       </c>
       <c r="Q14">
-        <v>1.000055240582101</v>
+        <v>1.00007065</v>
       </c>
       <c r="R14">
-        <v>0.9999126207639554</v>
+        <v>0.9998882866666662</v>
       </c>
       <c r="S14">
-        <v>0.998988303970047</v>
+        <v>0.9987064866666664</v>
       </c>
       <c r="T14">
-        <v>0.9999126207639554</v>
+        <v>0.9998882866666662</v>
       </c>
       <c r="U14">
-        <v>0.9997654887640545</v>
+        <v>0.9997001649999995</v>
       </c>
       <c r="V14">
-        <v>1.000231799640459</v>
+        <v>1.000296371999999</v>
       </c>
       <c r="W14">
-        <v>0.9997926964586252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>0.9997349587500001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.000561704110276</v>
+        <v>0.99302616</v>
       </c>
       <c r="D15">
-        <v>0.9991574420209649</v>
+        <v>1.0026814</v>
       </c>
       <c r="E15">
-        <v>1.000210651894594</v>
+        <v>1.0039812</v>
       </c>
       <c r="F15">
-        <v>1.000561704110276</v>
+        <v>0.99769533</v>
       </c>
       <c r="G15">
-        <v>0.9998189516654595</v>
+        <v>1.0071504</v>
       </c>
       <c r="H15">
-        <v>1.000312744731233</v>
+        <v>1.0071504</v>
       </c>
       <c r="I15">
-        <v>1.000561704110276</v>
+        <v>1.0071504</v>
       </c>
       <c r="J15">
-        <v>0.9991574420209649</v>
+        <v>0.98927441</v>
       </c>
       <c r="K15">
-        <v>0.9998314928942291</v>
+        <v>1.0026814</v>
       </c>
       <c r="L15">
-        <v>1.000210651894594</v>
+        <v>0.99785488</v>
       </c>
       <c r="M15">
-        <v>0.9994521648468052</v>
+        <v>0.98927441</v>
       </c>
       <c r="N15">
-        <v>1.000561704110276</v>
+        <v>1.0071504</v>
       </c>
       <c r="O15">
-        <v>1.000210651894594</v>
+        <v>1.0026814</v>
       </c>
       <c r="P15">
-        <v>0.9996840469577795</v>
+        <v>0.9959779049999999</v>
       </c>
       <c r="Q15">
-        <v>1.000014801780027</v>
+        <v>1.000188365</v>
       </c>
       <c r="R15">
-        <v>0.9999765993419448</v>
+        <v>0.99970207</v>
       </c>
       <c r="S15">
-        <v>0.9997290151936729</v>
+        <v>0.99655038</v>
       </c>
       <c r="T15">
-        <v>0.9999765993419448</v>
+        <v>0.99970207</v>
       </c>
       <c r="U15">
-        <v>0.9999371874228236</v>
+        <v>0.999200385</v>
       </c>
       <c r="V15">
-        <v>1.000062090760314</v>
+        <v>1.000790388</v>
       </c>
       <c r="W15">
-        <v>0.9999444755072694</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>0.9992931475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000000179607315</v>
+        <v>0.9973848100000001</v>
       </c>
       <c r="D16">
-        <v>0.9999997300889192</v>
+        <v>1.0010055</v>
       </c>
       <c r="E16">
-        <v>1.000000067907059</v>
+        <v>1.001493</v>
       </c>
       <c r="F16">
-        <v>1.000000179607315</v>
+        <v>0.99913575</v>
       </c>
       <c r="G16">
-        <v>0.9999999424908483</v>
+        <v>1.0026814</v>
       </c>
       <c r="H16">
-        <v>1.000000100217808</v>
+        <v>1.0026814</v>
       </c>
       <c r="I16">
-        <v>1.000000179607315</v>
+        <v>1.0026814</v>
       </c>
       <c r="J16">
-        <v>0.9999997300889192</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="K16">
-        <v>0.9999999456216715</v>
+        <v>1.0010055</v>
       </c>
       <c r="L16">
-        <v>1.000000067907059</v>
+        <v>0.99919558</v>
       </c>
       <c r="M16">
-        <v>0.9999998250766023</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="N16">
-        <v>1.000000179607315</v>
+        <v>1.0026814</v>
       </c>
       <c r="O16">
-        <v>1.000000067907059</v>
+        <v>1.0010055</v>
       </c>
       <c r="P16">
-        <v>0.9999998989979891</v>
+        <v>0.9984917</v>
       </c>
       <c r="Q16">
-        <v>1.000000005198954</v>
+        <v>1.000070625</v>
       </c>
       <c r="R16">
-        <v>0.9999999925344311</v>
+        <v>0.9998882666666665</v>
       </c>
       <c r="S16">
-        <v>0.9999999134956088</v>
+        <v>0.9987063833333334</v>
       </c>
       <c r="T16">
-        <v>0.9999999925344311</v>
+        <v>0.9998882666666665</v>
       </c>
       <c r="U16">
-        <v>0.9999999800235354</v>
+        <v>0.9997001374999999</v>
       </c>
       <c r="V16">
-        <v>1.000000019940291</v>
+        <v>1.00029639</v>
       </c>
       <c r="W16">
-        <v>0.9999999823646604</v>
+        <v>0.99973493</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000003809831843</v>
+        <v>0.9973847299999999</v>
       </c>
       <c r="D17">
-        <v>0.9999942849949609</v>
+        <v>1.0010056</v>
       </c>
       <c r="E17">
-        <v>1.000001429143176</v>
+        <v>1.001493</v>
       </c>
       <c r="F17">
-        <v>1.000003809831843</v>
+        <v>0.9991357199999998</v>
       </c>
       <c r="G17">
-        <v>0.9999987722366942</v>
+        <v>1.0026815</v>
       </c>
       <c r="H17">
-        <v>1.000002120972451</v>
+        <v>1.0026815</v>
       </c>
       <c r="I17">
-        <v>1.000003809831843</v>
+        <v>1.0026815</v>
       </c>
       <c r="J17">
-        <v>0.9999942849949609</v>
+        <v>0.99597777</v>
       </c>
       <c r="K17">
-        <v>0.9999988566196517</v>
+        <v>1.0010056</v>
       </c>
       <c r="L17">
-        <v>1.000001429143176</v>
+        <v>0.99919555</v>
       </c>
       <c r="M17">
-        <v>0.9999962845187249</v>
+        <v>0.99597777</v>
       </c>
       <c r="N17">
-        <v>1.000003809831843</v>
+        <v>1.0026815</v>
       </c>
       <c r="O17">
-        <v>1.000001429143176</v>
+        <v>1.0010056</v>
       </c>
       <c r="P17">
-        <v>0.9999978570690684</v>
+        <v>0.9984916850000001</v>
       </c>
       <c r="Q17">
-        <v>1.000000100689935</v>
+        <v>1.00007066</v>
       </c>
       <c r="R17">
-        <v>0.9999998413233268</v>
+        <v>0.99988829</v>
       </c>
       <c r="S17">
-        <v>0.9999981621249437</v>
+        <v>0.9987063633333334</v>
       </c>
       <c r="T17">
-        <v>0.9999998413233268</v>
+        <v>0.99988829</v>
       </c>
       <c r="U17">
-        <v>0.9999995740516686</v>
+        <v>0.9997001475</v>
       </c>
       <c r="V17">
-        <v>1.000000421207704</v>
+        <v>1.000296418</v>
       </c>
       <c r="W17">
-        <v>0.9999996234325847</v>
+        <v>0.99973493375</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000013414043055</v>
+        <v>0.9989372687671239</v>
       </c>
       <c r="D18">
-        <v>0.9999798795125698</v>
+        <v>1.000408610410959</v>
       </c>
       <c r="E18">
-        <v>1.000005030359424</v>
+        <v>1.000606696438356</v>
       </c>
       <c r="F18">
-        <v>1.000013414043055</v>
+        <v>0.9996487935616435</v>
       </c>
       <c r="G18">
-        <v>0.9999956783317172</v>
+        <v>1.001089632328767</v>
       </c>
       <c r="H18">
-        <v>1.000007467220697</v>
+        <v>1.001089632328767</v>
       </c>
       <c r="I18">
-        <v>1.000013414043055</v>
+        <v>1.001089632328767</v>
       </c>
       <c r="J18">
-        <v>0.9999798795125698</v>
+        <v>0.9983655384931508</v>
       </c>
       <c r="K18">
-        <v>0.9999959759348931</v>
+        <v>1.000408610410959</v>
       </c>
       <c r="L18">
-        <v>1.000005030359424</v>
+        <v>0.9996731095890412</v>
       </c>
       <c r="M18">
-        <v>0.9999869191898266</v>
+        <v>0.9983655384931508</v>
       </c>
       <c r="N18">
-        <v>1.000013414043055</v>
+        <v>1.001089632328767</v>
       </c>
       <c r="O18">
-        <v>1.000005030359424</v>
+        <v>1.000408610410959</v>
       </c>
       <c r="P18">
-        <v>0.9999924549359971</v>
+        <v>0.9993870744520548</v>
       </c>
       <c r="Q18">
-        <v>1.000000354345571</v>
+        <v>1.000028701986301</v>
       </c>
       <c r="R18">
-        <v>0.9999994413050163</v>
+        <v>0.9999545937442923</v>
       </c>
       <c r="S18">
-        <v>0.9999935294012371</v>
+        <v>0.999474314155251</v>
       </c>
       <c r="T18">
-        <v>0.9999994413050163</v>
+        <v>0.9999545937442923</v>
       </c>
       <c r="U18">
-        <v>0.9999985005616915</v>
+        <v>0.9998781436986302</v>
       </c>
       <c r="V18">
-        <v>1.000001483257964</v>
+        <v>1.000120441424658</v>
       </c>
       <c r="W18">
-        <v>0.9999986743689508</v>
+        <v>0.9998922824999998</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000031421311308</v>
+        <v>0.9973848152631578</v>
       </c>
       <c r="D19">
-        <v>0.9999528620282909</v>
+        <v>1.00100552631579</v>
       </c>
       <c r="E19">
-        <v>1.000011784579463</v>
+        <v>1.001492968421053</v>
       </c>
       <c r="F19">
-        <v>1.000031421311308</v>
+        <v>0.9991357505263158</v>
       </c>
       <c r="G19">
-        <v>0.9999898692841894</v>
+        <v>1.002681394736842</v>
       </c>
       <c r="H19">
-        <v>1.000017496345117</v>
+        <v>1.002681394736842</v>
       </c>
       <c r="I19">
-        <v>1.000031421311308</v>
+        <v>1.002681394736842</v>
       </c>
       <c r="J19">
-        <v>0.9999528620282909</v>
+        <v>0.9959779089473685</v>
       </c>
       <c r="K19">
-        <v>0.9999905699257111</v>
+        <v>1.00100552631579</v>
       </c>
       <c r="L19">
-        <v>1.000011784579463</v>
+        <v>0.9991955810526316</v>
       </c>
       <c r="M19">
-        <v>0.9999693548520515</v>
+        <v>0.9959779089473685</v>
       </c>
       <c r="N19">
-        <v>1.000031421311308</v>
+        <v>1.002681394736842</v>
       </c>
       <c r="O19">
-        <v>1.000011784579463</v>
+        <v>1.00100552631579</v>
       </c>
       <c r="P19">
-        <v>0.999982323303877</v>
+        <v>0.9984917176315793</v>
       </c>
       <c r="Q19">
-        <v>1.000000826931826</v>
+        <v>1.000070638421053</v>
       </c>
       <c r="R19">
-        <v>0.9999986893063539</v>
+        <v>0.9998882766666668</v>
       </c>
       <c r="S19">
-        <v>0.9999848386306479</v>
+        <v>0.9987063952631581</v>
       </c>
       <c r="T19">
-        <v>0.9999986893063539</v>
+        <v>0.9998882766666668</v>
       </c>
       <c r="U19">
-        <v>0.9999964843008128</v>
+        <v>0.999700145131579</v>
       </c>
       <c r="V19">
-        <v>1.000003471702912</v>
+        <v>1.000296395052632</v>
       </c>
       <c r="W19">
-        <v>0.9999968928631993</v>
+        <v>0.9997349339473687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9988185799999999</v>
+      </c>
+      <c r="D20">
+        <v>1.00045425</v>
+      </c>
+      <c r="E20">
+        <v>1.000674448947369</v>
+      </c>
+      <c r="F20">
+        <v>0.9996095678947367</v>
+      </c>
+      <c r="G20">
+        <v>1.001211336315789</v>
+      </c>
+      <c r="H20">
+        <v>1.001211336315789</v>
+      </c>
+      <c r="I20">
+        <v>1.001211336315789</v>
+      </c>
+      <c r="J20">
+        <v>0.9981830136842107</v>
+      </c>
+      <c r="K20">
+        <v>1.00045425</v>
+      </c>
+      <c r="L20">
+        <v>0.9996366084210527</v>
+      </c>
+      <c r="M20">
+        <v>0.9981830136842107</v>
+      </c>
+      <c r="N20">
+        <v>1.001211336315789</v>
+      </c>
+      <c r="O20">
+        <v>1.00045425</v>
+      </c>
+      <c r="P20">
+        <v>0.9993186318421053</v>
+      </c>
+      <c r="Q20">
+        <v>1.000031908947368</v>
+      </c>
+      <c r="R20">
+        <v>0.9999495333333334</v>
+      </c>
+      <c r="S20">
+        <v>0.9994156105263158</v>
+      </c>
+      <c r="T20">
+        <v>0.9999495333333334</v>
+      </c>
+      <c r="U20">
+        <v>0.9998645419736841</v>
+      </c>
+      <c r="V20">
+        <v>1.000133900842105</v>
+      </c>
+      <c r="W20">
+        <v>0.9998802569078947</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9979547335471384</v>
+      </c>
+      <c r="D21">
+        <v>1.00078638839985</v>
+      </c>
+      <c r="E21">
+        <v>1.001167609397718</v>
+      </c>
+      <c r="F21">
+        <v>0.9993240927643519</v>
+      </c>
+      <c r="G21">
+        <v>1.002097043146077</v>
+      </c>
+      <c r="H21">
+        <v>1.002097043146077</v>
+      </c>
+      <c r="I21">
+        <v>1.002097043146077</v>
+      </c>
+      <c r="J21">
+        <v>0.9968544307459394</v>
+      </c>
+      <c r="K21">
+        <v>1.00078638839985</v>
+      </c>
+      <c r="L21">
+        <v>0.999370885268079</v>
+      </c>
+      <c r="M21">
+        <v>0.9968544307459394</v>
+      </c>
+      <c r="N21">
+        <v>1.002097043146077</v>
+      </c>
+      <c r="O21">
+        <v>1.00078638839985</v>
+      </c>
+      <c r="P21">
+        <v>0.9988204095728945</v>
+      </c>
+      <c r="Q21">
+        <v>1.000055240582101</v>
+      </c>
+      <c r="R21">
+        <v>0.9999126207639554</v>
+      </c>
+      <c r="S21">
+        <v>0.998988303970047</v>
+      </c>
+      <c r="T21">
+        <v>0.9999126207639554</v>
+      </c>
+      <c r="U21">
+        <v>0.9997654887640545</v>
+      </c>
+      <c r="V21">
+        <v>1.000231799640459</v>
+      </c>
+      <c r="W21">
+        <v>0.9997926964586253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9994521648468052</v>
+      </c>
+      <c r="D22">
+        <v>1.000210651894594</v>
+      </c>
+      <c r="E22">
+        <v>1.000312744731233</v>
+      </c>
+      <c r="F22">
+        <v>0.9998189516654599</v>
+      </c>
+      <c r="G22">
+        <v>1.000561704110276</v>
+      </c>
+      <c r="H22">
+        <v>1.000561704110276</v>
+      </c>
+      <c r="I22">
+        <v>1.000561704110276</v>
+      </c>
+      <c r="J22">
+        <v>0.9991574420209649</v>
+      </c>
+      <c r="K22">
+        <v>1.000210651894594</v>
+      </c>
+      <c r="L22">
+        <v>0.9998314928942291</v>
+      </c>
+      <c r="M22">
+        <v>0.9991574420209649</v>
+      </c>
+      <c r="N22">
+        <v>1.000561704110276</v>
+      </c>
+      <c r="O22">
+        <v>1.000210651894594</v>
+      </c>
+      <c r="P22">
+        <v>0.9996840469577795</v>
+      </c>
+      <c r="Q22">
+        <v>1.000014801780027</v>
+      </c>
+      <c r="R22">
+        <v>0.9999765993419448</v>
+      </c>
+      <c r="S22">
+        <v>0.999729015193673</v>
+      </c>
+      <c r="T22">
+        <v>0.9999765993419448</v>
+      </c>
+      <c r="U22">
+        <v>0.9999371874228236</v>
+      </c>
+      <c r="V22">
+        <v>1.000062090760314</v>
+      </c>
+      <c r="W22">
+        <v>0.9999444755072695</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.000666085970115</v>
+      </c>
+      <c r="D23">
+        <v>0.9997438938034638</v>
+      </c>
+      <c r="E23">
+        <v>0.9996197449061232</v>
+      </c>
+      <c r="F23">
+        <v>1.000220129817869</v>
+      </c>
+      <c r="G23">
+        <v>0.999317052328887</v>
+      </c>
+      <c r="H23">
+        <v>0.999317052328887</v>
+      </c>
+      <c r="I23">
+        <v>0.999317052328887</v>
+      </c>
+      <c r="J23">
+        <v>1.001024430724695</v>
+      </c>
+      <c r="K23">
+        <v>0.9997438938034638</v>
+      </c>
+      <c r="L23">
+        <v>1.000204886332857</v>
+      </c>
+      <c r="M23">
+        <v>1.001024430724695</v>
+      </c>
+      <c r="N23">
+        <v>0.999317052328887</v>
+      </c>
+      <c r="O23">
+        <v>0.9997438938034638</v>
+      </c>
+      <c r="P23">
+        <v>1.000384162264079</v>
+      </c>
+      <c r="Q23">
+        <v>0.9999820118106664</v>
+      </c>
+      <c r="R23">
+        <v>1.000028458952349</v>
+      </c>
+      <c r="S23">
+        <v>1.000329484782009</v>
+      </c>
+      <c r="T23">
+        <v>1.000028458952348</v>
+      </c>
+      <c r="U23">
+        <v>1.000076376668729</v>
+      </c>
+      <c r="V23">
+        <v>0.9999245118007604</v>
+      </c>
+      <c r="W23">
+        <v>1.000067514710934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.000172721969755</v>
+      </c>
+      <c r="D24">
+        <v>0.999933589474673</v>
+      </c>
+      <c r="E24">
+        <v>0.9999013970599903</v>
+      </c>
+      <c r="F24">
+        <v>1.000057082469059</v>
+      </c>
+      <c r="G24">
+        <v>0.9998229063943893</v>
+      </c>
+      <c r="H24">
+        <v>0.9998229063943893</v>
+      </c>
+      <c r="I24">
+        <v>0.9998229063943893</v>
+      </c>
+      <c r="J24">
+        <v>1.000265642093876</v>
+      </c>
+      <c r="K24">
+        <v>0.999933589474673</v>
+      </c>
+      <c r="L24">
+        <v>1.000053130527871</v>
+      </c>
+      <c r="M24">
+        <v>1.000265642093876</v>
+      </c>
+      <c r="N24">
+        <v>0.9998229063943893</v>
+      </c>
+      <c r="O24">
+        <v>0.999933589474673</v>
+      </c>
+      <c r="P24">
+        <v>1.000099615784275</v>
+      </c>
+      <c r="Q24">
+        <v>0.999995335971866</v>
+      </c>
+      <c r="R24">
+        <v>1.00000737932098</v>
+      </c>
+      <c r="S24">
+        <v>1.000085438012536</v>
+      </c>
+      <c r="T24">
+        <v>1.00000737932098</v>
+      </c>
+      <c r="U24">
+        <v>1.000019805107999</v>
+      </c>
+      <c r="V24">
+        <v>0.9999804253652773</v>
+      </c>
+      <c r="W24">
+        <v>1.000017507433036</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.002083855124042</v>
+      </c>
+      <c r="D25">
+        <v>0.9991987685526331</v>
+      </c>
+      <c r="E25">
+        <v>0.9988103596641935</v>
+      </c>
+      <c r="F25">
+        <v>1.000688671145604</v>
+      </c>
+      <c r="G25">
+        <v>0.9978633836255885</v>
+      </c>
+      <c r="H25">
+        <v>0.9978633836255885</v>
+      </c>
+      <c r="I25">
+        <v>0.9978633836255885</v>
+      </c>
+      <c r="J25">
+        <v>1.003204917279388</v>
+      </c>
+      <c r="K25">
+        <v>0.9991987685526331</v>
+      </c>
+      <c r="L25">
+        <v>1.000640976689299</v>
+      </c>
+      <c r="M25">
+        <v>1.003204917279388</v>
+      </c>
+      <c r="N25">
+        <v>0.9978633836255885</v>
+      </c>
+      <c r="O25">
+        <v>0.9991987685526331</v>
+      </c>
+      <c r="P25">
+        <v>1.001201842916011</v>
+      </c>
+      <c r="Q25">
+        <v>0.9999437198491185</v>
+      </c>
+      <c r="R25">
+        <v>1.000089023152537</v>
+      </c>
+      <c r="S25">
+        <v>1.001030785659208</v>
+      </c>
+      <c r="T25">
+        <v>1.000089023152537</v>
+      </c>
+      <c r="U25">
+        <v>1.000238935150803</v>
+      </c>
+      <c r="V25">
+        <v>0.9997638248457605</v>
+      </c>
+      <c r="W25">
+        <v>1.000211212579173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.000556320113579</v>
+      </c>
+      <c r="D26">
+        <v>0.9997861034009849</v>
+      </c>
+      <c r="E26">
+        <v>0.9996824132729599</v>
+      </c>
+      <c r="F26">
+        <v>1.000183854568552</v>
+      </c>
+      <c r="G26">
+        <v>0.9994296059150134</v>
+      </c>
+      <c r="H26">
+        <v>0.9994296059150134</v>
+      </c>
+      <c r="I26">
+        <v>0.9994296059150134</v>
+      </c>
+      <c r="J26">
+        <v>1.000855588515918</v>
+      </c>
+      <c r="K26">
+        <v>0.9997861034009849</v>
+      </c>
+      <c r="L26">
+        <v>1.000171124288926</v>
+      </c>
+      <c r="M26">
+        <v>1.000855588515918</v>
+      </c>
+      <c r="N26">
+        <v>0.9994296059150134</v>
+      </c>
+      <c r="O26">
+        <v>0.9997861034009849</v>
+      </c>
+      <c r="P26">
+        <v>1.000320845958452</v>
+      </c>
+      <c r="Q26">
+        <v>0.9999849789847683</v>
+      </c>
+      <c r="R26">
+        <v>1.000023765943972</v>
+      </c>
+      <c r="S26">
+        <v>1.000275182161818</v>
+      </c>
+      <c r="T26">
+        <v>1.000023765943972</v>
+      </c>
+      <c r="U26">
+        <v>1.000063788100117</v>
+      </c>
+      <c r="V26">
+        <v>0.9999369516630964</v>
+      </c>
+      <c r="W26">
+        <v>1.000056389184615</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9998441458509612</v>
+      </c>
+      <c r="D27">
+        <v>1.000059917426136</v>
+      </c>
+      <c r="E27">
+        <v>1.000088977644943</v>
+      </c>
+      <c r="F27">
+        <v>0.9999484810489256</v>
+      </c>
+      <c r="G27">
+        <v>1.000159790229312</v>
+      </c>
+      <c r="H27">
+        <v>1.000159790229312</v>
+      </c>
+      <c r="I27">
+        <v>1.000159790229312</v>
+      </c>
+      <c r="J27">
+        <v>0.9997602931635177</v>
+      </c>
+      <c r="K27">
+        <v>1.000059917426136</v>
+      </c>
+      <c r="L27">
+        <v>0.9999520755935685</v>
+      </c>
+      <c r="M27">
+        <v>0.9997602931635177</v>
+      </c>
+      <c r="N27">
+        <v>1.000159790229312</v>
+      </c>
+      <c r="O27">
+        <v>1.000059917426136</v>
+      </c>
+      <c r="P27">
+        <v>0.9999101052948266</v>
+      </c>
+      <c r="Q27">
+        <v>1.000004199237531</v>
+      </c>
+      <c r="R27">
+        <v>0.9999933336063219</v>
+      </c>
+      <c r="S27">
+        <v>0.9999228972128597</v>
+      </c>
+      <c r="T27">
+        <v>0.9999933336063219</v>
+      </c>
+      <c r="U27">
+        <v>0.9999821204669728</v>
+      </c>
+      <c r="V27">
+        <v>1.000017654419441</v>
+      </c>
+      <c r="W27">
+        <v>0.9999841997979375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9998472461621063</v>
+      </c>
+      <c r="D28">
+        <v>1.000058744165409</v>
+      </c>
+      <c r="E28">
+        <v>1.000087206933322</v>
+      </c>
+      <c r="F28">
+        <v>0.9999495205925758</v>
+      </c>
+      <c r="G28">
+        <v>1.000156626571113</v>
+      </c>
+      <c r="H28">
+        <v>1.000156626571113</v>
+      </c>
+      <c r="I28">
+        <v>1.000156626571113</v>
+      </c>
+      <c r="J28">
+        <v>0.9997650678837464</v>
+      </c>
+      <c r="K28">
+        <v>1.000058744165409</v>
+      </c>
+      <c r="L28">
+        <v>0.9999530146953785</v>
+      </c>
+      <c r="M28">
+        <v>0.9997650678837464</v>
+      </c>
+      <c r="N28">
+        <v>1.000156626571113</v>
+      </c>
+      <c r="O28">
+        <v>1.000058744165409</v>
+      </c>
+      <c r="P28">
+        <v>0.9999119060245778</v>
+      </c>
+      <c r="Q28">
+        <v>1.000004132378993</v>
+      </c>
+      <c r="R28">
+        <v>0.9999934795400897</v>
+      </c>
+      <c r="S28">
+        <v>0.9999244442139105</v>
+      </c>
+      <c r="T28">
+        <v>0.9999934795400897</v>
+      </c>
+      <c r="U28">
+        <v>0.9999824898032111</v>
+      </c>
+      <c r="V28">
+        <v>1.000017317156792</v>
+      </c>
+      <c r="W28">
+        <v>0.9999845213961326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.000308165278203</v>
+      </c>
+      <c r="D29">
+        <v>0.999881532971886</v>
+      </c>
+      <c r="E29">
+        <v>0.9998240804937999</v>
+      </c>
+      <c r="F29">
+        <v>1.000101846808938</v>
+      </c>
+      <c r="G29">
+        <v>0.9996840504212213</v>
+      </c>
+      <c r="H29">
+        <v>0.9996840504212213</v>
+      </c>
+      <c r="I29">
+        <v>0.9996840504212213</v>
+      </c>
+      <c r="J29">
+        <v>1.00047393436494</v>
+      </c>
+      <c r="K29">
+        <v>0.999881532971886</v>
+      </c>
+      <c r="L29">
+        <v>1.000094796831599</v>
+      </c>
+      <c r="M29">
+        <v>1.00047393436494</v>
+      </c>
+      <c r="N29">
+        <v>0.9996840504212213</v>
+      </c>
+      <c r="O29">
+        <v>0.999881532971886</v>
+      </c>
+      <c r="P29">
+        <v>1.000177733668413</v>
+      </c>
+      <c r="Q29">
+        <v>0.9999916898904119</v>
+      </c>
+      <c r="R29">
+        <v>1.000013172586016</v>
+      </c>
+      <c r="S29">
+        <v>1.000152438048588</v>
+      </c>
+      <c r="T29">
+        <v>1.000013172586016</v>
+      </c>
+      <c r="U29">
+        <v>1.000035341141746</v>
+      </c>
+      <c r="V29">
+        <v>0.9999650829976412</v>
+      </c>
+      <c r="W29">
+        <v>1.000031242517809</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CopperA-HW50.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW50.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9995852616148073</v>
+        <v>0.9996543333710327</v>
       </c>
       <c r="D4">
-        <v>1.000159464208552</v>
+        <v>1.000132908254153</v>
       </c>
       <c r="E4">
-        <v>1.000236767698432</v>
+        <v>1.000197336782715</v>
       </c>
       <c r="F4">
-        <v>0.9998629404708075</v>
+        <v>0.9998857664283249</v>
       </c>
       <c r="G4">
-        <v>1.00042523771475</v>
+        <v>1.000354416448034</v>
       </c>
       <c r="H4">
-        <v>1.00042523771475</v>
+        <v>1.000354416448034</v>
       </c>
       <c r="I4">
-        <v>1.00042523771475</v>
+        <v>1.000354416448034</v>
       </c>
       <c r="J4">
-        <v>0.9993621416991048</v>
+        <v>0.9994683727929594</v>
       </c>
       <c r="K4">
-        <v>1.000159464208552</v>
+        <v>1.000132908254153</v>
       </c>
       <c r="L4">
-        <v>0.9998724282709459</v>
+        <v>0.9998936739577386</v>
       </c>
       <c r="M4">
-        <v>0.9993621416991048</v>
+        <v>0.9994683727929594</v>
       </c>
       <c r="N4">
-        <v>1.00042523771475</v>
+        <v>1.000354416448034</v>
       </c>
       <c r="O4">
-        <v>1.000159464208552</v>
+        <v>1.000132908254153</v>
       </c>
       <c r="P4">
-        <v>0.9997608029538283</v>
+        <v>0.9998006405235564</v>
       </c>
       <c r="Q4">
-        <v>1.00001120233968</v>
+        <v>1.000009337341239</v>
       </c>
       <c r="R4">
-        <v>0.999982281207469</v>
+        <v>0.9999852324983823</v>
       </c>
       <c r="S4">
-        <v>0.9997948487928214</v>
+        <v>0.9998290158251461</v>
       </c>
       <c r="T4">
-        <v>0.999982281207469</v>
+        <v>0.9999852324983823</v>
       </c>
       <c r="U4">
-        <v>0.9999524460233036</v>
+        <v>0.999960365980868</v>
       </c>
       <c r="V4">
-        <v>1.000047004361593</v>
+        <v>1.000039176074301</v>
       </c>
       <c r="W4">
-        <v>0.9999579632357439</v>
+        <v>0.9999649645361389</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9995453223198855</v>
+        <v>0.9990691816307495</v>
       </c>
       <c r="D5">
-        <v>1.000174823105189</v>
+        <v>1.000357892126796</v>
       </c>
       <c r="E5">
-        <v>1.000259569776662</v>
+        <v>1.000531383275393</v>
       </c>
       <c r="F5">
-        <v>0.9998497409293954</v>
+        <v>0.9996923849302558</v>
       </c>
       <c r="G5">
-        <v>1.00046618680836</v>
+        <v>1.0009543910664</v>
       </c>
       <c r="H5">
-        <v>1.00046618680836</v>
+        <v>1.0009543910664</v>
       </c>
       <c r="I5">
-        <v>1.00046618680836</v>
+        <v>1.0009543910664</v>
       </c>
       <c r="J5">
-        <v>0.9993007164265123</v>
+        <v>0.9985684335647317</v>
       </c>
       <c r="K5">
-        <v>1.000174823105189</v>
+        <v>1.000357892126796</v>
       </c>
       <c r="L5">
-        <v>0.9998601427881818</v>
+        <v>0.9997136932453751</v>
       </c>
       <c r="M5">
-        <v>0.9993007164265123</v>
+        <v>0.9985684335647317</v>
       </c>
       <c r="N5">
-        <v>1.00046618680836</v>
+        <v>1.0009543910664</v>
       </c>
       <c r="O5">
-        <v>1.000174823105189</v>
+        <v>1.000357892126796</v>
       </c>
       <c r="P5">
-        <v>0.9997377697658507</v>
+        <v>0.999463162845764</v>
       </c>
       <c r="Q5">
-        <v>1.000012282017292</v>
+        <v>1.000025138528526</v>
       </c>
       <c r="R5">
-        <v>0.9999805754466871</v>
+        <v>0.9999602389193093</v>
       </c>
       <c r="S5">
-        <v>0.9997750934870323</v>
+        <v>0.9995395702072613</v>
       </c>
       <c r="T5">
-        <v>0.9999805754466871</v>
+        <v>0.9999602389193093</v>
       </c>
       <c r="U5">
-        <v>0.9999478668173641</v>
+        <v>0.9998932754220459</v>
       </c>
       <c r="V5">
-        <v>1.000051530815563</v>
+        <v>1.000105498550917</v>
       </c>
       <c r="W5">
-        <v>0.9999539156574218</v>
+        <v>0.9999056564958122</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9985085762591386</v>
+        <v>0.9995852616148073</v>
       </c>
       <c r="D6">
-        <v>1.000573464436868</v>
+        <v>1.000159464208552</v>
       </c>
       <c r="E6">
-        <v>1.0008514440349</v>
+        <v>1.000236767698432</v>
       </c>
       <c r="F6">
-        <v>0.9995071213568286</v>
+        <v>0.9998629404708075</v>
       </c>
       <c r="G6">
-        <v>1.001529169347393</v>
+        <v>1.00042523771475</v>
       </c>
       <c r="H6">
-        <v>1.001529169347393</v>
+        <v>1.00042523771475</v>
       </c>
       <c r="I6">
-        <v>1.001529169347393</v>
+        <v>1.00042523771475</v>
       </c>
       <c r="J6">
-        <v>0.9977062246742856</v>
+        <v>0.9993621416991048</v>
       </c>
       <c r="K6">
-        <v>1.000573464436868</v>
+        <v>1.000159464208552</v>
       </c>
       <c r="L6">
-        <v>0.9995412436443589</v>
+        <v>0.9998724282709459</v>
       </c>
       <c r="M6">
-        <v>0.9977062246742856</v>
+        <v>0.9993621416991048</v>
       </c>
       <c r="N6">
-        <v>1.001529169347393</v>
+        <v>1.00042523771475</v>
       </c>
       <c r="O6">
-        <v>1.000573464436868</v>
+        <v>1.000159464208552</v>
       </c>
       <c r="P6">
-        <v>0.999139844555577</v>
+        <v>0.9997608029538283</v>
       </c>
       <c r="Q6">
-        <v>1.000040292896849</v>
+        <v>1.00001120233968</v>
       </c>
       <c r="R6">
-        <v>0.9999362861528489</v>
+        <v>0.999982281207469</v>
       </c>
       <c r="S6">
-        <v>0.9992622701559942</v>
+        <v>0.9997948487928214</v>
       </c>
       <c r="T6">
-        <v>0.9999362861528489</v>
+        <v>0.999982281207469</v>
       </c>
       <c r="U6">
-        <v>0.9998289949538438</v>
+        <v>0.9999524460233036</v>
       </c>
       <c r="V6">
-        <v>1.000169029832554</v>
+        <v>1.000047004361593</v>
       </c>
       <c r="W6">
-        <v>0.9998488385238302</v>
+        <v>0.9999579632357439</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999512856399415</v>
+        <v>0.9995453223198855</v>
       </c>
       <c r="D7">
-        <v>1.000018730729701</v>
+        <v>1.000174823105189</v>
       </c>
       <c r="E7">
-        <v>1.00002781075269</v>
+        <v>1.000259569776662</v>
       </c>
       <c r="F7">
-        <v>0.9999839014978936</v>
+        <v>0.9998497409293954</v>
       </c>
       <c r="G7">
-        <v>1.00004994725997</v>
+        <v>1.00046618680836</v>
       </c>
       <c r="H7">
-        <v>1.00004994725997</v>
+        <v>1.00046618680836</v>
       </c>
       <c r="I7">
-        <v>1.00004994725997</v>
+        <v>1.00046618680836</v>
       </c>
       <c r="J7">
-        <v>0.9999250774696574</v>
+        <v>0.9993007164265123</v>
       </c>
       <c r="K7">
-        <v>1.000018730729701</v>
+        <v>1.000174823105189</v>
       </c>
       <c r="L7">
-        <v>0.9999850153292521</v>
+        <v>0.9998601427881818</v>
       </c>
       <c r="M7">
-        <v>0.9999250774696574</v>
+        <v>0.9993007164265123</v>
       </c>
       <c r="N7">
-        <v>1.00004994725997</v>
+        <v>1.00046618680836</v>
       </c>
       <c r="O7">
-        <v>1.000018730729701</v>
+        <v>1.000174823105189</v>
       </c>
       <c r="P7">
-        <v>0.9999719040996795</v>
+        <v>0.9997377697658507</v>
       </c>
       <c r="Q7">
-        <v>1.000001316113798</v>
+        <v>1.000012282017292</v>
       </c>
       <c r="R7">
-        <v>0.9999979184864429</v>
+        <v>0.9999805754466871</v>
       </c>
       <c r="S7">
-        <v>0.9999759032324175</v>
+        <v>0.9997750934870323</v>
       </c>
       <c r="T7">
-        <v>0.9999979184864428</v>
+        <v>0.9999805754466871</v>
       </c>
       <c r="U7">
-        <v>0.9999944142393055</v>
+        <v>0.9999478668173641</v>
       </c>
       <c r="V7">
-        <v>1.000005520843438</v>
+        <v>1.000051530815563</v>
       </c>
       <c r="W7">
-        <v>0.9999950624261009</v>
+        <v>0.9999539156574218</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999962845187252</v>
+        <v>0.9985085762591386</v>
       </c>
       <c r="D8">
-        <v>1.000001429143176</v>
+        <v>1.000573464436868</v>
       </c>
       <c r="E8">
-        <v>1.000002120972451</v>
+        <v>1.0008514440349</v>
       </c>
       <c r="F8">
-        <v>0.9999987722366942</v>
+        <v>0.9995071213568286</v>
       </c>
       <c r="G8">
-        <v>1.000003809831843</v>
+        <v>1.001529169347393</v>
       </c>
       <c r="H8">
-        <v>1.000003809831843</v>
+        <v>1.001529169347393</v>
       </c>
       <c r="I8">
-        <v>1.000003809831843</v>
+        <v>1.001529169347393</v>
       </c>
       <c r="J8">
-        <v>0.9999942849949609</v>
+        <v>0.9977062246742856</v>
       </c>
       <c r="K8">
-        <v>1.000001429143176</v>
+        <v>1.000573464436868</v>
       </c>
       <c r="L8">
-        <v>0.9999988566196517</v>
+        <v>0.9995412436443589</v>
       </c>
       <c r="M8">
-        <v>0.9999942849949609</v>
+        <v>0.9977062246742856</v>
       </c>
       <c r="N8">
-        <v>1.000003809831843</v>
+        <v>1.001529169347393</v>
       </c>
       <c r="O8">
-        <v>1.000001429143176</v>
+        <v>1.000573464436868</v>
       </c>
       <c r="P8">
-        <v>0.9999978570690684</v>
+        <v>0.999139844555577</v>
       </c>
       <c r="Q8">
-        <v>1.000000100689935</v>
+        <v>1.000040292896849</v>
       </c>
       <c r="R8">
-        <v>0.9999998413233268</v>
+        <v>0.9999362861528489</v>
       </c>
       <c r="S8">
-        <v>0.9999981621249437</v>
+        <v>0.9992622701559942</v>
       </c>
       <c r="T8">
-        <v>0.9999998413233268</v>
+        <v>0.9999362861528489</v>
       </c>
       <c r="U8">
-        <v>0.9999995740516686</v>
+        <v>0.9998289949538438</v>
       </c>
       <c r="V8">
-        <v>1.000000421207704</v>
+        <v>1.000169029832554</v>
       </c>
       <c r="W8">
-        <v>0.9999996234325847</v>
+        <v>0.9998488385238302</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999179760463147</v>
+        <v>0.9999512856399415</v>
       </c>
       <c r="D9">
-        <v>1.000031538801238</v>
+        <v>1.000018730729701</v>
       </c>
       <c r="E9">
-        <v>1.000046825577834</v>
+        <v>1.00002781075269</v>
       </c>
       <c r="F9">
-        <v>0.9999728930233932</v>
+        <v>0.9999839014978936</v>
       </c>
       <c r="G9">
-        <v>1.000084100457472</v>
+        <v>1.00004994725997</v>
       </c>
       <c r="H9">
-        <v>1.000084100457472</v>
+        <v>1.00004994725997</v>
       </c>
       <c r="I9">
-        <v>1.000084100457472</v>
+        <v>1.00004994725997</v>
       </c>
       <c r="J9">
-        <v>0.9998738477699345</v>
+        <v>0.9999250774696574</v>
       </c>
       <c r="K9">
-        <v>1.000031538801238</v>
+        <v>1.000018730729701</v>
       </c>
       <c r="L9">
-        <v>0.9999747692724216</v>
+        <v>0.9999850153292521</v>
       </c>
       <c r="M9">
-        <v>0.9998738477699345</v>
+        <v>0.9999250774696574</v>
       </c>
       <c r="N9">
-        <v>1.000084100457472</v>
+        <v>1.00004994725997</v>
       </c>
       <c r="O9">
-        <v>1.000031538801238</v>
+        <v>1.000018730729701</v>
       </c>
       <c r="P9">
-        <v>0.9999526932855861</v>
+        <v>0.9999719040996795</v>
       </c>
       <c r="Q9">
-        <v>1.000002215912315</v>
+        <v>1.000001316113798</v>
       </c>
       <c r="R9">
-        <v>0.9999964956762147</v>
+        <v>0.9999979184864429</v>
       </c>
       <c r="S9">
-        <v>0.9999594265315218</v>
+        <v>0.9999759032324175</v>
       </c>
       <c r="T9">
-        <v>0.9999964956762147</v>
+        <v>0.9999979184864428</v>
       </c>
       <c r="U9">
-        <v>0.9999905950130094</v>
+        <v>0.9999944142393055</v>
       </c>
       <c r="V9">
-        <v>1.000009296101902</v>
+        <v>1.000005520843438</v>
       </c>
       <c r="W9">
-        <v>0.9999916862187308</v>
+        <v>0.9999950624261009</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9984864329889261</v>
+        <v>0.9999962845187252</v>
       </c>
       <c r="D10">
-        <v>1.000581978541815</v>
+        <v>1.000001429143176</v>
       </c>
       <c r="E10">
-        <v>1.000864085546087</v>
+        <v>1.000002120972451</v>
       </c>
       <c r="F10">
-        <v>0.9994998038014444</v>
+        <v>0.9999987722366942</v>
       </c>
       <c r="G10">
-        <v>1.001551872860031</v>
+        <v>1.000003809831843</v>
       </c>
       <c r="H10">
-        <v>1.001551872860031</v>
+        <v>1.000003809831843</v>
       </c>
       <c r="I10">
-        <v>1.001551872860031</v>
+        <v>1.000003809831843</v>
       </c>
       <c r="J10">
-        <v>0.9976721693472967</v>
+        <v>0.9999942849949609</v>
       </c>
       <c r="K10">
-        <v>1.000581978541815</v>
+        <v>1.000001429143176</v>
       </c>
       <c r="L10">
-        <v>0.9995344322829974</v>
+        <v>0.9999988566196517</v>
       </c>
       <c r="M10">
-        <v>0.9976721693472967</v>
+        <v>0.9999942849949609</v>
       </c>
       <c r="N10">
-        <v>1.001551872860031</v>
+        <v>1.000003809831843</v>
       </c>
       <c r="O10">
-        <v>1.000581978541815</v>
+        <v>1.000001429143176</v>
       </c>
       <c r="P10">
-        <v>0.999127073944556</v>
+        <v>0.9999978570690684</v>
       </c>
       <c r="Q10">
-        <v>1.00004089117163</v>
+        <v>1.000000100689935</v>
       </c>
       <c r="R10">
-        <v>0.9999353402497143</v>
+        <v>0.9999998413233268</v>
       </c>
       <c r="S10">
-        <v>0.9992513172301855</v>
+        <v>0.9999981621249437</v>
       </c>
       <c r="T10">
-        <v>0.9999353402497143</v>
+        <v>0.9999998413233268</v>
       </c>
       <c r="U10">
-        <v>0.9998264561376469</v>
+        <v>0.9999995740516686</v>
       </c>
       <c r="V10">
-        <v>1.000171539482124</v>
+        <v>1.000000421207704</v>
       </c>
       <c r="W10">
-        <v>0.9998465942388016</v>
+        <v>0.9999996234325847</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000240228567824</v>
+        <v>0.9999179760463147</v>
       </c>
       <c r="D11">
-        <v>0.9999076327246003</v>
+        <v>1.000031538801238</v>
       </c>
       <c r="E11">
-        <v>0.9998628593374334</v>
+        <v>1.000046825577834</v>
       </c>
       <c r="F11">
-        <v>1.000079390070348</v>
+        <v>0.9999728930233932</v>
       </c>
       <c r="G11">
-        <v>0.9997536893203405</v>
+        <v>1.000084100457472</v>
       </c>
       <c r="H11">
-        <v>0.9997536893203405</v>
+        <v>1.000084100457472</v>
       </c>
       <c r="I11">
-        <v>0.9997536893203405</v>
+        <v>1.000084100457472</v>
       </c>
       <c r="J11">
-        <v>1.000369464167153</v>
+        <v>0.9998738477699345</v>
       </c>
       <c r="K11">
-        <v>0.9999076327246003</v>
+        <v>1.000031538801238</v>
       </c>
       <c r="L11">
-        <v>1.000073892933089</v>
+        <v>0.9999747692724216</v>
       </c>
       <c r="M11">
-        <v>1.000369464167153</v>
+        <v>0.9998738477699345</v>
       </c>
       <c r="N11">
-        <v>0.9997536893203405</v>
+        <v>1.000084100457472</v>
       </c>
       <c r="O11">
-        <v>0.9999076327246003</v>
+        <v>1.000031538801238</v>
       </c>
       <c r="P11">
-        <v>1.000138548445877</v>
+        <v>0.9999526932855861</v>
       </c>
       <c r="Q11">
-        <v>0.9999935113974741</v>
+        <v>1.000002215912315</v>
       </c>
       <c r="R11">
-        <v>1.000010262070698</v>
+        <v>0.9999964956762147</v>
       </c>
       <c r="S11">
-        <v>1.000118828987367</v>
+        <v>0.9999594265315218</v>
       </c>
       <c r="T11">
-        <v>1.000010262070698</v>
+        <v>0.9999964956762147</v>
       </c>
       <c r="U11">
-        <v>1.000027544070611</v>
+        <v>0.9999905950130094</v>
       </c>
       <c r="V11">
-        <v>0.9999727731205565</v>
+        <v>1.000009296101902</v>
       </c>
       <c r="W11">
-        <v>1.000024348730674</v>
+        <v>0.9999916862187308</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9995593422736888</v>
+        <v>0.9984864329889261</v>
       </c>
       <c r="D12">
-        <v>1.00016943403158</v>
+        <v>1.000581978541815</v>
       </c>
       <c r="E12">
-        <v>1.000251567189473</v>
+        <v>1.000864085546087</v>
       </c>
       <c r="F12">
-        <v>0.9998543746526332</v>
+        <v>0.9994998038014444</v>
       </c>
       <c r="G12">
-        <v>1.000451811273686</v>
+        <v>1.001551872860031</v>
       </c>
       <c r="H12">
-        <v>1.000451811273686</v>
+        <v>1.001551872860031</v>
       </c>
       <c r="I12">
-        <v>1.000451811273686</v>
+        <v>1.001551872860031</v>
       </c>
       <c r="J12">
-        <v>0.9993222796210521</v>
+        <v>0.9976721693472967</v>
       </c>
       <c r="K12">
-        <v>1.00016943403158</v>
+        <v>1.000581978541815</v>
       </c>
       <c r="L12">
-        <v>0.9998644548210502</v>
+        <v>0.9995344322829974</v>
       </c>
       <c r="M12">
-        <v>0.9993222796210521</v>
+        <v>0.9976721693472967</v>
       </c>
       <c r="N12">
-        <v>1.000451811273686</v>
+        <v>1.001551872860031</v>
       </c>
       <c r="O12">
-        <v>1.00016943403158</v>
+        <v>1.000581978541815</v>
       </c>
       <c r="P12">
-        <v>0.9997458568263162</v>
+        <v>0.999127073944556</v>
       </c>
       <c r="Q12">
-        <v>1.000011904342107</v>
+        <v>1.00004089117163</v>
       </c>
       <c r="R12">
-        <v>0.9999811749754394</v>
+        <v>0.9999353402497143</v>
       </c>
       <c r="S12">
-        <v>0.9997820294350884</v>
+        <v>0.9992513172301855</v>
       </c>
       <c r="T12">
-        <v>0.9999811749754394</v>
+        <v>0.9999353402497143</v>
       </c>
       <c r="U12">
-        <v>0.9999494748947377</v>
+        <v>0.9998264561376469</v>
       </c>
       <c r="V12">
-        <v>1.000049942170527</v>
+        <v>1.000171539482124</v>
       </c>
       <c r="W12">
-        <v>0.9999553372368429</v>
+        <v>0.9998465942388016</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.00029768204097</v>
+        <v>1.000240228567824</v>
       </c>
       <c r="D13">
-        <v>0.99988554444777</v>
+        <v>0.9999076327246003</v>
       </c>
       <c r="E13">
-        <v>0.9998300591651761</v>
+        <v>0.9998628593374334</v>
       </c>
       <c r="F13">
-        <v>1.000098377345798</v>
+        <v>1.000079390070348</v>
       </c>
       <c r="G13">
-        <v>0.9996947826694347</v>
+        <v>0.9997536893203405</v>
       </c>
       <c r="H13">
-        <v>0.9996947826694347</v>
+        <v>0.9997536893203405</v>
       </c>
       <c r="I13">
-        <v>0.9996947826694347</v>
+        <v>0.9997536893203405</v>
       </c>
       <c r="J13">
-        <v>1.000457827995766</v>
+        <v>1.000369464167153</v>
       </c>
       <c r="K13">
-        <v>0.99988554444777</v>
+        <v>0.9999076327246003</v>
       </c>
       <c r="L13">
-        <v>1.000091564619223</v>
+        <v>1.000073892933089</v>
       </c>
       <c r="M13">
-        <v>1.000457827995766</v>
+        <v>1.000369464167153</v>
       </c>
       <c r="N13">
-        <v>0.9996947826694347</v>
+        <v>0.9997536893203405</v>
       </c>
       <c r="O13">
-        <v>0.99988554444777</v>
+        <v>0.9999076327246003</v>
       </c>
       <c r="P13">
-        <v>1.000171686221768</v>
+        <v>1.000138548445877</v>
       </c>
       <c r="Q13">
-        <v>0.9999919608967842</v>
+        <v>0.9999935113974741</v>
       </c>
       <c r="R13">
-        <v>1.00001271837099</v>
+        <v>1.000010262070698</v>
       </c>
       <c r="S13">
-        <v>1.000147249929778</v>
+        <v>1.000118828987367</v>
       </c>
       <c r="T13">
-        <v>1.00001271837099</v>
+        <v>1.000010262070698</v>
       </c>
       <c r="U13">
-        <v>1.000034133114692</v>
+        <v>1.000027544070611</v>
       </c>
       <c r="V13">
-        <v>0.9999662630256407</v>
+        <v>0.9999727731205565</v>
       </c>
       <c r="W13">
-        <v>1.000030172841488</v>
+        <v>1.000024348730674</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9973849800000003</v>
+        <v>0.9995593422736888</v>
       </c>
       <c r="D14">
-        <v>1.0010055</v>
+        <v>1.00016943403158</v>
       </c>
       <c r="E14">
-        <v>1.001492900000001</v>
+        <v>1.000251567189473</v>
       </c>
       <c r="F14">
-        <v>0.9991357999999997</v>
+        <v>0.9998543746526332</v>
       </c>
       <c r="G14">
-        <v>1.002681199999999</v>
+        <v>1.000451811273686</v>
       </c>
       <c r="H14">
-        <v>1.002681199999999</v>
+        <v>1.000451811273686</v>
       </c>
       <c r="I14">
-        <v>1.002681199999999</v>
+        <v>1.000451811273686</v>
       </c>
       <c r="J14">
-        <v>0.9959781599999993</v>
+        <v>0.9993222796210521</v>
       </c>
       <c r="K14">
-        <v>1.0010055</v>
+        <v>1.00016943403158</v>
       </c>
       <c r="L14">
-        <v>0.9991956300000011</v>
+        <v>0.9998644548210502</v>
       </c>
       <c r="M14">
-        <v>0.9959781599999993</v>
+        <v>0.9993222796210521</v>
       </c>
       <c r="N14">
-        <v>1.002681199999999</v>
+        <v>1.000451811273686</v>
       </c>
       <c r="O14">
-        <v>1.0010055</v>
+        <v>1.00016943403158</v>
       </c>
       <c r="P14">
-        <v>0.9984918299999996</v>
+        <v>0.9997458568263162</v>
       </c>
       <c r="Q14">
-        <v>1.00007065</v>
+        <v>1.000011904342107</v>
       </c>
       <c r="R14">
-        <v>0.9998882866666662</v>
+        <v>0.9999811749754394</v>
       </c>
       <c r="S14">
-        <v>0.9987064866666664</v>
+        <v>0.9997820294350884</v>
       </c>
       <c r="T14">
-        <v>0.9998882866666662</v>
+        <v>0.9999811749754394</v>
       </c>
       <c r="U14">
-        <v>0.9997001649999995</v>
+        <v>0.9999494748947377</v>
       </c>
       <c r="V14">
-        <v>1.000296371999999</v>
+        <v>1.000049942170527</v>
       </c>
       <c r="W14">
-        <v>0.9997349587500001</v>
+        <v>0.9999553372368429</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.99302616</v>
+        <v>1.00029768204097</v>
       </c>
       <c r="D15">
-        <v>1.0026814</v>
+        <v>0.99988554444777</v>
       </c>
       <c r="E15">
-        <v>1.0039812</v>
+        <v>0.9998300591651761</v>
       </c>
       <c r="F15">
-        <v>0.99769533</v>
+        <v>1.000098377345798</v>
       </c>
       <c r="G15">
-        <v>1.0071504</v>
+        <v>0.9996947826694347</v>
       </c>
       <c r="H15">
-        <v>1.0071504</v>
+        <v>0.9996947826694347</v>
       </c>
       <c r="I15">
-        <v>1.0071504</v>
+        <v>0.9996947826694347</v>
       </c>
       <c r="J15">
-        <v>0.98927441</v>
+        <v>1.000457827995766</v>
       </c>
       <c r="K15">
-        <v>1.0026814</v>
+        <v>0.99988554444777</v>
       </c>
       <c r="L15">
-        <v>0.99785488</v>
+        <v>1.000091564619223</v>
       </c>
       <c r="M15">
-        <v>0.98927441</v>
+        <v>1.000457827995766</v>
       </c>
       <c r="N15">
-        <v>1.0071504</v>
+        <v>0.9996947826694347</v>
       </c>
       <c r="O15">
-        <v>1.0026814</v>
+        <v>0.99988554444777</v>
       </c>
       <c r="P15">
-        <v>0.9959779049999999</v>
+        <v>1.000171686221768</v>
       </c>
       <c r="Q15">
-        <v>1.000188365</v>
+        <v>0.9999919608967842</v>
       </c>
       <c r="R15">
-        <v>0.99970207</v>
+        <v>1.00001271837099</v>
       </c>
       <c r="S15">
-        <v>0.99655038</v>
+        <v>1.000147249929778</v>
       </c>
       <c r="T15">
-        <v>0.99970207</v>
+        <v>1.00001271837099</v>
       </c>
       <c r="U15">
-        <v>0.999200385</v>
+        <v>1.000034133114692</v>
       </c>
       <c r="V15">
-        <v>1.000790388</v>
+        <v>0.9999662630256407</v>
       </c>
       <c r="W15">
-        <v>0.9992931475</v>
+        <v>1.000030172841488</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9973848100000001</v>
+        <v>0.9973849800000003</v>
       </c>
       <c r="D16">
         <v>1.0010055</v>
       </c>
       <c r="E16">
-        <v>1.001493</v>
+        <v>1.001492900000001</v>
       </c>
       <c r="F16">
-        <v>0.99913575</v>
+        <v>0.9991357999999997</v>
       </c>
       <c r="G16">
-        <v>1.0026814</v>
+        <v>1.002681199999999</v>
       </c>
       <c r="H16">
-        <v>1.0026814</v>
+        <v>1.002681199999999</v>
       </c>
       <c r="I16">
-        <v>1.0026814</v>
+        <v>1.002681199999999</v>
       </c>
       <c r="J16">
-        <v>0.9959779000000001</v>
+        <v>0.9959781599999993</v>
       </c>
       <c r="K16">
         <v>1.0010055</v>
       </c>
       <c r="L16">
-        <v>0.99919558</v>
+        <v>0.9991956300000011</v>
       </c>
       <c r="M16">
-        <v>0.9959779000000001</v>
+        <v>0.9959781599999993</v>
       </c>
       <c r="N16">
-        <v>1.0026814</v>
+        <v>1.002681199999999</v>
       </c>
       <c r="O16">
         <v>1.0010055</v>
       </c>
       <c r="P16">
-        <v>0.9984917</v>
+        <v>0.9984918299999996</v>
       </c>
       <c r="Q16">
-        <v>1.000070625</v>
+        <v>1.00007065</v>
       </c>
       <c r="R16">
-        <v>0.9998882666666665</v>
+        <v>0.9998882866666662</v>
       </c>
       <c r="S16">
-        <v>0.9987063833333334</v>
+        <v>0.9987064866666664</v>
       </c>
       <c r="T16">
-        <v>0.9998882666666665</v>
+        <v>0.9998882866666662</v>
       </c>
       <c r="U16">
-        <v>0.9997001374999999</v>
+        <v>0.9997001649999995</v>
       </c>
       <c r="V16">
-        <v>1.00029639</v>
+        <v>1.000296371999999</v>
       </c>
       <c r="W16">
-        <v>0.99973493</v>
+        <v>0.9997349587500001</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9973847299999999</v>
+        <v>0.99302616</v>
       </c>
       <c r="D17">
-        <v>1.0010056</v>
+        <v>1.0026814</v>
       </c>
       <c r="E17">
-        <v>1.001493</v>
+        <v>1.0039812</v>
       </c>
       <c r="F17">
-        <v>0.9991357199999998</v>
+        <v>0.99769533</v>
       </c>
       <c r="G17">
-        <v>1.0026815</v>
+        <v>1.0071504</v>
       </c>
       <c r="H17">
-        <v>1.0026815</v>
+        <v>1.0071504</v>
       </c>
       <c r="I17">
-        <v>1.0026815</v>
+        <v>1.0071504</v>
       </c>
       <c r="J17">
-        <v>0.99597777</v>
+        <v>0.98927441</v>
       </c>
       <c r="K17">
-        <v>1.0010056</v>
+        <v>1.0026814</v>
       </c>
       <c r="L17">
-        <v>0.99919555</v>
+        <v>0.99785488</v>
       </c>
       <c r="M17">
-        <v>0.99597777</v>
+        <v>0.98927441</v>
       </c>
       <c r="N17">
-        <v>1.0026815</v>
+        <v>1.0071504</v>
       </c>
       <c r="O17">
-        <v>1.0010056</v>
+        <v>1.0026814</v>
       </c>
       <c r="P17">
-        <v>0.9984916850000001</v>
+        <v>0.9959779049999999</v>
       </c>
       <c r="Q17">
-        <v>1.00007066</v>
+        <v>1.000188365</v>
       </c>
       <c r="R17">
-        <v>0.99988829</v>
+        <v>0.99970207</v>
       </c>
       <c r="S17">
-        <v>0.9987063633333334</v>
+        <v>0.99655038</v>
       </c>
       <c r="T17">
-        <v>0.99988829</v>
+        <v>0.99970207</v>
       </c>
       <c r="U17">
-        <v>0.9997001475</v>
+        <v>0.999200385</v>
       </c>
       <c r="V17">
-        <v>1.000296418</v>
+        <v>1.000790388</v>
       </c>
       <c r="W17">
-        <v>0.99973493375</v>
+        <v>0.9992931475</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9989372687671239</v>
+        <v>0.9973848100000001</v>
       </c>
       <c r="D18">
-        <v>1.000408610410959</v>
+        <v>1.0010055</v>
       </c>
       <c r="E18">
-        <v>1.000606696438356</v>
+        <v>1.001493</v>
       </c>
       <c r="F18">
-        <v>0.9996487935616435</v>
+        <v>0.99913575</v>
       </c>
       <c r="G18">
-        <v>1.001089632328767</v>
+        <v>1.0026814</v>
       </c>
       <c r="H18">
-        <v>1.001089632328767</v>
+        <v>1.0026814</v>
       </c>
       <c r="I18">
-        <v>1.001089632328767</v>
+        <v>1.0026814</v>
       </c>
       <c r="J18">
-        <v>0.9983655384931508</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="K18">
-        <v>1.000408610410959</v>
+        <v>1.0010055</v>
       </c>
       <c r="L18">
-        <v>0.9996731095890412</v>
+        <v>0.99919558</v>
       </c>
       <c r="M18">
-        <v>0.9983655384931508</v>
+        <v>0.9959779000000001</v>
       </c>
       <c r="N18">
-        <v>1.001089632328767</v>
+        <v>1.0026814</v>
       </c>
       <c r="O18">
-        <v>1.000408610410959</v>
+        <v>1.0010055</v>
       </c>
       <c r="P18">
-        <v>0.9993870744520548</v>
+        <v>0.9984917</v>
       </c>
       <c r="Q18">
-        <v>1.000028701986301</v>
+        <v>1.000070625</v>
       </c>
       <c r="R18">
-        <v>0.9999545937442923</v>
+        <v>0.9998882666666665</v>
       </c>
       <c r="S18">
-        <v>0.999474314155251</v>
+        <v>0.9987063833333334</v>
       </c>
       <c r="T18">
-        <v>0.9999545937442923</v>
+        <v>0.9998882666666665</v>
       </c>
       <c r="U18">
-        <v>0.9998781436986302</v>
+        <v>0.9997001374999999</v>
       </c>
       <c r="V18">
-        <v>1.000120441424658</v>
+        <v>1.00029639</v>
       </c>
       <c r="W18">
-        <v>0.9998922824999998</v>
+        <v>0.99973493</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9973848152631578</v>
+        <v>0.9973847299999999</v>
       </c>
       <c r="D19">
-        <v>1.00100552631579</v>
+        <v>1.0010056</v>
       </c>
       <c r="E19">
-        <v>1.001492968421053</v>
+        <v>1.001493</v>
       </c>
       <c r="F19">
-        <v>0.9991357505263158</v>
+        <v>0.9991357199999998</v>
       </c>
       <c r="G19">
-        <v>1.002681394736842</v>
+        <v>1.0026815</v>
       </c>
       <c r="H19">
-        <v>1.002681394736842</v>
+        <v>1.0026815</v>
       </c>
       <c r="I19">
-        <v>1.002681394736842</v>
+        <v>1.0026815</v>
       </c>
       <c r="J19">
-        <v>0.9959779089473685</v>
+        <v>0.99597777</v>
       </c>
       <c r="K19">
-        <v>1.00100552631579</v>
+        <v>1.0010056</v>
       </c>
       <c r="L19">
-        <v>0.9991955810526316</v>
+        <v>0.99919555</v>
       </c>
       <c r="M19">
-        <v>0.9959779089473685</v>
+        <v>0.99597777</v>
       </c>
       <c r="N19">
-        <v>1.002681394736842</v>
+        <v>1.0026815</v>
       </c>
       <c r="O19">
-        <v>1.00100552631579</v>
+        <v>1.0010056</v>
       </c>
       <c r="P19">
-        <v>0.9984917176315793</v>
+        <v>0.9984916850000001</v>
       </c>
       <c r="Q19">
-        <v>1.000070638421053</v>
+        <v>1.00007066</v>
       </c>
       <c r="R19">
-        <v>0.9998882766666668</v>
+        <v>0.99988829</v>
       </c>
       <c r="S19">
-        <v>0.9987063952631581</v>
+        <v>0.9987063633333334</v>
       </c>
       <c r="T19">
-        <v>0.9998882766666668</v>
+        <v>0.99988829</v>
       </c>
       <c r="U19">
-        <v>0.999700145131579</v>
+        <v>0.9997001475</v>
       </c>
       <c r="V19">
-        <v>1.000296395052632</v>
+        <v>1.000296418</v>
       </c>
       <c r="W19">
-        <v>0.9997349339473687</v>
+        <v>0.99973493375</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9988185799999999</v>
+        <v>0.9989372687671239</v>
       </c>
       <c r="D20">
-        <v>1.00045425</v>
+        <v>1.000408610410959</v>
       </c>
       <c r="E20">
-        <v>1.000674448947369</v>
+        <v>1.000606696438356</v>
       </c>
       <c r="F20">
-        <v>0.9996095678947367</v>
+        <v>0.9996487935616435</v>
       </c>
       <c r="G20">
-        <v>1.001211336315789</v>
+        <v>1.001089632328767</v>
       </c>
       <c r="H20">
-        <v>1.001211336315789</v>
+        <v>1.001089632328767</v>
       </c>
       <c r="I20">
-        <v>1.001211336315789</v>
+        <v>1.001089632328767</v>
       </c>
       <c r="J20">
-        <v>0.9981830136842107</v>
+        <v>0.9983655384931508</v>
       </c>
       <c r="K20">
-        <v>1.00045425</v>
+        <v>1.000408610410959</v>
       </c>
       <c r="L20">
-        <v>0.9996366084210527</v>
+        <v>0.9996731095890412</v>
       </c>
       <c r="M20">
-        <v>0.9981830136842107</v>
+        <v>0.9983655384931508</v>
       </c>
       <c r="N20">
-        <v>1.001211336315789</v>
+        <v>1.001089632328767</v>
       </c>
       <c r="O20">
-        <v>1.00045425</v>
+        <v>1.000408610410959</v>
       </c>
       <c r="P20">
-        <v>0.9993186318421053</v>
+        <v>0.9993870744520548</v>
       </c>
       <c r="Q20">
-        <v>1.000031908947368</v>
+        <v>1.000028701986301</v>
       </c>
       <c r="R20">
-        <v>0.9999495333333334</v>
+        <v>0.9999545937442923</v>
       </c>
       <c r="S20">
-        <v>0.9994156105263158</v>
+        <v>0.999474314155251</v>
       </c>
       <c r="T20">
-        <v>0.9999495333333334</v>
+        <v>0.9999545937442923</v>
       </c>
       <c r="U20">
-        <v>0.9998645419736841</v>
+        <v>0.9998781436986302</v>
       </c>
       <c r="V20">
-        <v>1.000133900842105</v>
+        <v>1.000120441424658</v>
       </c>
       <c r="W20">
-        <v>0.9998802569078947</v>
+        <v>0.9998922824999998</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9979547335471384</v>
+        <v>0.9973848152631578</v>
       </c>
       <c r="D21">
-        <v>1.00078638839985</v>
+        <v>1.00100552631579</v>
       </c>
       <c r="E21">
-        <v>1.001167609397718</v>
+        <v>1.001492968421053</v>
       </c>
       <c r="F21">
-        <v>0.9993240927643519</v>
+        <v>0.9991357505263158</v>
       </c>
       <c r="G21">
-        <v>1.002097043146077</v>
+        <v>1.002681394736842</v>
       </c>
       <c r="H21">
-        <v>1.002097043146077</v>
+        <v>1.002681394736842</v>
       </c>
       <c r="I21">
-        <v>1.002097043146077</v>
+        <v>1.002681394736842</v>
       </c>
       <c r="J21">
-        <v>0.9968544307459394</v>
+        <v>0.9959779089473685</v>
       </c>
       <c r="K21">
-        <v>1.00078638839985</v>
+        <v>1.00100552631579</v>
       </c>
       <c r="L21">
-        <v>0.999370885268079</v>
+        <v>0.9991955810526316</v>
       </c>
       <c r="M21">
-        <v>0.9968544307459394</v>
+        <v>0.9959779089473685</v>
       </c>
       <c r="N21">
-        <v>1.002097043146077</v>
+        <v>1.002681394736842</v>
       </c>
       <c r="O21">
-        <v>1.00078638839985</v>
+        <v>1.00100552631579</v>
       </c>
       <c r="P21">
-        <v>0.9988204095728945</v>
+        <v>0.9984917176315793</v>
       </c>
       <c r="Q21">
-        <v>1.000055240582101</v>
+        <v>1.000070638421053</v>
       </c>
       <c r="R21">
-        <v>0.9999126207639554</v>
+        <v>0.9998882766666668</v>
       </c>
       <c r="S21">
-        <v>0.998988303970047</v>
+        <v>0.9987063952631581</v>
       </c>
       <c r="T21">
-        <v>0.9999126207639554</v>
+        <v>0.9998882766666668</v>
       </c>
       <c r="U21">
-        <v>0.9997654887640545</v>
+        <v>0.999700145131579</v>
       </c>
       <c r="V21">
-        <v>1.000231799640459</v>
+        <v>1.000296395052632</v>
       </c>
       <c r="W21">
-        <v>0.9997926964586253</v>
+        <v>0.9997349339473687</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9994521648468052</v>
+        <v>0.9988185799999999</v>
       </c>
       <c r="D22">
-        <v>1.000210651894594</v>
+        <v>1.00045425</v>
       </c>
       <c r="E22">
-        <v>1.000312744731233</v>
+        <v>1.000674448947369</v>
       </c>
       <c r="F22">
-        <v>0.9998189516654599</v>
+        <v>0.9996095678947367</v>
       </c>
       <c r="G22">
-        <v>1.000561704110276</v>
+        <v>1.001211336315789</v>
       </c>
       <c r="H22">
-        <v>1.000561704110276</v>
+        <v>1.001211336315789</v>
       </c>
       <c r="I22">
-        <v>1.000561704110276</v>
+        <v>1.001211336315789</v>
       </c>
       <c r="J22">
-        <v>0.9991574420209649</v>
+        <v>0.9981830136842107</v>
       </c>
       <c r="K22">
-        <v>1.000210651894594</v>
+        <v>1.00045425</v>
       </c>
       <c r="L22">
-        <v>0.9998314928942291</v>
+        <v>0.9996366084210527</v>
       </c>
       <c r="M22">
-        <v>0.9991574420209649</v>
+        <v>0.9981830136842107</v>
       </c>
       <c r="N22">
-        <v>1.000561704110276</v>
+        <v>1.001211336315789</v>
       </c>
       <c r="O22">
-        <v>1.000210651894594</v>
+        <v>1.00045425</v>
       </c>
       <c r="P22">
-        <v>0.9996840469577795</v>
+        <v>0.9993186318421053</v>
       </c>
       <c r="Q22">
-        <v>1.000014801780027</v>
+        <v>1.000031908947368</v>
       </c>
       <c r="R22">
-        <v>0.9999765993419448</v>
+        <v>0.9999495333333334</v>
       </c>
       <c r="S22">
-        <v>0.999729015193673</v>
+        <v>0.9994156105263158</v>
       </c>
       <c r="T22">
-        <v>0.9999765993419448</v>
+        <v>0.9999495333333334</v>
       </c>
       <c r="U22">
-        <v>0.9999371874228236</v>
+        <v>0.9998645419736841</v>
       </c>
       <c r="V22">
-        <v>1.000062090760314</v>
+        <v>1.000133900842105</v>
       </c>
       <c r="W22">
-        <v>0.9999444755072695</v>
+        <v>0.9998802569078947</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.000666085970115</v>
+        <v>0.9979547335471384</v>
       </c>
       <c r="D23">
-        <v>0.9997438938034638</v>
+        <v>1.00078638839985</v>
       </c>
       <c r="E23">
-        <v>0.9996197449061232</v>
+        <v>1.001167609397718</v>
       </c>
       <c r="F23">
-        <v>1.000220129817869</v>
+        <v>0.9993240927643519</v>
       </c>
       <c r="G23">
-        <v>0.999317052328887</v>
+        <v>1.002097043146077</v>
       </c>
       <c r="H23">
-        <v>0.999317052328887</v>
+        <v>1.002097043146077</v>
       </c>
       <c r="I23">
-        <v>0.999317052328887</v>
+        <v>1.002097043146077</v>
       </c>
       <c r="J23">
-        <v>1.001024430724695</v>
+        <v>0.9968544307459394</v>
       </c>
       <c r="K23">
-        <v>0.9997438938034638</v>
+        <v>1.00078638839985</v>
       </c>
       <c r="L23">
-        <v>1.000204886332857</v>
+        <v>0.999370885268079</v>
       </c>
       <c r="M23">
-        <v>1.001024430724695</v>
+        <v>0.9968544307459394</v>
       </c>
       <c r="N23">
-        <v>0.999317052328887</v>
+        <v>1.002097043146077</v>
       </c>
       <c r="O23">
-        <v>0.9997438938034638</v>
+        <v>1.00078638839985</v>
       </c>
       <c r="P23">
-        <v>1.000384162264079</v>
+        <v>0.9988204095728945</v>
       </c>
       <c r="Q23">
-        <v>0.9999820118106664</v>
+        <v>1.000055240582101</v>
       </c>
       <c r="R23">
-        <v>1.000028458952349</v>
+        <v>0.9999126207639554</v>
       </c>
       <c r="S23">
-        <v>1.000329484782009</v>
+        <v>0.998988303970047</v>
       </c>
       <c r="T23">
-        <v>1.000028458952348</v>
+        <v>0.9999126207639554</v>
       </c>
       <c r="U23">
-        <v>1.000076376668729</v>
+        <v>0.9997654887640545</v>
       </c>
       <c r="V23">
-        <v>0.9999245118007604</v>
+        <v>1.000231799640459</v>
       </c>
       <c r="W23">
-        <v>1.000067514710934</v>
+        <v>0.9997926964586253</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.000172721969755</v>
+        <v>0.9994521648468052</v>
       </c>
       <c r="D24">
-        <v>0.999933589474673</v>
+        <v>1.000210651894594</v>
       </c>
       <c r="E24">
-        <v>0.9999013970599903</v>
+        <v>1.000312744731233</v>
       </c>
       <c r="F24">
-        <v>1.000057082469059</v>
+        <v>0.9998189516654599</v>
       </c>
       <c r="G24">
-        <v>0.9998229063943893</v>
+        <v>1.000561704110276</v>
       </c>
       <c r="H24">
-        <v>0.9998229063943893</v>
+        <v>1.000561704110276</v>
       </c>
       <c r="I24">
-        <v>0.9998229063943893</v>
+        <v>1.000561704110276</v>
       </c>
       <c r="J24">
-        <v>1.000265642093876</v>
+        <v>0.9991574420209649</v>
       </c>
       <c r="K24">
-        <v>0.999933589474673</v>
+        <v>1.000210651894594</v>
       </c>
       <c r="L24">
-        <v>1.000053130527871</v>
+        <v>0.9998314928942291</v>
       </c>
       <c r="M24">
-        <v>1.000265642093876</v>
+        <v>0.9991574420209649</v>
       </c>
       <c r="N24">
-        <v>0.9998229063943893</v>
+        <v>1.000561704110276</v>
       </c>
       <c r="O24">
-        <v>0.999933589474673</v>
+        <v>1.000210651894594</v>
       </c>
       <c r="P24">
-        <v>1.000099615784275</v>
+        <v>0.9996840469577795</v>
       </c>
       <c r="Q24">
-        <v>0.999995335971866</v>
+        <v>1.000014801780027</v>
       </c>
       <c r="R24">
-        <v>1.00000737932098</v>
+        <v>0.9999765993419448</v>
       </c>
       <c r="S24">
-        <v>1.000085438012536</v>
+        <v>0.999729015193673</v>
       </c>
       <c r="T24">
-        <v>1.00000737932098</v>
+        <v>0.9999765993419448</v>
       </c>
       <c r="U24">
-        <v>1.000019805107999</v>
+        <v>0.9999371874228236</v>
       </c>
       <c r="V24">
-        <v>0.9999804253652773</v>
+        <v>1.000062090760314</v>
       </c>
       <c r="W24">
-        <v>1.000017507433036</v>
+        <v>0.9999444755072695</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.002083855124042</v>
+        <v>1.000666085970115</v>
       </c>
       <c r="D25">
-        <v>0.9991987685526331</v>
+        <v>0.9997438938034638</v>
       </c>
       <c r="E25">
-        <v>0.9988103596641935</v>
+        <v>0.9996197449061232</v>
       </c>
       <c r="F25">
-        <v>1.000688671145604</v>
+        <v>1.000220129817869</v>
       </c>
       <c r="G25">
-        <v>0.9978633836255885</v>
+        <v>0.999317052328887</v>
       </c>
       <c r="H25">
-        <v>0.9978633836255885</v>
+        <v>0.999317052328887</v>
       </c>
       <c r="I25">
-        <v>0.9978633836255885</v>
+        <v>0.999317052328887</v>
       </c>
       <c r="J25">
-        <v>1.003204917279388</v>
+        <v>1.001024430724695</v>
       </c>
       <c r="K25">
-        <v>0.9991987685526331</v>
+        <v>0.9997438938034638</v>
       </c>
       <c r="L25">
-        <v>1.000640976689299</v>
+        <v>1.000204886332857</v>
       </c>
       <c r="M25">
-        <v>1.003204917279388</v>
+        <v>1.001024430724695</v>
       </c>
       <c r="N25">
-        <v>0.9978633836255885</v>
+        <v>0.999317052328887</v>
       </c>
       <c r="O25">
-        <v>0.9991987685526331</v>
+        <v>0.9997438938034638</v>
       </c>
       <c r="P25">
-        <v>1.001201842916011</v>
+        <v>1.000384162264079</v>
       </c>
       <c r="Q25">
-        <v>0.9999437198491185</v>
+        <v>0.9999820118106664</v>
       </c>
       <c r="R25">
-        <v>1.000089023152537</v>
+        <v>1.000028458952349</v>
       </c>
       <c r="S25">
-        <v>1.001030785659208</v>
+        <v>1.000329484782009</v>
       </c>
       <c r="T25">
-        <v>1.000089023152537</v>
+        <v>1.000028458952348</v>
       </c>
       <c r="U25">
-        <v>1.000238935150803</v>
+        <v>1.000076376668729</v>
       </c>
       <c r="V25">
-        <v>0.9997638248457605</v>
+        <v>0.9999245118007604</v>
       </c>
       <c r="W25">
-        <v>1.000211212579173</v>
+        <v>1.000067514710934</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.000556320113579</v>
+        <v>1.000172721969755</v>
       </c>
       <c r="D26">
-        <v>0.9997861034009849</v>
+        <v>0.999933589474673</v>
       </c>
       <c r="E26">
-        <v>0.9996824132729599</v>
+        <v>0.9999013970599903</v>
       </c>
       <c r="F26">
-        <v>1.000183854568552</v>
+        <v>1.000057082469059</v>
       </c>
       <c r="G26">
-        <v>0.9994296059150134</v>
+        <v>0.9998229063943893</v>
       </c>
       <c r="H26">
-        <v>0.9994296059150134</v>
+        <v>0.9998229063943893</v>
       </c>
       <c r="I26">
-        <v>0.9994296059150134</v>
+        <v>0.9998229063943893</v>
       </c>
       <c r="J26">
-        <v>1.000855588515918</v>
+        <v>1.000265642093876</v>
       </c>
       <c r="K26">
-        <v>0.9997861034009849</v>
+        <v>0.999933589474673</v>
       </c>
       <c r="L26">
-        <v>1.000171124288926</v>
+        <v>1.000053130527871</v>
       </c>
       <c r="M26">
-        <v>1.000855588515918</v>
+        <v>1.000265642093876</v>
       </c>
       <c r="N26">
-        <v>0.9994296059150134</v>
+        <v>0.9998229063943893</v>
       </c>
       <c r="O26">
-        <v>0.9997861034009849</v>
+        <v>0.999933589474673</v>
       </c>
       <c r="P26">
-        <v>1.000320845958452</v>
+        <v>1.000099615784275</v>
       </c>
       <c r="Q26">
-        <v>0.9999849789847683</v>
+        <v>0.999995335971866</v>
       </c>
       <c r="R26">
-        <v>1.000023765943972</v>
+        <v>1.00000737932098</v>
       </c>
       <c r="S26">
-        <v>1.000275182161818</v>
+        <v>1.000085438012536</v>
       </c>
       <c r="T26">
-        <v>1.000023765943972</v>
+        <v>1.00000737932098</v>
       </c>
       <c r="U26">
-        <v>1.000063788100117</v>
+        <v>1.000019805107999</v>
       </c>
       <c r="V26">
-        <v>0.9999369516630964</v>
+        <v>0.9999804253652773</v>
       </c>
       <c r="W26">
-        <v>1.000056389184615</v>
+        <v>1.000017507433036</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9998441458509612</v>
+        <v>1.002083855124042</v>
       </c>
       <c r="D27">
-        <v>1.000059917426136</v>
+        <v>0.9991987685526331</v>
       </c>
       <c r="E27">
-        <v>1.000088977644943</v>
+        <v>0.9988103596641935</v>
       </c>
       <c r="F27">
-        <v>0.9999484810489256</v>
+        <v>1.000688671145604</v>
       </c>
       <c r="G27">
-        <v>1.000159790229312</v>
+        <v>0.9978633836255885</v>
       </c>
       <c r="H27">
-        <v>1.000159790229312</v>
+        <v>0.9978633836255885</v>
       </c>
       <c r="I27">
-        <v>1.000159790229312</v>
+        <v>0.9978633836255885</v>
       </c>
       <c r="J27">
-        <v>0.9997602931635177</v>
+        <v>1.003204917279388</v>
       </c>
       <c r="K27">
-        <v>1.000059917426136</v>
+        <v>0.9991987685526331</v>
       </c>
       <c r="L27">
-        <v>0.9999520755935685</v>
+        <v>1.000640976689299</v>
       </c>
       <c r="M27">
-        <v>0.9997602931635177</v>
+        <v>1.003204917279388</v>
       </c>
       <c r="N27">
-        <v>1.000159790229312</v>
+        <v>0.9978633836255885</v>
       </c>
       <c r="O27">
-        <v>1.000059917426136</v>
+        <v>0.9991987685526331</v>
       </c>
       <c r="P27">
-        <v>0.9999101052948266</v>
+        <v>1.001201842916011</v>
       </c>
       <c r="Q27">
-        <v>1.000004199237531</v>
+        <v>0.9999437198491185</v>
       </c>
       <c r="R27">
-        <v>0.9999933336063219</v>
+        <v>1.000089023152537</v>
       </c>
       <c r="S27">
-        <v>0.9999228972128597</v>
+        <v>1.001030785659208</v>
       </c>
       <c r="T27">
-        <v>0.9999933336063219</v>
+        <v>1.000089023152537</v>
       </c>
       <c r="U27">
-        <v>0.9999821204669728</v>
+        <v>1.000238935150803</v>
       </c>
       <c r="V27">
-        <v>1.000017654419441</v>
+        <v>0.9997638248457605</v>
       </c>
       <c r="W27">
-        <v>0.9999841997979375</v>
+        <v>1.000211212579173</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9998472461621063</v>
+        <v>1.000556320113579</v>
       </c>
       <c r="D28">
-        <v>1.000058744165409</v>
+        <v>0.9997861034009849</v>
       </c>
       <c r="E28">
-        <v>1.000087206933322</v>
+        <v>0.9996824132729599</v>
       </c>
       <c r="F28">
-        <v>0.9999495205925758</v>
+        <v>1.000183854568552</v>
       </c>
       <c r="G28">
-        <v>1.000156626571113</v>
+        <v>0.9994296059150134</v>
       </c>
       <c r="H28">
-        <v>1.000156626571113</v>
+        <v>0.9994296059150134</v>
       </c>
       <c r="I28">
-        <v>1.000156626571113</v>
+        <v>0.9994296059150134</v>
       </c>
       <c r="J28">
-        <v>0.9997650678837464</v>
+        <v>1.000855588515918</v>
       </c>
       <c r="K28">
-        <v>1.000058744165409</v>
+        <v>0.9997861034009849</v>
       </c>
       <c r="L28">
-        <v>0.9999530146953785</v>
+        <v>1.000171124288926</v>
       </c>
       <c r="M28">
-        <v>0.9997650678837464</v>
+        <v>1.000855588515918</v>
       </c>
       <c r="N28">
-        <v>1.000156626571113</v>
+        <v>0.9994296059150134</v>
       </c>
       <c r="O28">
-        <v>1.000058744165409</v>
+        <v>0.9997861034009849</v>
       </c>
       <c r="P28">
-        <v>0.9999119060245778</v>
+        <v>1.000320845958452</v>
       </c>
       <c r="Q28">
-        <v>1.000004132378993</v>
+        <v>0.9999849789847683</v>
       </c>
       <c r="R28">
-        <v>0.9999934795400897</v>
+        <v>1.000023765943972</v>
       </c>
       <c r="S28">
-        <v>0.9999244442139105</v>
+        <v>1.000275182161818</v>
       </c>
       <c r="T28">
-        <v>0.9999934795400897</v>
+        <v>1.000023765943972</v>
       </c>
       <c r="U28">
-        <v>0.9999824898032111</v>
+        <v>1.000063788100117</v>
       </c>
       <c r="V28">
-        <v>1.000017317156792</v>
+        <v>0.9999369516630964</v>
       </c>
       <c r="W28">
-        <v>0.9999845213961326</v>
+        <v>1.000056389184615</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9998441458509612</v>
+      </c>
+      <c r="D29">
+        <v>1.000059917426136</v>
+      </c>
+      <c r="E29">
+        <v>1.000088977644943</v>
+      </c>
+      <c r="F29">
+        <v>0.9999484810489256</v>
+      </c>
+      <c r="G29">
+        <v>1.000159790229312</v>
+      </c>
+      <c r="H29">
+        <v>1.000159790229312</v>
+      </c>
+      <c r="I29">
+        <v>1.000159790229312</v>
+      </c>
+      <c r="J29">
+        <v>0.9997602931635177</v>
+      </c>
+      <c r="K29">
+        <v>1.000059917426136</v>
+      </c>
+      <c r="L29">
+        <v>0.9999520755935685</v>
+      </c>
+      <c r="M29">
+        <v>0.9997602931635177</v>
+      </c>
+      <c r="N29">
+        <v>1.000159790229312</v>
+      </c>
+      <c r="O29">
+        <v>1.000059917426136</v>
+      </c>
+      <c r="P29">
+        <v>0.9999101052948266</v>
+      </c>
+      <c r="Q29">
+        <v>1.000004199237531</v>
+      </c>
+      <c r="R29">
+        <v>0.9999933336063219</v>
+      </c>
+      <c r="S29">
+        <v>0.9999228972128597</v>
+      </c>
+      <c r="T29">
+        <v>0.9999933336063219</v>
+      </c>
+      <c r="U29">
+        <v>0.9999821204669728</v>
+      </c>
+      <c r="V29">
+        <v>1.000017654419441</v>
+      </c>
+      <c r="W29">
+        <v>0.9999841997979375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9998472461621063</v>
+      </c>
+      <c r="D30">
+        <v>1.000058744165409</v>
+      </c>
+      <c r="E30">
+        <v>1.000087206933322</v>
+      </c>
+      <c r="F30">
+        <v>0.9999495205925758</v>
+      </c>
+      <c r="G30">
+        <v>1.000156626571113</v>
+      </c>
+      <c r="H30">
+        <v>1.000156626571113</v>
+      </c>
+      <c r="I30">
+        <v>1.000156626571113</v>
+      </c>
+      <c r="J30">
+        <v>0.9997650678837464</v>
+      </c>
+      <c r="K30">
+        <v>1.000058744165409</v>
+      </c>
+      <c r="L30">
+        <v>0.9999530146953785</v>
+      </c>
+      <c r="M30">
+        <v>0.9997650678837464</v>
+      </c>
+      <c r="N30">
+        <v>1.000156626571113</v>
+      </c>
+      <c r="O30">
+        <v>1.000058744165409</v>
+      </c>
+      <c r="P30">
+        <v>0.9999119060245778</v>
+      </c>
+      <c r="Q30">
+        <v>1.000004132378993</v>
+      </c>
+      <c r="R30">
+        <v>0.9999934795400897</v>
+      </c>
+      <c r="S30">
+        <v>0.9999244442139105</v>
+      </c>
+      <c r="T30">
+        <v>0.9999934795400897</v>
+      </c>
+      <c r="U30">
+        <v>0.9999824898032111</v>
+      </c>
+      <c r="V30">
+        <v>1.000017317156792</v>
+      </c>
+      <c r="W30">
+        <v>0.9999845213961326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.000308165278203</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.999881532971886</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9998240804937999</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.000101846808938</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9996840504212213</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9996840504212213</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9996840504212213</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.00047393436494</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.999881532971886</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.000094796831599</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.00047393436494</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.9996840504212213</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>0.999881532971886</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.000177733668413</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9999916898904119</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.000013172586016</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.000152438048588</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000013172586016</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.000035341141746</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.9999650829976412</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.000031242517809</v>
       </c>
     </row>
